--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_11_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_11_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2300300.601883267</v>
+        <v>2338464.567503148</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9297043.851899421</v>
+        <v>10714188.49777989</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7742851.498854401</v>
+        <v>7461424.992723374</v>
       </c>
     </row>
     <row r="11">
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>5.400124791776761e-12</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3503,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.058532461684081e-12</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -7102,31 +7104,31 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>5.454671506845214e-12</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>5.454671506845214e-12</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>5.454671506845214e-12</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>5.454671506845214e-12</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.454671506845214e-12</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.454671506845214e-12</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>5.454671506845214e-12</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>5.454671506845214e-12</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>5.454671506845214e-12</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.069224708771799e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -7172,52 +7174,52 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.069224708771799e-12</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1.069224708771799e-12</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1.069224708771799e-12</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.069224708771799e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1.069224708771799e-12</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1.069224708771799e-12</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.069224708771799e-12</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.069224708771799e-12</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.069224708771799e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>1.069224708771799e-12</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.069224708771799e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.069224708771799e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1.069224708771799e-12</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.069224708771799e-12</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1.069224708771799e-12</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.069224708771799e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -23255,76 +23257,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>358.1696334656192</v>
+        <v>213.4981318212546</v>
       </c>
       <c r="C11" t="n">
-        <v>322.4677940726305</v>
+        <v>177.7962924282659</v>
       </c>
       <c r="D11" t="n">
-        <v>306.6407632727974</v>
+        <v>161.9692616284329</v>
       </c>
       <c r="E11" t="n">
-        <v>352.2387279966206</v>
+        <v>207.5672263522561</v>
       </c>
       <c r="F11" t="n">
-        <v>396.4306022709785</v>
+        <v>251.7591006266139</v>
       </c>
       <c r="G11" t="n">
-        <v>424.5639797766032</v>
+        <v>279.7412543114275</v>
       </c>
       <c r="H11" t="n">
-        <v>352.8991079940298</v>
+        <v>206.6788853947823</v>
       </c>
       <c r="I11" t="n">
-        <v>267.0483538863648</v>
+        <v>116.5467958901757</v>
       </c>
       <c r="J11" t="n">
-        <v>129.7091307001162</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>111.1174419326663</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>77.27993863709253</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>34.00615951243282</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>26.98324440689782</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>47.36819892972255</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>97.0580925873345</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>151.9580129441776</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>228.5848047371684</v>
+        <v>74.41398975877112</v>
       </c>
       <c r="S11" t="n">
-        <v>243.7344620285159</v>
+        <v>95.61694756741792</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8802988256342</v>
+        <v>72.5468149056685</v>
       </c>
       <c r="U11" t="n">
-        <v>247.8878413484477</v>
+        <v>103.2042417984182</v>
       </c>
       <c r="V11" t="n">
-        <v>308.2281821605244</v>
+        <v>163.5566805161598</v>
       </c>
       <c r="W11" t="n">
-        <v>317.0122616388729</v>
+        <v>172.3407599945084</v>
       </c>
       <c r="X11" t="n">
-        <v>341.4686393609607</v>
+        <v>196.7971377165962</v>
       </c>
       <c r="Y11" t="n">
-        <v>375.0096112764976</v>
+        <v>230.338109632133</v>
       </c>
     </row>
     <row r="12">
@@ -23334,34 +23336,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>195.559634637931</v>
+        <v>50.88813299356644</v>
       </c>
       <c r="C12" t="n">
-        <v>214.7813755111856</v>
+        <v>70.109873866821</v>
       </c>
       <c r="D12" t="n">
-        <v>180.7611153144678</v>
+        <v>36.08961367010323</v>
       </c>
       <c r="E12" t="n">
-        <v>197.9362491610792</v>
+        <v>53.26474751671461</v>
       </c>
       <c r="F12" t="n">
-        <v>184.1437201392488</v>
+        <v>39.47221849488423</v>
       </c>
       <c r="G12" t="n">
-        <v>169.3142373206618</v>
+        <v>24.56182379896416</v>
       </c>
       <c r="H12" t="n">
-        <v>146.5438714795426</v>
+        <v>1.090931440934781</v>
       </c>
       <c r="I12" t="n">
-        <v>126.0217301993835</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>108.1417497546608</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>56.54704037195782</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,34 +23378,34 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>19.69571729742788</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.10414034237826</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>172.3470976831577</v>
+        <v>22.65196211104174</v>
       </c>
       <c r="S12" t="n">
-        <v>220.4611390882135</v>
+        <v>74.28673481005217</v>
       </c>
       <c r="T12" t="n">
-        <v>240.5399968708402</v>
+        <v>95.54236358055851</v>
       </c>
       <c r="U12" t="n">
-        <v>257.978286780791</v>
+        <v>113.3014619866019</v>
       </c>
       <c r="V12" t="n">
-        <v>255.0969898936781</v>
+        <v>110.4254882493136</v>
       </c>
       <c r="W12" t="n">
-        <v>294.3358934339082</v>
+        <v>149.6643917895436</v>
       </c>
       <c r="X12" t="n">
-        <v>238.5568750784579</v>
+        <v>93.88537343409334</v>
       </c>
       <c r="Y12" t="n">
-        <v>255.9713047452624</v>
+        <v>111.2998031008979</v>
       </c>
     </row>
     <row r="13">
@@ -23413,76 +23415,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>173.5391974632748</v>
+        <v>28.86769581891025</v>
       </c>
       <c r="C13" t="n">
-        <v>165.0035252842657</v>
+        <v>20.33202363990111</v>
       </c>
       <c r="D13" t="n">
-        <v>138.8631356105373</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>132.9174244808186</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>169.6563928375612</v>
+        <v>24.91705739324664</v>
       </c>
       <c r="H13" t="n">
-        <v>169.3253977831214</v>
+        <v>24.05079199011098</v>
       </c>
       <c r="I13" t="n">
-        <v>171.6050360306021</v>
+        <v>24.89358702046994</v>
       </c>
       <c r="J13" t="n">
-        <v>144.9047107016879</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>108.6442027532886</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>89.93937537569462</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>89.48026908651906</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>74.45517414732592</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>102.113595649383</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>118.6644107301737</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>173.3996518983377</v>
+        <v>23.04799451452774</v>
       </c>
       <c r="R13" t="n">
-        <v>235.7604713534479</v>
+        <v>88.03891539497013</v>
       </c>
       <c r="S13" t="n">
-        <v>250.3460236596406</v>
+        <v>104.492363883421</v>
       </c>
       <c r="T13" t="n">
-        <v>214.5591917299661</v>
+        <v>69.5978547585427</v>
       </c>
       <c r="U13" t="n">
-        <v>292.9405845523567</v>
+        <v>148.2653828825403</v>
       </c>
       <c r="V13" t="n">
-        <v>232.1699497460494</v>
+        <v>87.4984481016848</v>
       </c>
       <c r="W13" t="n">
-        <v>297.2835345659783</v>
+        <v>152.6120329216137</v>
       </c>
       <c r="X13" t="n">
-        <v>214.9420418072343</v>
+        <v>70.27054016286976</v>
       </c>
       <c r="Y13" t="n">
-        <v>214.4841404602585</v>
+        <v>69.81263881589396</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>188.8953464685517</v>
+        <v>213.4981318212546</v>
       </c>
       <c r="C14" t="n">
-        <v>153.1935070755629</v>
+        <v>177.7962924282659</v>
       </c>
       <c r="D14" t="n">
-        <v>137.3664762757299</v>
+        <v>161.9692616284329</v>
       </c>
       <c r="E14" t="n">
-        <v>182.9644409995531</v>
+        <v>207.5672263522561</v>
       </c>
       <c r="F14" t="n">
-        <v>227.1563152739109</v>
+        <v>251.7591006266139</v>
       </c>
       <c r="G14" t="n">
-        <v>255.2896927795357</v>
+        <v>279.7412543114275</v>
       </c>
       <c r="H14" t="n">
-        <v>183.6248209969623</v>
+        <v>206.6788853947823</v>
       </c>
       <c r="I14" t="n">
-        <v>97.77406688929725</v>
+        <v>116.5467958901757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>59.31051774010083</v>
+        <v>74.41398975877112</v>
       </c>
       <c r="S14" t="n">
-        <v>74.46017503144836</v>
+        <v>95.61694756741792</v>
       </c>
       <c r="T14" t="n">
-        <v>48.60601182856664</v>
+        <v>72.5468149056685</v>
       </c>
       <c r="U14" t="n">
-        <v>78.61355435138012</v>
+        <v>103.2042417984182</v>
       </c>
       <c r="V14" t="n">
-        <v>138.9538951634568</v>
+        <v>163.5566805161598</v>
       </c>
       <c r="W14" t="n">
-        <v>147.7379746418054</v>
+        <v>172.3407599945084</v>
       </c>
       <c r="X14" t="n">
-        <v>172.1943523638932</v>
+        <v>196.7971377165962</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.73532427943</v>
+        <v>230.338109632133</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26.28534764086345</v>
+        <v>50.88813299356644</v>
       </c>
       <c r="C15" t="n">
-        <v>45.50708851411801</v>
+        <v>70.109873866821</v>
       </c>
       <c r="D15" t="n">
-        <v>11.48682831740024</v>
+        <v>36.08961367010323</v>
       </c>
       <c r="E15" t="n">
-        <v>28.66196216401161</v>
+        <v>53.26474751671461</v>
       </c>
       <c r="F15" t="n">
-        <v>14.86943314218124</v>
+        <v>39.47221849488423</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03995032359426887</v>
+        <v>24.56182379896416</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.090931440934781</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.072810686090151</v>
+        <v>22.65196211104174</v>
       </c>
       <c r="S15" t="n">
-        <v>51.18685209114594</v>
+        <v>74.28673481005217</v>
       </c>
       <c r="T15" t="n">
-        <v>71.26570987377269</v>
+        <v>95.54236358055851</v>
       </c>
       <c r="U15" t="n">
-        <v>88.70399978372345</v>
+        <v>113.3014619866019</v>
       </c>
       <c r="V15" t="n">
-        <v>85.82270289661056</v>
+        <v>110.4254882493136</v>
       </c>
       <c r="W15" t="n">
-        <v>125.0616064368406</v>
+        <v>149.6643917895436</v>
       </c>
       <c r="X15" t="n">
-        <v>69.28258808139034</v>
+        <v>93.88537343409334</v>
       </c>
       <c r="Y15" t="n">
-        <v>86.6970177481949</v>
+        <v>111.2998031008979</v>
       </c>
     </row>
     <row r="16">
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.264910466207255</v>
+        <v>28.86769581891025</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>20.33202363990111</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3821058404936082</v>
+        <v>24.91705739324664</v>
       </c>
       <c r="H16" t="n">
-        <v>0.05111078605389707</v>
+        <v>24.05079199011098</v>
       </c>
       <c r="I16" t="n">
-        <v>2.330749033534545</v>
+        <v>24.89358702046994</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23695,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.12536490127016</v>
+        <v>23.04799451452774</v>
       </c>
       <c r="R16" t="n">
-        <v>66.48618435638033</v>
+        <v>88.03891539497013</v>
       </c>
       <c r="S16" t="n">
-        <v>81.07173666257307</v>
+        <v>104.492363883421</v>
       </c>
       <c r="T16" t="n">
-        <v>45.28490473289858</v>
+        <v>69.5978547585427</v>
       </c>
       <c r="U16" t="n">
-        <v>123.6662975552891</v>
+        <v>148.2653828825403</v>
       </c>
       <c r="V16" t="n">
-        <v>62.89566274898181</v>
+        <v>87.4984481016848</v>
       </c>
       <c r="W16" t="n">
-        <v>234.4738920100241</v>
+        <v>152.6120329216137</v>
       </c>
       <c r="X16" t="n">
-        <v>45.66775481016677</v>
+        <v>70.27054016286976</v>
       </c>
       <c r="Y16" t="n">
-        <v>45.20985346319097</v>
+        <v>69.81263881589396</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>188.8953464685517</v>
+        <v>213.4981318212546</v>
       </c>
       <c r="C17" t="n">
-        <v>153.1935070755629</v>
+        <v>177.7962924282659</v>
       </c>
       <c r="D17" t="n">
-        <v>137.3664762757299</v>
+        <v>161.9692616284329</v>
       </c>
       <c r="E17" t="n">
-        <v>182.9644409995531</v>
+        <v>207.5672263522561</v>
       </c>
       <c r="F17" t="n">
-        <v>227.1563152739109</v>
+        <v>251.7591006266139</v>
       </c>
       <c r="G17" t="n">
-        <v>255.2896927795357</v>
+        <v>279.7412543114275</v>
       </c>
       <c r="H17" t="n">
-        <v>183.6248209969623</v>
+        <v>206.6788853947823</v>
       </c>
       <c r="I17" t="n">
-        <v>97.77406688929725</v>
+        <v>116.5467958901757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>59.31051774010086</v>
+        <v>74.41398975877112</v>
       </c>
       <c r="S17" t="n">
-        <v>74.46017503144836</v>
+        <v>95.61694756741568</v>
       </c>
       <c r="T17" t="n">
-        <v>48.60601182856664</v>
+        <v>72.5468149056685</v>
       </c>
       <c r="U17" t="n">
-        <v>78.61355435138012</v>
+        <v>103.2042417984182</v>
       </c>
       <c r="V17" t="n">
-        <v>138.9538951634568</v>
+        <v>163.5566805161598</v>
       </c>
       <c r="W17" t="n">
-        <v>147.7379746418054</v>
+        <v>172.3407599945084</v>
       </c>
       <c r="X17" t="n">
-        <v>172.1943523638932</v>
+        <v>196.7971377165962</v>
       </c>
       <c r="Y17" t="n">
-        <v>205.73532427943</v>
+        <v>230.338109632133</v>
       </c>
     </row>
     <row r="18">
@@ -23808,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>26.28534764086345</v>
+        <v>50.88813299356644</v>
       </c>
       <c r="C18" t="n">
-        <v>45.50708851411801</v>
+        <v>70.109873866821</v>
       </c>
       <c r="D18" t="n">
-        <v>11.48682831740024</v>
+        <v>36.08961367010323</v>
       </c>
       <c r="E18" t="n">
-        <v>88.92496845143421</v>
+        <v>53.26474751671461</v>
       </c>
       <c r="F18" t="n">
-        <v>14.86943314218124</v>
+        <v>39.47221849488423</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03995032359426887</v>
+        <v>24.56182379896416</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.090931440934781</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.072810686090151</v>
+        <v>22.65196211104174</v>
       </c>
       <c r="S18" t="n">
-        <v>51.18685209114594</v>
+        <v>74.28673481005217</v>
       </c>
       <c r="T18" t="n">
-        <v>71.26570987377269</v>
+        <v>95.54236358055851</v>
       </c>
       <c r="U18" t="n">
-        <v>88.70399978372345</v>
+        <v>113.3014619866019</v>
       </c>
       <c r="V18" t="n">
-        <v>85.82270289661056</v>
+        <v>110.4254882493136</v>
       </c>
       <c r="W18" t="n">
-        <v>125.0616064368406</v>
+        <v>149.6643917895436</v>
       </c>
       <c r="X18" t="n">
-        <v>69.28258808139034</v>
+        <v>93.88537343409334</v>
       </c>
       <c r="Y18" t="n">
-        <v>86.6970177481949</v>
+        <v>111.2998031008979</v>
       </c>
     </row>
     <row r="19">
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.264910466207255</v>
+        <v>28.86769581891025</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>20.33202363990111</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3821058404936082</v>
+        <v>24.91705739324664</v>
       </c>
       <c r="H19" t="n">
-        <v>0.05111078605389707</v>
+        <v>24.05079199011098</v>
       </c>
       <c r="I19" t="n">
-        <v>2.330749033534545</v>
+        <v>24.89358702046994</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23932,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.12536490127016</v>
+        <v>23.04799451452774</v>
       </c>
       <c r="R19" t="n">
-        <v>66.48618435638033</v>
+        <v>88.03891539497013</v>
       </c>
       <c r="S19" t="n">
-        <v>81.07173666257307</v>
+        <v>104.492363883421</v>
       </c>
       <c r="T19" t="n">
-        <v>45.28490473289858</v>
+        <v>69.5978547585427</v>
       </c>
       <c r="U19" t="n">
-        <v>123.6662975552891</v>
+        <v>148.2653828825403</v>
       </c>
       <c r="V19" t="n">
-        <v>62.89566274898181</v>
+        <v>87.4984481016848</v>
       </c>
       <c r="W19" t="n">
-        <v>128.0092475689108</v>
+        <v>152.6120329216137</v>
       </c>
       <c r="X19" t="n">
-        <v>45.66775481016677</v>
+        <v>70.27054016286976</v>
       </c>
       <c r="Y19" t="n">
-        <v>45.20985346319097</v>
+        <v>69.81263881589396</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>188.8953464685517</v>
+        <v>213.4981318212546</v>
       </c>
       <c r="C20" t="n">
-        <v>153.1935070755629</v>
+        <v>177.7962924282659</v>
       </c>
       <c r="D20" t="n">
-        <v>137.3664762757299</v>
+        <v>161.9692616284329</v>
       </c>
       <c r="E20" t="n">
-        <v>182.9644409995531</v>
+        <v>207.5672263522561</v>
       </c>
       <c r="F20" t="n">
-        <v>227.1563152739109</v>
+        <v>251.7591006266139</v>
       </c>
       <c r="G20" t="n">
-        <v>255.2896927795357</v>
+        <v>279.7412543114275</v>
       </c>
       <c r="H20" t="n">
-        <v>183.6248209969623</v>
+        <v>206.6788853947823</v>
       </c>
       <c r="I20" t="n">
-        <v>97.77406688929725</v>
+        <v>116.5467958901757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>59.31051774010086</v>
+        <v>74.41398975877112</v>
       </c>
       <c r="S20" t="n">
-        <v>74.46017503144836</v>
+        <v>95.61694756741568</v>
       </c>
       <c r="T20" t="n">
-        <v>48.60601182856664</v>
+        <v>72.5468149056685</v>
       </c>
       <c r="U20" t="n">
-        <v>78.61355435138012</v>
+        <v>103.2042417984182</v>
       </c>
       <c r="V20" t="n">
-        <v>138.9538951634568</v>
+        <v>163.5566805161598</v>
       </c>
       <c r="W20" t="n">
-        <v>147.7379746418054</v>
+        <v>172.3407599945084</v>
       </c>
       <c r="X20" t="n">
-        <v>172.1943523638932</v>
+        <v>196.7971377165962</v>
       </c>
       <c r="Y20" t="n">
-        <v>205.73532427943</v>
+        <v>230.338109632133</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>26.28534764086345</v>
+        <v>50.88813299356644</v>
       </c>
       <c r="C21" t="n">
-        <v>45.50708851411801</v>
+        <v>70.109873866821</v>
       </c>
       <c r="D21" t="n">
-        <v>11.48682831740024</v>
+        <v>36.08961367010323</v>
       </c>
       <c r="E21" t="n">
-        <v>28.66196216401161</v>
+        <v>53.26474751671461</v>
       </c>
       <c r="F21" t="n">
-        <v>14.86943314218124</v>
+        <v>39.47221849488423</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03995032359426887</v>
+        <v>24.56182379896416</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.090931440934781</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.072810686090151</v>
+        <v>22.65196211104174</v>
       </c>
       <c r="S21" t="n">
-        <v>51.18685209114594</v>
+        <v>74.28673481005217</v>
       </c>
       <c r="T21" t="n">
-        <v>71.26570987377269</v>
+        <v>95.54236358055851</v>
       </c>
       <c r="U21" t="n">
-        <v>88.70399978372345</v>
+        <v>113.3014619866019</v>
       </c>
       <c r="V21" t="n">
-        <v>85.82270289661056</v>
+        <v>110.4254882493136</v>
       </c>
       <c r="W21" t="n">
-        <v>125.0616064368406</v>
+        <v>149.6643917895436</v>
       </c>
       <c r="X21" t="n">
-        <v>69.28258808139034</v>
+        <v>93.88537343409334</v>
       </c>
       <c r="Y21" t="n">
-        <v>86.6970177481949</v>
+        <v>111.2998031008979</v>
       </c>
     </row>
     <row r="22">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.264910466207255</v>
+        <v>28.86769581891025</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>20.33202363990111</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>106.8467502816089</v>
+        <v>24.91705739324664</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05111078605389707</v>
+        <v>24.05079199011098</v>
       </c>
       <c r="I22" t="n">
-        <v>2.330749033534545</v>
+        <v>24.89358702046994</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24169,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.12536490127016</v>
+        <v>23.04799451452774</v>
       </c>
       <c r="R22" t="n">
-        <v>66.48618435638033</v>
+        <v>88.03891539497013</v>
       </c>
       <c r="S22" t="n">
-        <v>81.07173666257307</v>
+        <v>104.492363883421</v>
       </c>
       <c r="T22" t="n">
-        <v>45.28490473289858</v>
+        <v>69.5978547585427</v>
       </c>
       <c r="U22" t="n">
-        <v>123.6662975552891</v>
+        <v>148.2653828825403</v>
       </c>
       <c r="V22" t="n">
-        <v>62.89566274898181</v>
+        <v>87.4984481016848</v>
       </c>
       <c r="W22" t="n">
-        <v>128.0092475689108</v>
+        <v>152.6120329216137</v>
       </c>
       <c r="X22" t="n">
-        <v>45.66775481016677</v>
+        <v>70.27054016286976</v>
       </c>
       <c r="Y22" t="n">
-        <v>45.20985346319097</v>
+        <v>69.81263881589396</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>188.8953464685517</v>
+        <v>213.4981318212547</v>
       </c>
       <c r="C23" t="n">
-        <v>153.1935070755629</v>
+        <v>177.7962924282659</v>
       </c>
       <c r="D23" t="n">
-        <v>137.3664762757299</v>
+        <v>161.9692616284329</v>
       </c>
       <c r="E23" t="n">
-        <v>182.9644409995531</v>
+        <v>207.5672263522561</v>
       </c>
       <c r="F23" t="n">
-        <v>227.1563152739109</v>
+        <v>251.7591006266139</v>
       </c>
       <c r="G23" t="n">
-        <v>255.2896927795357</v>
+        <v>279.7412543114275</v>
       </c>
       <c r="H23" t="n">
-        <v>183.6248209969623</v>
+        <v>206.6788853947824</v>
       </c>
       <c r="I23" t="n">
-        <v>97.77406688929725</v>
+        <v>116.5467958901758</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>59.31051774010086</v>
+        <v>74.41398975877115</v>
       </c>
       <c r="S23" t="n">
-        <v>74.46017503144836</v>
+        <v>95.61694756741571</v>
       </c>
       <c r="T23" t="n">
-        <v>48.60601182856664</v>
+        <v>72.54681490566853</v>
       </c>
       <c r="U23" t="n">
-        <v>78.61355435138012</v>
+        <v>103.2042417984182</v>
       </c>
       <c r="V23" t="n">
-        <v>138.9538951634568</v>
+        <v>163.5566805161599</v>
       </c>
       <c r="W23" t="n">
-        <v>147.7379746418054</v>
+        <v>172.3407599945084</v>
       </c>
       <c r="X23" t="n">
-        <v>172.1943523638932</v>
+        <v>196.7971377165962</v>
       </c>
       <c r="Y23" t="n">
-        <v>205.73532427943</v>
+        <v>230.3381096321331</v>
       </c>
     </row>
     <row r="24">
@@ -24282,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>26.28534764086345</v>
+        <v>50.88813299356647</v>
       </c>
       <c r="C24" t="n">
-        <v>45.50708851411801</v>
+        <v>70.10987386682103</v>
       </c>
       <c r="D24" t="n">
-        <v>11.48682831740024</v>
+        <v>36.08961367010326</v>
       </c>
       <c r="E24" t="n">
-        <v>28.66196216401161</v>
+        <v>53.26474751671464</v>
       </c>
       <c r="F24" t="n">
-        <v>14.86943314218124</v>
+        <v>39.47221849488426</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03995032359426887</v>
+        <v>24.56182379896418</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1.09093144093481</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.072810686090151</v>
+        <v>22.65196211104177</v>
       </c>
       <c r="S24" t="n">
-        <v>51.18685209114594</v>
+        <v>74.2867348100522</v>
       </c>
       <c r="T24" t="n">
-        <v>71.26570987377269</v>
+        <v>95.54236358055854</v>
       </c>
       <c r="U24" t="n">
-        <v>88.70399978372345</v>
+        <v>113.3014619866019</v>
       </c>
       <c r="V24" t="n">
-        <v>85.82270289661056</v>
+        <v>110.4254882493136</v>
       </c>
       <c r="W24" t="n">
-        <v>125.0616064368406</v>
+        <v>149.6643917895436</v>
       </c>
       <c r="X24" t="n">
-        <v>69.28258808139034</v>
+        <v>93.88537343409337</v>
       </c>
       <c r="Y24" t="n">
-        <v>86.6970177481949</v>
+        <v>111.2998031008979</v>
       </c>
     </row>
     <row r="25">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.264910466207255</v>
+        <v>28.86769581891028</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>20.33202363990114</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3821058404936082</v>
+        <v>24.91705739324667</v>
       </c>
       <c r="H25" t="n">
-        <v>0.05111078605389707</v>
+        <v>24.05079199011101</v>
       </c>
       <c r="I25" t="n">
-        <v>2.330749033534545</v>
+        <v>24.89358702046997</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24406,31 +24408,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.12536490127016</v>
+        <v>23.04799451452777</v>
       </c>
       <c r="R25" t="n">
-        <v>66.48618435638033</v>
+        <v>88.03891539497016</v>
       </c>
       <c r="S25" t="n">
-        <v>187.5363811036884</v>
+        <v>104.492363883421</v>
       </c>
       <c r="T25" t="n">
-        <v>45.28490473289858</v>
+        <v>69.59785475854272</v>
       </c>
       <c r="U25" t="n">
-        <v>123.6662975552891</v>
+        <v>148.2653828825403</v>
       </c>
       <c r="V25" t="n">
-        <v>62.89566274898181</v>
+        <v>87.49844810168483</v>
       </c>
       <c r="W25" t="n">
-        <v>128.0092475689108</v>
+        <v>152.6120329216138</v>
       </c>
       <c r="X25" t="n">
-        <v>45.66775481016677</v>
+        <v>70.27054016286979</v>
       </c>
       <c r="Y25" t="n">
-        <v>45.20985346319097</v>
+        <v>69.81263881589399</v>
       </c>
     </row>
     <row r="26">
@@ -24440,37 +24442,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>188.8953464685517</v>
+        <v>318.5399203219657</v>
       </c>
       <c r="C26" t="n">
-        <v>153.1935070755629</v>
+        <v>282.838080928977</v>
       </c>
       <c r="D26" t="n">
-        <v>137.3664762757299</v>
+        <v>267.0110501291439</v>
       </c>
       <c r="E26" t="n">
-        <v>182.9644409995531</v>
+        <v>312.6090148529672</v>
       </c>
       <c r="F26" t="n">
-        <v>227.1563152739109</v>
+        <v>379.7695381158277</v>
       </c>
       <c r="G26" t="n">
-        <v>255.2896927795357</v>
+        <v>384.7830428121385</v>
       </c>
       <c r="H26" t="n">
-        <v>183.6248209969623</v>
+        <v>311.7206738954934</v>
       </c>
       <c r="I26" t="n">
-        <v>97.77406688929725</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>77.24448479488653</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>52.25149169249768</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>13.78597239077261</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24482,34 +24484,34 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>35.68220498125176</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R26" t="n">
-        <v>59.31051774010086</v>
+        <v>179.4557782594822</v>
       </c>
       <c r="S26" t="n">
-        <v>74.46017503144836</v>
+        <v>200.6587360681268</v>
       </c>
       <c r="T26" t="n">
-        <v>48.60601182856664</v>
+        <v>177.5886034063796</v>
       </c>
       <c r="U26" t="n">
-        <v>78.61355435138012</v>
+        <v>208.2460302991293</v>
       </c>
       <c r="V26" t="n">
-        <v>138.9538951634568</v>
+        <v>268.5984690168709</v>
       </c>
       <c r="W26" t="n">
-        <v>147.7379746418054</v>
+        <v>277.3825484952195</v>
       </c>
       <c r="X26" t="n">
-        <v>172.1943523638932</v>
+        <v>301.8389262173072</v>
       </c>
       <c r="Y26" t="n">
-        <v>205.73532427943</v>
+        <v>375.0096112764976</v>
       </c>
     </row>
     <row r="27">
@@ -24519,34 +24521,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26.28534764086345</v>
+        <v>155.9299214942776</v>
       </c>
       <c r="C27" t="n">
-        <v>45.50708851411801</v>
+        <v>175.1516623675321</v>
       </c>
       <c r="D27" t="n">
-        <v>11.48682831740024</v>
+        <v>141.1314021708143</v>
       </c>
       <c r="E27" t="n">
-        <v>28.66196216401161</v>
+        <v>158.3065360174257</v>
       </c>
       <c r="F27" t="n">
-        <v>14.86943314218124</v>
+        <v>144.5140069955953</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03995032359426887</v>
+        <v>129.6036122996753</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>106.1327199416459</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>83.60623531421771</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.86763858630447</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>3.851833422284059</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,34 +24563,34 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>45.14609703248597</v>
       </c>
       <c r="R27" t="n">
-        <v>3.072810686090151</v>
+        <v>127.6937506117528</v>
       </c>
       <c r="S27" t="n">
-        <v>51.18685209114594</v>
+        <v>179.3285233107633</v>
       </c>
       <c r="T27" t="n">
-        <v>71.26570987377269</v>
+        <v>200.5841520812696</v>
       </c>
       <c r="U27" t="n">
-        <v>88.70399978372345</v>
+        <v>218.343250487313</v>
       </c>
       <c r="V27" t="n">
-        <v>85.82270289661056</v>
+        <v>215.4672767500247</v>
       </c>
       <c r="W27" t="n">
-        <v>125.0616064368406</v>
+        <v>254.7061802902547</v>
       </c>
       <c r="X27" t="n">
-        <v>69.28258808139034</v>
+        <v>198.9271619348044</v>
       </c>
       <c r="Y27" t="n">
-        <v>86.6970177481949</v>
+        <v>216.341591601609</v>
       </c>
     </row>
     <row r="28">
@@ -24598,76 +24600,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.264910466207255</v>
+        <v>133.9094843196214</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>125.3738121406122</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>99.23342246688379</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>93.28771133716513</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>87.3420002074465</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3821058404936082</v>
+        <v>129.9588458939577</v>
       </c>
       <c r="H28" t="n">
-        <v>0.05111078605389707</v>
+        <v>129.0925804908221</v>
       </c>
       <c r="I28" t="n">
-        <v>2.330749033534545</v>
+        <v>129.935375521181</v>
       </c>
       <c r="J28" t="n">
-        <v>106.4646444411148</v>
+        <v>100.479147901573</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>61.13343539726817</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>40.22462619220941</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>39.21729946525654</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>24.44503959860414</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>52.89588321825831</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.12536490127016</v>
+        <v>128.0897830152388</v>
       </c>
       <c r="R28" t="n">
-        <v>66.48618435638033</v>
+        <v>193.0807038956812</v>
       </c>
       <c r="S28" t="n">
-        <v>81.07173666257307</v>
+        <v>209.5341523841321</v>
       </c>
       <c r="T28" t="n">
-        <v>45.28490473289858</v>
+        <v>174.6396432592538</v>
       </c>
       <c r="U28" t="n">
-        <v>123.6662975552891</v>
+        <v>253.3071713832513</v>
       </c>
       <c r="V28" t="n">
-        <v>62.89566274898181</v>
+        <v>192.5402366023959</v>
       </c>
       <c r="W28" t="n">
-        <v>128.0092475689108</v>
+        <v>257.6538214223248</v>
       </c>
       <c r="X28" t="n">
-        <v>45.66775481016677</v>
+        <v>175.3123286635808</v>
       </c>
       <c r="Y28" t="n">
-        <v>45.20985346319097</v>
+        <v>174.854427316605</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>185.3688765540545</v>
+        <v>218.0425685920078</v>
       </c>
       <c r="C29" t="n">
-        <v>149.6670371610657</v>
+        <v>214.1746229599721</v>
       </c>
       <c r="D29" t="n">
-        <v>133.8400063612327</v>
+        <v>166.513698399186</v>
       </c>
       <c r="E29" t="n">
-        <v>179.4379710850559</v>
+        <v>212.1116631230092</v>
       </c>
       <c r="F29" t="n">
-        <v>223.6298453594137</v>
+        <v>256.3035373973671</v>
       </c>
       <c r="G29" t="n">
-        <v>251.7632228650385</v>
+        <v>284.2856910821806</v>
       </c>
       <c r="H29" t="n">
-        <v>180.0983510824651</v>
+        <v>211.2233221655355</v>
       </c>
       <c r="I29" t="n">
-        <v>94.24759697480005</v>
+        <v>121.0912326609289</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>55.78404782560366</v>
+        <v>78.95842652952427</v>
       </c>
       <c r="S29" t="n">
-        <v>70.93370511695116</v>
+        <v>100.1613843381689</v>
       </c>
       <c r="T29" t="n">
-        <v>45.07954191406944</v>
+        <v>77.09125167642165</v>
       </c>
       <c r="U29" t="n">
-        <v>75.08708443688292</v>
+        <v>107.7486785691713</v>
       </c>
       <c r="V29" t="n">
-        <v>135.4274252489597</v>
+        <v>168.101117286913</v>
       </c>
       <c r="W29" t="n">
-        <v>144.2115047273082</v>
+        <v>176.8851967652615</v>
       </c>
       <c r="X29" t="n">
-        <v>168.667882449396</v>
+        <v>201.3415744873493</v>
       </c>
       <c r="Y29" t="n">
-        <v>202.2088543649328</v>
+        <v>234.8825464028862</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>22.75887772636625</v>
+        <v>55.4325697643196</v>
       </c>
       <c r="C30" t="n">
-        <v>41.98061859962081</v>
+        <v>74.65431063757416</v>
       </c>
       <c r="D30" t="n">
-        <v>7.96035840290304</v>
+        <v>40.63405044085638</v>
       </c>
       <c r="E30" t="n">
-        <v>25.13549224951441</v>
+        <v>57.80918428746776</v>
       </c>
       <c r="F30" t="n">
-        <v>11.34296322768404</v>
+        <v>44.01665526563738</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>29.10626056971731</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>5.635368211687933</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>27.19639888179489</v>
       </c>
       <c r="S30" t="n">
-        <v>47.66038217664874</v>
+        <v>78.83117158080532</v>
       </c>
       <c r="T30" t="n">
-        <v>67.73923995927549</v>
+        <v>100.0868003513117</v>
       </c>
       <c r="U30" t="n">
-        <v>85.17752986922625</v>
+        <v>117.845898757355</v>
       </c>
       <c r="V30" t="n">
-        <v>82.29623298211337</v>
+        <v>114.9699250200667</v>
       </c>
       <c r="W30" t="n">
-        <v>121.5351365223434</v>
+        <v>154.2088285602968</v>
       </c>
       <c r="X30" t="n">
-        <v>65.75611816689315</v>
+        <v>98.42981020484649</v>
       </c>
       <c r="Y30" t="n">
-        <v>83.1705478336977</v>
+        <v>115.844239871651</v>
       </c>
     </row>
     <row r="31">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.7384405517100561</v>
+        <v>33.4121325896634</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>24.87646041065426</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>29.46149416399979</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>28.59522876086413</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>29.43802379122309</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24880,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.5988949867729616</v>
+        <v>27.5924312852809</v>
       </c>
       <c r="R31" t="n">
-        <v>62.95971444188314</v>
+        <v>92.58335216572328</v>
       </c>
       <c r="S31" t="n">
-        <v>77.54526674807587</v>
+        <v>109.0368006541742</v>
       </c>
       <c r="T31" t="n">
-        <v>41.75843481840138</v>
+        <v>74.14229152929587</v>
       </c>
       <c r="U31" t="n">
-        <v>120.1398276407919</v>
+        <v>152.8098196532934</v>
       </c>
       <c r="V31" t="n">
-        <v>59.36919283448461</v>
+        <v>92.04288487243795</v>
       </c>
       <c r="W31" t="n">
-        <v>124.4827776544136</v>
+        <v>157.1564696923669</v>
       </c>
       <c r="X31" t="n">
-        <v>42.14128489566957</v>
+        <v>74.81497693362292</v>
       </c>
       <c r="Y31" t="n">
-        <v>41.68338354869377</v>
+        <v>74.35707558664711</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>185.3688765540545</v>
+        <v>218.0425685920078</v>
       </c>
       <c r="C32" t="n">
-        <v>149.6670371610657</v>
+        <v>182.3407291990191</v>
       </c>
       <c r="D32" t="n">
-        <v>133.8400063612327</v>
+        <v>166.513698399186</v>
       </c>
       <c r="E32" t="n">
-        <v>179.4379710850559</v>
+        <v>212.1116631230092</v>
       </c>
       <c r="F32" t="n">
-        <v>223.6298453594137</v>
+        <v>256.3035373973671</v>
       </c>
       <c r="G32" t="n">
-        <v>251.7632228650385</v>
+        <v>284.2856910821806</v>
       </c>
       <c r="H32" t="n">
-        <v>180.0983510824651</v>
+        <v>211.2233221655355</v>
       </c>
       <c r="I32" t="n">
-        <v>94.24759697480005</v>
+        <v>121.0912326609289</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24944,7 +24946,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>31.83389376095349</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>55.78404782560366</v>
+        <v>78.95842652952427</v>
       </c>
       <c r="S32" t="n">
-        <v>70.93370511695116</v>
+        <v>100.1613843381688</v>
       </c>
       <c r="T32" t="n">
-        <v>45.07954191406944</v>
+        <v>77.09125167642165</v>
       </c>
       <c r="U32" t="n">
-        <v>75.08708443688292</v>
+        <v>107.7486785691713</v>
       </c>
       <c r="V32" t="n">
-        <v>135.4274252489597</v>
+        <v>168.101117286913</v>
       </c>
       <c r="W32" t="n">
-        <v>144.2115047273082</v>
+        <v>176.8851967652615</v>
       </c>
       <c r="X32" t="n">
-        <v>168.667882449396</v>
+        <v>201.3415744873493</v>
       </c>
       <c r="Y32" t="n">
-        <v>202.2088543649328</v>
+        <v>234.8825464028862</v>
       </c>
     </row>
     <row r="33">
@@ -24993,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>22.75887772636625</v>
+        <v>55.4325697643196</v>
       </c>
       <c r="C33" t="n">
-        <v>41.98061859962081</v>
+        <v>74.65431063757416</v>
       </c>
       <c r="D33" t="n">
-        <v>7.96035840290304</v>
+        <v>40.63405044085638</v>
       </c>
       <c r="E33" t="n">
-        <v>25.13549224951441</v>
+        <v>57.80918428746776</v>
       </c>
       <c r="F33" t="n">
-        <v>11.34296322768404</v>
+        <v>44.01665526563738</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>29.10626056971731</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>5.635368211687933</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>27.19639888179489</v>
       </c>
       <c r="S33" t="n">
-        <v>47.66038217664874</v>
+        <v>78.83117158080532</v>
       </c>
       <c r="T33" t="n">
-        <v>67.73923995927549</v>
+        <v>100.0868003513117</v>
       </c>
       <c r="U33" t="n">
-        <v>85.17752986922625</v>
+        <v>117.845898757355</v>
       </c>
       <c r="V33" t="n">
-        <v>82.29623298211337</v>
+        <v>114.9699250200667</v>
       </c>
       <c r="W33" t="n">
-        <v>121.5351365223434</v>
+        <v>154.2088285602968</v>
       </c>
       <c r="X33" t="n">
-        <v>65.75611816689315</v>
+        <v>98.42981020484649</v>
       </c>
       <c r="Y33" t="n">
-        <v>83.1705478336977</v>
+        <v>115.844239871651</v>
       </c>
     </row>
     <row r="34">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.7384405517100561</v>
+        <v>33.4121325896634</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>24.87646041065426</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>29.46149416399979</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>28.59522876086413</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>29.43802379122309</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25117,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.5988949867729616</v>
+        <v>27.5924312852809</v>
       </c>
       <c r="R34" t="n">
-        <v>62.95971444188314</v>
+        <v>92.58335216572328</v>
       </c>
       <c r="S34" t="n">
-        <v>77.54526674807587</v>
+        <v>109.0368006541742</v>
       </c>
       <c r="T34" t="n">
-        <v>41.75843481840138</v>
+        <v>74.14229152929585</v>
       </c>
       <c r="U34" t="n">
-        <v>120.1398276407919</v>
+        <v>152.8098196532934</v>
       </c>
       <c r="V34" t="n">
-        <v>59.36919283448461</v>
+        <v>92.04288487243795</v>
       </c>
       <c r="W34" t="n">
-        <v>124.4827776544136</v>
+        <v>157.1564696923669</v>
       </c>
       <c r="X34" t="n">
-        <v>42.14128489566957</v>
+        <v>74.81497693362292</v>
       </c>
       <c r="Y34" t="n">
-        <v>41.68338354869377</v>
+        <v>74.35707558664711</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>185.3688765540545</v>
+        <v>218.0425685920078</v>
       </c>
       <c r="C35" t="n">
-        <v>149.6670371610657</v>
+        <v>182.3407291990191</v>
       </c>
       <c r="D35" t="n">
-        <v>133.8400063612327</v>
+        <v>166.513698399186</v>
       </c>
       <c r="E35" t="n">
-        <v>179.4379710850559</v>
+        <v>212.1116631230092</v>
       </c>
       <c r="F35" t="n">
-        <v>223.6298453594137</v>
+        <v>256.3035373973671</v>
       </c>
       <c r="G35" t="n">
-        <v>251.7632228650385</v>
+        <v>284.2856910821806</v>
       </c>
       <c r="H35" t="n">
-        <v>180.0983510824651</v>
+        <v>211.2233221655355</v>
       </c>
       <c r="I35" t="n">
-        <v>94.24759697480005</v>
+        <v>121.0912326609289</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.78404782560366</v>
+        <v>78.95842652952427</v>
       </c>
       <c r="S35" t="n">
-        <v>70.93370511695116</v>
+        <v>100.1613843381688</v>
       </c>
       <c r="T35" t="n">
-        <v>45.07954191406944</v>
+        <v>77.09125167642165</v>
       </c>
       <c r="U35" t="n">
-        <v>75.08708443688292</v>
+        <v>107.7486785691713</v>
       </c>
       <c r="V35" t="n">
-        <v>135.4274252489597</v>
+        <v>168.101117286913</v>
       </c>
       <c r="W35" t="n">
-        <v>144.2115047273082</v>
+        <v>176.8851967652615</v>
       </c>
       <c r="X35" t="n">
-        <v>168.667882449396</v>
+        <v>201.3415744873493</v>
       </c>
       <c r="Y35" t="n">
-        <v>202.2088543649328</v>
+        <v>234.8825464028862</v>
       </c>
     </row>
     <row r="36">
@@ -25230,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>22.75887772636625</v>
+        <v>55.4325697643196</v>
       </c>
       <c r="C36" t="n">
-        <v>41.98061859962081</v>
+        <v>74.65431063757416</v>
       </c>
       <c r="D36" t="n">
-        <v>7.96035840290304</v>
+        <v>40.63405044085638</v>
       </c>
       <c r="E36" t="n">
-        <v>25.13549224951441</v>
+        <v>57.80918428746776</v>
       </c>
       <c r="F36" t="n">
-        <v>11.34296322768404</v>
+        <v>44.01665526563738</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>29.10626056971731</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>5.635368211687933</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>27.19639888179489</v>
       </c>
       <c r="S36" t="n">
-        <v>47.66038217664874</v>
+        <v>78.83117158080532</v>
       </c>
       <c r="T36" t="n">
-        <v>67.73923995927549</v>
+        <v>100.0868003513117</v>
       </c>
       <c r="U36" t="n">
-        <v>85.17752986922625</v>
+        <v>117.845898757355</v>
       </c>
       <c r="V36" t="n">
-        <v>82.29623298211337</v>
+        <v>114.9699250200667</v>
       </c>
       <c r="W36" t="n">
-        <v>121.5351365223434</v>
+        <v>154.2088285602968</v>
       </c>
       <c r="X36" t="n">
-        <v>65.75611816689315</v>
+        <v>98.42981020484649</v>
       </c>
       <c r="Y36" t="n">
-        <v>83.1705478336977</v>
+        <v>115.844239871651</v>
       </c>
     </row>
     <row r="37">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.7384405517100561</v>
+        <v>33.4121325896634</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>24.87646041065426</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>29.46149416399979</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>28.59522876086413</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>29.43802379122309</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25339,13 +25341,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>25.7280749712985</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -25354,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.5988949867729616</v>
+        <v>27.5924312852809</v>
       </c>
       <c r="R37" t="n">
-        <v>62.95971444188314</v>
+        <v>92.58335216572328</v>
       </c>
       <c r="S37" t="n">
-        <v>77.54526674807587</v>
+        <v>109.0368006541742</v>
       </c>
       <c r="T37" t="n">
-        <v>41.75843481840138</v>
+        <v>74.14229152929585</v>
       </c>
       <c r="U37" t="n">
-        <v>120.1398276407919</v>
+        <v>152.8098196532934</v>
       </c>
       <c r="V37" t="n">
-        <v>59.36919283447921</v>
+        <v>92.04288487243795</v>
       </c>
       <c r="W37" t="n">
-        <v>124.4827776544136</v>
+        <v>157.1564696923669</v>
       </c>
       <c r="X37" t="n">
-        <v>42.14128489566957</v>
+        <v>74.81497693362292</v>
       </c>
       <c r="Y37" t="n">
-        <v>41.68338354869377</v>
+        <v>74.35707558664711</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>185.3688765540545</v>
+        <v>218.0425685920078</v>
       </c>
       <c r="C38" t="n">
-        <v>149.6670371610647</v>
+        <v>182.3407291990191</v>
       </c>
       <c r="D38" t="n">
-        <v>133.8400063612327</v>
+        <v>166.513698399186</v>
       </c>
       <c r="E38" t="n">
-        <v>179.4379710850559</v>
+        <v>212.1116631230092</v>
       </c>
       <c r="F38" t="n">
-        <v>223.6298453594137</v>
+        <v>256.3035373973671</v>
       </c>
       <c r="G38" t="n">
-        <v>251.7632228650385</v>
+        <v>284.2856910821806</v>
       </c>
       <c r="H38" t="n">
-        <v>180.0983510824651</v>
+        <v>211.2233221655355</v>
       </c>
       <c r="I38" t="n">
-        <v>94.24759697480005</v>
+        <v>121.0912326609289</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.78404782560366</v>
+        <v>78.95842652952427</v>
       </c>
       <c r="S38" t="n">
-        <v>70.93370511695116</v>
+        <v>100.1613843381688</v>
       </c>
       <c r="T38" t="n">
-        <v>45.07954191406944</v>
+        <v>77.09125167642165</v>
       </c>
       <c r="U38" t="n">
-        <v>75.08708443688292</v>
+        <v>107.7486785691713</v>
       </c>
       <c r="V38" t="n">
-        <v>135.4274252489597</v>
+        <v>168.101117286913</v>
       </c>
       <c r="W38" t="n">
-        <v>144.2115047273082</v>
+        <v>176.8851967652615</v>
       </c>
       <c r="X38" t="n">
-        <v>168.667882449396</v>
+        <v>201.3415744873493</v>
       </c>
       <c r="Y38" t="n">
-        <v>202.2088543649328</v>
+        <v>234.8825464028862</v>
       </c>
     </row>
     <row r="39">
@@ -25467,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>22.75887772636625</v>
+        <v>55.4325697643196</v>
       </c>
       <c r="C39" t="n">
-        <v>41.98061859962081</v>
+        <v>74.65431063757416</v>
       </c>
       <c r="D39" t="n">
-        <v>7.96035840290304</v>
+        <v>40.63405044085638</v>
       </c>
       <c r="E39" t="n">
-        <v>25.13549224951441</v>
+        <v>57.80918428746776</v>
       </c>
       <c r="F39" t="n">
-        <v>11.34296322768404</v>
+        <v>44.01665526563738</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>29.10626056971731</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>5.635368211687933</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.19639888179489</v>
       </c>
       <c r="S39" t="n">
-        <v>47.66038217664874</v>
+        <v>78.83117158080532</v>
       </c>
       <c r="T39" t="n">
-        <v>67.73923995927549</v>
+        <v>100.0868003513117</v>
       </c>
       <c r="U39" t="n">
-        <v>85.17752986922625</v>
+        <v>117.845898757355</v>
       </c>
       <c r="V39" t="n">
-        <v>82.29623298211337</v>
+        <v>114.9699250200667</v>
       </c>
       <c r="W39" t="n">
-        <v>121.5351365223434</v>
+        <v>154.2088285602968</v>
       </c>
       <c r="X39" t="n">
-        <v>65.75611816689315</v>
+        <v>98.42981020484649</v>
       </c>
       <c r="Y39" t="n">
-        <v>83.1705478336977</v>
+        <v>115.844239871651</v>
       </c>
     </row>
     <row r="40">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.7384405517100561</v>
+        <v>33.4121325896634</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>24.87646041065426</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>29.46149416399979</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>28.59522876086413</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>29.43802379122309</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25591,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.5988949867729616</v>
+        <v>27.5924312852809</v>
       </c>
       <c r="R40" t="n">
-        <v>62.95971444188314</v>
+        <v>92.58335216572328</v>
       </c>
       <c r="S40" t="n">
-        <v>77.54526674807587</v>
+        <v>109.0368006541742</v>
       </c>
       <c r="T40" t="n">
-        <v>41.75843481840138</v>
+        <v>74.14229152929585</v>
       </c>
       <c r="U40" t="n">
-        <v>120.1398276407919</v>
+        <v>152.8098196532934</v>
       </c>
       <c r="V40" t="n">
-        <v>59.36919283448461</v>
+        <v>92.04288487243795</v>
       </c>
       <c r="W40" t="n">
-        <v>124.4827776544136</v>
+        <v>157.1564696923669</v>
       </c>
       <c r="X40" t="n">
-        <v>42.14128489566957</v>
+        <v>180.397391240784</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.68338354869377</v>
+        <v>74.35707558664711</v>
       </c>
     </row>
     <row r="41">
@@ -25625,34 +25627,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>185.3688765540545</v>
+        <v>257.6722817356613</v>
       </c>
       <c r="C41" t="n">
-        <v>149.6670371610657</v>
+        <v>322.4677940726305</v>
       </c>
       <c r="D41" t="n">
-        <v>133.8400063612327</v>
+        <v>206.1434115428395</v>
       </c>
       <c r="E41" t="n">
-        <v>179.4379710850559</v>
+        <v>251.7413762666627</v>
       </c>
       <c r="F41" t="n">
-        <v>223.6298453594137</v>
+        <v>295.9332505410205</v>
       </c>
       <c r="G41" t="n">
-        <v>251.7632228650385</v>
+        <v>323.9154042258341</v>
       </c>
       <c r="H41" t="n">
-        <v>180.0983510824651</v>
+        <v>250.853035309189</v>
       </c>
       <c r="I41" t="n">
-        <v>94.24759697480005</v>
+        <v>160.7209458045824</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>16.37684620858207</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>0.4753967325479778</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -25670,31 +25672,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>35.13018983459213</v>
       </c>
       <c r="R41" t="n">
-        <v>55.78404782560366</v>
+        <v>118.5881396731777</v>
       </c>
       <c r="S41" t="n">
-        <v>70.93370511695116</v>
+        <v>139.7910974818223</v>
       </c>
       <c r="T41" t="n">
-        <v>45.07954191406944</v>
+        <v>116.7209648200751</v>
       </c>
       <c r="U41" t="n">
-        <v>75.08708443688292</v>
+        <v>147.3783917128248</v>
       </c>
       <c r="V41" t="n">
-        <v>135.4274252489597</v>
+        <v>207.7308304305665</v>
       </c>
       <c r="W41" t="n">
-        <v>144.2115047273082</v>
+        <v>317.0122616388729</v>
       </c>
       <c r="X41" t="n">
-        <v>168.667882449396</v>
+        <v>240.9712876310028</v>
       </c>
       <c r="Y41" t="n">
-        <v>202.2088543649328</v>
+        <v>274.5122595465397</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>22.75887772636625</v>
+        <v>95.06228290797307</v>
       </c>
       <c r="C42" t="n">
-        <v>41.98061859962081</v>
+        <v>114.2840237812276</v>
       </c>
       <c r="D42" t="n">
-        <v>7.96035840290304</v>
+        <v>80.26376358450986</v>
       </c>
       <c r="E42" t="n">
-        <v>25.13549224951441</v>
+        <v>97.43889743112123</v>
       </c>
       <c r="F42" t="n">
-        <v>11.34296322768404</v>
+        <v>83.64636840929086</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>68.7359737133708</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>45.26508135534139</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>22.73859672791325</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>66.82611202544837</v>
       </c>
       <c r="S42" t="n">
-        <v>47.66038217664874</v>
+        <v>118.4608847244588</v>
       </c>
       <c r="T42" t="n">
-        <v>67.73923995927549</v>
+        <v>139.7165134949651</v>
       </c>
       <c r="U42" t="n">
-        <v>85.17752986922625</v>
+        <v>157.4756119010085</v>
       </c>
       <c r="V42" t="n">
-        <v>82.29623298211337</v>
+        <v>154.5996381637202</v>
       </c>
       <c r="W42" t="n">
-        <v>121.5351365223434</v>
+        <v>193.8385417039502</v>
       </c>
       <c r="X42" t="n">
-        <v>65.75611816689315</v>
+        <v>138.0595233485</v>
       </c>
       <c r="Y42" t="n">
-        <v>83.1705478336977</v>
+        <v>155.4739530153045</v>
       </c>
     </row>
     <row r="43">
@@ -25783,34 +25785,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.7384405517100561</v>
+        <v>73.04184573331688</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>64.50617355430774</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>38.36578388057933</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>32.42007275086067</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>26.47436162114204</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>69.09120730765328</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>68.22494190451761</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>69.06773693487655</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>39.61150931526851</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.2657968109637068</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25825,34 +25827,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>9.96286923172363</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.5988949867729616</v>
+        <v>67.22214442893437</v>
       </c>
       <c r="R43" t="n">
-        <v>62.95971444188314</v>
+        <v>132.2130653093768</v>
       </c>
       <c r="S43" t="n">
-        <v>77.54526674807587</v>
+        <v>148.6665137978276</v>
       </c>
       <c r="T43" t="n">
-        <v>41.75843481840138</v>
+        <v>113.7720046729493</v>
       </c>
       <c r="U43" t="n">
-        <v>120.1398276407919</v>
+        <v>192.4395327969469</v>
       </c>
       <c r="V43" t="n">
-        <v>59.36919283448461</v>
+        <v>131.6725980160914</v>
       </c>
       <c r="W43" t="n">
-        <v>124.4827776544136</v>
+        <v>196.7861828360204</v>
       </c>
       <c r="X43" t="n">
-        <v>42.14128489566957</v>
+        <v>114.4446900772764</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.68338354869377</v>
+        <v>113.9867887303006</v>
       </c>
     </row>
     <row r="44">
@@ -25877,49 +25879,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G44" t="n">
-        <v>424.5639797766032</v>
+        <v>424.412755955792</v>
       </c>
       <c r="H44" t="n">
-        <v>352.8991079940298</v>
+        <v>351.3503870391469</v>
       </c>
       <c r="I44" t="n">
-        <v>267.0483538863648</v>
+        <v>261.2182975345403</v>
       </c>
       <c r="J44" t="n">
-        <v>129.7091307001162</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K44" t="n">
-        <v>111.1174419326663</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L44" t="n">
-        <v>77.27993863709253</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M44" t="n">
-        <v>34.00615951243282</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N44" t="n">
-        <v>26.98324440689782</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>47.36819892972255</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P44" t="n">
-        <v>97.0580925873345</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.9580129441776</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R44" t="n">
-        <v>228.5848047371684</v>
+        <v>219.0854914031357</v>
       </c>
       <c r="S44" t="n">
-        <v>243.7344620285159</v>
+        <v>240.2884492117802</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8802988256342</v>
+        <v>217.2183165500331</v>
       </c>
       <c r="U44" t="n">
-        <v>247.8878413484477</v>
+        <v>247.8757434427827</v>
       </c>
       <c r="V44" t="n">
         <v>308.2281821605244</v>
@@ -25956,19 +25958,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>169.3142373206618</v>
+        <v>169.2333254433287</v>
       </c>
       <c r="H45" t="n">
-        <v>146.5438714795426</v>
+        <v>145.7624330852993</v>
       </c>
       <c r="I45" t="n">
-        <v>126.0217301993835</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J45" t="n">
-        <v>108.1417497546608</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K45" t="n">
-        <v>56.54704037195782</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>19.69571729742788</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q45" t="n">
-        <v>95.10414034237826</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R45" t="n">
-        <v>172.3470976831577</v>
+        <v>167.3234637554063</v>
       </c>
       <c r="S45" t="n">
-        <v>220.4611390882135</v>
+        <v>218.9582364544167</v>
       </c>
       <c r="T45" t="n">
-        <v>240.5399968708402</v>
+        <v>240.2138652249231</v>
       </c>
       <c r="U45" t="n">
-        <v>257.978286780791</v>
+        <v>257.9729636309664</v>
       </c>
       <c r="V45" t="n">
         <v>255.0969898936781</v>
@@ -26035,49 +26037,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G46" t="n">
-        <v>169.6563928375612</v>
+        <v>169.5885590376112</v>
       </c>
       <c r="H46" t="n">
-        <v>169.3253977831214</v>
+        <v>168.7222936344755</v>
       </c>
       <c r="I46" t="n">
-        <v>171.6050360306021</v>
+        <v>169.5650886648345</v>
       </c>
       <c r="J46" t="n">
-        <v>144.9047107016879</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K46" t="n">
-        <v>108.6442027532886</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L46" t="n">
-        <v>89.93937537569462</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M46" t="n">
-        <v>89.48026908651906</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N46" t="n">
-        <v>74.45517414732592</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O46" t="n">
-        <v>102.113595649383</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P46" t="n">
-        <v>118.6644107301737</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q46" t="n">
-        <v>173.3996518983377</v>
+        <v>167.7194961588923</v>
       </c>
       <c r="R46" t="n">
-        <v>235.7604713534479</v>
+        <v>232.7104170393347</v>
       </c>
       <c r="S46" t="n">
-        <v>250.3460236596406</v>
+        <v>249.1638655277856</v>
       </c>
       <c r="T46" t="n">
-        <v>214.5591917299661</v>
+        <v>214.2693564029072</v>
       </c>
       <c r="U46" t="n">
-        <v>292.9405845523567</v>
+        <v>292.9368845269048</v>
       </c>
       <c r="V46" t="n">
         <v>232.1699497460494</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>253910.1938490401</v>
+        <v>625963.6274707405</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>669106.1649954477</v>
+        <v>625963.6274707405</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>669106.1649954477</v>
+        <v>625963.6274707407</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>669106.1649954477</v>
+        <v>625963.6274707407</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>669106.1649954477</v>
+        <v>625963.6274707407</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>669106.1649954477</v>
+        <v>368317.1286361966</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>677755.8904017262</v>
+        <v>614817.0329594376</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>677755.8904017262</v>
+        <v>614817.0329594376</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>677755.8904017264</v>
+        <v>614817.0329594377</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>677755.8904017264</v>
+        <v>614817.0329594377</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>677755.8904017262</v>
+        <v>517613.2725606838</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>253910.1938490401</v>
+        <v>271113.3682374432</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>872367.3338539733</v>
       </c>
       <c r="E2" t="n">
-        <v>253910.1938490401</v>
+        <v>625963.6274707413</v>
       </c>
       <c r="F2" t="n">
-        <v>669106.1649954467</v>
+        <v>625963.6274707413</v>
       </c>
       <c r="G2" t="n">
-        <v>669106.1649954468</v>
+        <v>625963.6274707413</v>
       </c>
       <c r="H2" t="n">
-        <v>669106.1649954467</v>
+        <v>625963.6274707412</v>
       </c>
       <c r="I2" t="n">
-        <v>669106.1649954467</v>
+        <v>625963.6274707414</v>
       </c>
       <c r="J2" t="n">
-        <v>669106.1649954467</v>
+        <v>368317.1286361967</v>
       </c>
       <c r="K2" t="n">
-        <v>677755.8904017265</v>
+        <v>614817.0329594387</v>
       </c>
       <c r="L2" t="n">
-        <v>677755.8904017266</v>
+        <v>614817.0329594387</v>
       </c>
       <c r="M2" t="n">
-        <v>677755.8904017267</v>
+        <v>614817.0329594387</v>
       </c>
       <c r="N2" t="n">
-        <v>677755.8904017266</v>
+        <v>614817.0329594386</v>
       </c>
       <c r="O2" t="n">
-        <v>677755.8904017267</v>
+        <v>517613.2725606834</v>
       </c>
       <c r="P2" t="n">
-        <v>253910.1938490401</v>
+        <v>271113.3682374433</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>387314.6046694373</v>
+        <v>533273.356723589</v>
       </c>
       <c r="F3" t="n">
-        <v>135419.429597654</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>31703.77051492277</v>
       </c>
       <c r="K3" t="n">
-        <v>138240.6055292518</v>
+        <v>80397.88138396633</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="C4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="D4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>231470.6796882289</v>
       </c>
       <c r="F4" t="n">
-        <v>270834.5031302014</v>
+        <v>231470.6796882289</v>
       </c>
       <c r="G4" t="n">
-        <v>270834.5031302014</v>
+        <v>231470.679688229</v>
       </c>
       <c r="H4" t="n">
-        <v>270834.5031302014</v>
+        <v>231470.6796882289</v>
       </c>
       <c r="I4" t="n">
-        <v>270834.5031302014</v>
+        <v>231470.679688229</v>
       </c>
       <c r="J4" t="n">
-        <v>270834.5031302014</v>
+        <v>63406.52120803041</v>
       </c>
       <c r="K4" t="n">
-        <v>276476.7642440407</v>
+        <v>224199.6978005023</v>
       </c>
       <c r="L4" t="n">
-        <v>276476.7642440408</v>
+        <v>224199.6978005023</v>
       </c>
       <c r="M4" t="n">
-        <v>276476.7642440408</v>
+        <v>224199.6978005023</v>
       </c>
       <c r="N4" t="n">
-        <v>276476.7642440408</v>
+        <v>224199.6978005023</v>
       </c>
       <c r="O4" t="n">
-        <v>276476.7642440408</v>
+        <v>160793.1765924717</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>10509.61769098912</v>
+        <v>23492.05513703324</v>
       </c>
       <c r="F5" t="n">
-        <v>24740.3377245456</v>
+        <v>23492.05513703324</v>
       </c>
       <c r="G5" t="n">
-        <v>24740.3377245456</v>
+        <v>23492.05513703324</v>
       </c>
       <c r="H5" t="n">
-        <v>24740.3377245456</v>
+        <v>23492.05513703324</v>
       </c>
       <c r="I5" t="n">
-        <v>24740.3377245456</v>
+        <v>23492.05513703324</v>
       </c>
       <c r="J5" t="n">
-        <v>24740.3377245456</v>
+        <v>14661.29701956696</v>
       </c>
       <c r="K5" t="n">
-        <v>25036.80452378746</v>
+        <v>23110.0088821528</v>
       </c>
       <c r="L5" t="n">
-        <v>25036.80452378746</v>
+        <v>23110.0088821528</v>
       </c>
       <c r="M5" t="n">
-        <v>25036.80452378746</v>
+        <v>23110.0088821528</v>
       </c>
       <c r="N5" t="n">
-        <v>25036.80452378746</v>
+        <v>23110.0088821528</v>
       </c>
       <c r="O5" t="n">
-        <v>25036.80452378746</v>
+        <v>19778.37852787899</v>
       </c>
       <c r="P5" t="n">
-        <v>10509.61769098912</v>
+        <v>11329.66666529316</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>269689.9601796372</v>
+        <v>269689.9601796371</v>
       </c>
       <c r="C6" t="n">
-        <v>269689.9601796372</v>
+        <v>269689.9601796371</v>
       </c>
       <c r="D6" t="n">
-        <v>269689.9601796372</v>
+        <v>269689.9601796371</v>
       </c>
       <c r="E6" t="n">
-        <v>-143914.0285113863</v>
+        <v>-162272.4640781099</v>
       </c>
       <c r="F6" t="n">
-        <v>238111.8945430457</v>
+        <v>371000.8926454791</v>
       </c>
       <c r="G6" t="n">
-        <v>373531.3241406998</v>
+        <v>371000.8926454791</v>
       </c>
       <c r="H6" t="n">
-        <v>373531.3241406997</v>
+        <v>371000.892645479</v>
       </c>
       <c r="I6" t="n">
-        <v>373531.3241406997</v>
+        <v>371000.8926454792</v>
       </c>
       <c r="J6" t="n">
-        <v>373531.3241406997</v>
+        <v>258545.5398936766</v>
       </c>
       <c r="K6" t="n">
-        <v>238001.7161046464</v>
+        <v>287109.4448928174</v>
       </c>
       <c r="L6" t="n">
-        <v>376242.3216338984</v>
+        <v>367507.3262767837</v>
       </c>
       <c r="M6" t="n">
-        <v>376242.3216338984</v>
+        <v>367507.3262767837</v>
       </c>
       <c r="N6" t="n">
-        <v>376242.3216338984</v>
+        <v>367507.3262767835</v>
       </c>
       <c r="O6" t="n">
-        <v>376242.3216338985</v>
+        <v>337041.7174403328</v>
       </c>
       <c r="P6" t="n">
-        <v>243400.576158051</v>
+        <v>259783.7015721502</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F2" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G2" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H2" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I2" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="J2" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="K2" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="L2" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="M2" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="N2" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="O2" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>482.0925546325286</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="F3" t="n">
-        <v>482.0925546325286</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="G3" t="n">
-        <v>482.0925546325286</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="H3" t="n">
-        <v>482.0925546325286</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="I3" t="n">
-        <v>482.0925546325286</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="J3" t="n">
-        <v>482.0925546325286</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="K3" t="n">
-        <v>482.0925546325286</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0925546325286</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="M3" t="n">
-        <v>482.0925546325286</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="N3" t="n">
-        <v>482.0925546325286</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="O3" t="n">
-        <v>482.0925546325286</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="P3" t="n">
-        <v>482.0925546325286</v>
+        <v>519.7094800593193</v>
       </c>
     </row>
     <row r="4">
@@ -26914,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F2" t="n">
-        <v>169.2742869970675</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="K2" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>482.0925546325286</v>
+        <v>519.7094800593193</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27151,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="K2" t="n">
-        <v>169.2742869970675</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="P2" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
     </row>
     <row r="3">
@@ -28087,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>144.6715016443623</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="12">
@@ -28166,34 +28168,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -28208,34 +28210,34 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C14" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D14" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E14" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F14" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G14" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H14" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I14" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J14" t="n">
-        <v>129.7091307001162</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K14" t="n">
-        <v>111.1174419326662</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L14" t="n">
-        <v>77.27993863709247</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M14" t="n">
-        <v>34.00615951243282</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N14" t="n">
-        <v>26.98324440689777</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>47.36819892972255</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P14" t="n">
-        <v>97.0580925873345</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q14" t="n">
-        <v>151.9580129441776</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R14" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S14" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443623</v>
       </c>
       <c r="T14" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U14" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V14" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W14" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X14" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y14" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="15">
@@ -28403,34 +28405,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C15" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D15" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E15" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F15" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G15" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H15" t="n">
-        <v>146.5438714795426</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I15" t="n">
-        <v>126.0217301993835</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J15" t="n">
-        <v>108.1417497546608</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K15" t="n">
-        <v>56.54704037195782</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -28445,34 +28447,34 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>19.69571729742785</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.10414034237826</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R15" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S15" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T15" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U15" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V15" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W15" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X15" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y15" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="16">
@@ -28482,10 +28484,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C16" t="n">
-        <v>165.0035252842657</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D16" t="n">
         <v>138.8631356105373</v>
@@ -28497,61 +28499,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H16" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I16" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J16" t="n">
-        <v>144.9047107016879</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K16" t="n">
-        <v>108.6442027532886</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L16" t="n">
-        <v>89.93937537569462</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M16" t="n">
-        <v>89.48026908651903</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N16" t="n">
-        <v>74.45517414732592</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O16" t="n">
-        <v>102.1135956493829</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P16" t="n">
-        <v>118.6644107301737</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="R16" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S16" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T16" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U16" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V16" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W16" t="n">
-        <v>62.80964255595421</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X16" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y16" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="17">
@@ -28561,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C17" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D17" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E17" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F17" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G17" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H17" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I17" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J17" t="n">
-        <v>129.7091307001162</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K17" t="n">
-        <v>111.1174419326663</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L17" t="n">
-        <v>77.27993863709253</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M17" t="n">
-        <v>34.00615951243282</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N17" t="n">
-        <v>26.98324440689782</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>47.36819892972255</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P17" t="n">
-        <v>97.0580925873345</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q17" t="n">
-        <v>151.9580129441776</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R17" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S17" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T17" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U17" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V17" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W17" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X17" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y17" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="18">
@@ -28640,34 +28642,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C18" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D18" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E18" t="n">
-        <v>109.011280709645</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F18" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G18" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H18" t="n">
-        <v>146.5438714795426</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I18" t="n">
-        <v>126.0217301993835</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J18" t="n">
-        <v>108.1417497546608</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K18" t="n">
-        <v>56.54704037195782</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -28682,34 +28684,34 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>19.69571729742788</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.10414034237826</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R18" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S18" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T18" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U18" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V18" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W18" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X18" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y18" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="19">
@@ -28719,10 +28721,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C19" t="n">
-        <v>165.0035252842657</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D19" t="n">
         <v>138.8631356105373</v>
@@ -28734,61 +28736,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H19" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I19" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J19" t="n">
-        <v>144.9047107016879</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K19" t="n">
-        <v>108.6442027532886</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L19" t="n">
-        <v>89.93937537569462</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M19" t="n">
-        <v>89.48026908651906</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N19" t="n">
-        <v>74.45517414732592</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O19" t="n">
-        <v>102.113595649383</v>
+        <v>92.52559636190684</v>
       </c>
       <c r="P19" t="n">
-        <v>118.6644107301737</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="R19" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S19" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T19" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U19" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V19" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W19" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X19" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y19" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="20">
@@ -28798,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C20" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D20" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E20" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F20" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G20" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H20" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I20" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J20" t="n">
-        <v>129.7091307001162</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K20" t="n">
-        <v>111.1174419326663</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L20" t="n">
-        <v>77.27993863709253</v>
+        <v>53.4156855344242</v>
       </c>
       <c r="M20" t="n">
-        <v>34.00615951243282</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N20" t="n">
-        <v>26.98324440689782</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>47.36819892972255</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P20" t="n">
-        <v>97.0580925873345</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q20" t="n">
-        <v>151.9580129441776</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R20" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S20" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T20" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U20" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V20" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W20" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X20" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y20" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="21">
@@ -28877,34 +28879,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C21" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D21" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="E21" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="F21" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="G21" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H21" t="n">
-        <v>146.5438714795426</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I21" t="n">
-        <v>126.0217301993835</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J21" t="n">
-        <v>108.1417497546608</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K21" t="n">
-        <v>56.54704037195782</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -28919,34 +28921,34 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>19.69571729742788</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.10414034237826</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R21" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S21" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T21" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U21" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V21" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W21" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X21" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y21" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="22">
@@ -28956,10 +28958,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="C22" t="n">
-        <v>165.0035252842657</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="D22" t="n">
         <v>138.8631356105373</v>
@@ -28971,61 +28973,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>62.80964255595227</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="H22" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="I22" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="J22" t="n">
-        <v>144.9047107016879</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K22" t="n">
-        <v>108.6442027532886</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L22" t="n">
-        <v>89.93937537569462</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M22" t="n">
-        <v>89.48026908651906</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N22" t="n">
-        <v>74.45517414732592</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O22" t="n">
-        <v>102.113595649383</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P22" t="n">
-        <v>118.6644107301737</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="R22" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="S22" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="T22" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="U22" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="V22" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="W22" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="X22" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
       <c r="Y22" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443646</v>
       </c>
     </row>
     <row r="23">
@@ -29035,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="C23" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="D23" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="E23" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="F23" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="G23" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="H23" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="I23" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="J23" t="n">
-        <v>129.7091307001162</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K23" t="n">
-        <v>111.1174419326663</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L23" t="n">
-        <v>77.27993863709253</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M23" t="n">
-        <v>34.00615951243282</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N23" t="n">
-        <v>26.98324440689782</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>47.36819892972255</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P23" t="n">
-        <v>97.0580925873345</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q23" t="n">
-        <v>151.9580129441776</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R23" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="S23" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="T23" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="U23" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="V23" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="W23" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="X23" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="Y23" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
     </row>
     <row r="24">
@@ -29114,34 +29116,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="C24" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="D24" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="E24" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="F24" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="G24" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="H24" t="n">
-        <v>146.5438714795426</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="I24" t="n">
-        <v>126.0217301993835</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J24" t="n">
-        <v>108.1417497546608</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K24" t="n">
-        <v>56.54704037195782</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -29156,34 +29158,34 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>19.69571729742788</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q24" t="n">
-        <v>95.10414034237826</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R24" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="S24" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="T24" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="U24" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="V24" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="W24" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="X24" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="Y24" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
     </row>
     <row r="25">
@@ -29193,10 +29195,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="C25" t="n">
-        <v>165.0035252842657</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="D25" t="n">
         <v>138.8631356105373</v>
@@ -29208,61 +29210,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="H25" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="I25" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="J25" t="n">
-        <v>144.9047107016879</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K25" t="n">
-        <v>108.6442027532886</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L25" t="n">
-        <v>89.93937537569462</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M25" t="n">
-        <v>89.48026908651906</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N25" t="n">
-        <v>74.45517414732592</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O25" t="n">
-        <v>102.113595649383</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P25" t="n">
-        <v>118.6644107301737</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="R25" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="S25" t="n">
-        <v>62.80964255595227</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="T25" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="U25" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="V25" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="W25" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="X25" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
       <c r="Y25" t="n">
-        <v>169.2742869970675</v>
+        <v>144.6715016443645</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29274,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="C26" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="D26" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="E26" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="F26" t="n">
-        <v>169.2742869970675</v>
+        <v>16.66106415515078</v>
       </c>
       <c r="G26" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="H26" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="I26" t="n">
-        <v>169.2742869970675</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>129.7091307001162</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="K26" t="n">
-        <v>111.1174419326663</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="L26" t="n">
-        <v>77.27993863709253</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="M26" t="n">
-        <v>34.00615951243282</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N26" t="n">
-        <v>26.98324440689782</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>47.36819892972255</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P26" t="n">
-        <v>97.0580925873345</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="Q26" t="n">
-        <v>151.9580129441776</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="S26" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="T26" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="U26" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="V26" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="W26" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="X26" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.2742869970675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29351,34 +29353,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="C27" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="D27" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="E27" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="F27" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="G27" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="H27" t="n">
-        <v>146.5438714795426</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="I27" t="n">
-        <v>126.0217301993835</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="J27" t="n">
-        <v>108.1417497546608</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="K27" t="n">
-        <v>56.54704037195782</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -29393,34 +29395,34 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>19.69571729742788</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>95.10414034237826</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="R27" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="S27" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="T27" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="U27" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="V27" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="W27" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="X27" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="Y27" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="C28" t="n">
-        <v>165.0035252842657</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="D28" t="n">
-        <v>138.8631356105373</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="E28" t="n">
-        <v>132.9174244808186</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="F28" t="n">
-        <v>126.9717133511</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="G28" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="H28" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="I28" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="J28" t="n">
-        <v>38.44006626057314</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="K28" t="n">
-        <v>108.6442027532886</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="L28" t="n">
-        <v>89.93937537569462</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="M28" t="n">
-        <v>89.48026908651906</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="N28" t="n">
-        <v>74.45517414732592</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="O28" t="n">
-        <v>102.113595649383</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="P28" t="n">
-        <v>118.6644107301737</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="R28" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="S28" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="T28" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="U28" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="V28" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="W28" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="X28" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
       <c r="Y28" t="n">
-        <v>169.2742869970675</v>
+        <v>39.62971314365346</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="C29" t="n">
-        <v>172.8007569115647</v>
+        <v>108.2931711126583</v>
       </c>
       <c r="D29" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="E29" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="F29" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="G29" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="H29" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="I29" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="J29" t="n">
-        <v>129.7091307001162</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K29" t="n">
-        <v>111.1174419326663</v>
+        <v>91.8812048361512</v>
       </c>
       <c r="L29" t="n">
-        <v>77.27993863709253</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M29" t="n">
-        <v>34.00615951243282</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N29" t="n">
-        <v>26.98324440689782</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>47.36819892972255</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P29" t="n">
-        <v>97.0580925873345</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q29" t="n">
-        <v>151.9580129441776</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R29" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="S29" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="T29" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="U29" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="V29" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="W29" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="X29" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="Y29" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
     </row>
     <row r="30">
@@ -29588,34 +29590,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="C30" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="D30" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="E30" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="F30" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="G30" t="n">
-        <v>169.3142373206618</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="H30" t="n">
-        <v>146.5438714795426</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="I30" t="n">
-        <v>126.0217301993835</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J30" t="n">
-        <v>108.1417497546608</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K30" t="n">
-        <v>56.54704037195782</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -29630,34 +29632,34 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>19.69571729742788</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q30" t="n">
-        <v>95.10414034237826</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R30" t="n">
-        <v>172.3470976831577</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="S30" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="T30" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="U30" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="V30" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="W30" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="X30" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="Y30" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
     </row>
     <row r="31">
@@ -29667,10 +29669,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="C31" t="n">
-        <v>165.0035252842657</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="D31" t="n">
         <v>138.8631356105373</v>
@@ -29682,61 +29684,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>169.6563928375612</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="H31" t="n">
-        <v>169.3253977831214</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="I31" t="n">
-        <v>171.6050360306021</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="J31" t="n">
-        <v>144.9047107016879</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K31" t="n">
-        <v>108.6442027532886</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L31" t="n">
-        <v>89.93937537569462</v>
+        <v>79.8543393358629</v>
       </c>
       <c r="M31" t="n">
-        <v>89.48026908651906</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N31" t="n">
-        <v>74.45517414732592</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O31" t="n">
-        <v>102.113595649383</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P31" t="n">
-        <v>118.6644107301737</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q31" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="R31" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="S31" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="T31" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="U31" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="V31" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="W31" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="X31" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="Y31" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="C32" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="D32" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="E32" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="F32" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="G32" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="H32" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="I32" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="J32" t="n">
-        <v>129.7091307001162</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K32" t="n">
-        <v>111.1174419326663</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L32" t="n">
-        <v>77.27993863709253</v>
+        <v>21.58179177347258</v>
       </c>
       <c r="M32" t="n">
-        <v>34.00615951243282</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N32" t="n">
-        <v>26.98324440689782</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>47.36819892972255</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P32" t="n">
-        <v>97.0580925873345</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q32" t="n">
-        <v>151.9580129441776</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R32" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="S32" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="T32" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="U32" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="V32" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="W32" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="X32" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="Y32" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
     </row>
     <row r="33">
@@ -29825,34 +29827,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="C33" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="D33" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="E33" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="F33" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="G33" t="n">
-        <v>169.3142373206618</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="H33" t="n">
-        <v>146.5438714795426</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="I33" t="n">
-        <v>126.0217301993835</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J33" t="n">
-        <v>108.1417497546608</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K33" t="n">
-        <v>56.54704037195782</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -29867,34 +29869,34 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>19.69571729742788</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q33" t="n">
-        <v>95.10414034237826</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R33" t="n">
-        <v>172.3470976831577</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="S33" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="T33" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="U33" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="V33" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="W33" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="X33" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="Y33" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
     </row>
     <row r="34">
@@ -29904,10 +29906,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="C34" t="n">
-        <v>165.0035252842657</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="D34" t="n">
         <v>138.8631356105373</v>
@@ -29919,61 +29921,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G34" t="n">
-        <v>169.6563928375612</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="H34" t="n">
-        <v>169.3253977831214</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="I34" t="n">
-        <v>171.6050360306021</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="J34" t="n">
-        <v>144.9047107016879</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K34" t="n">
-        <v>108.6442027532928</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L34" t="n">
-        <v>89.93937537569462</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M34" t="n">
-        <v>89.48026908651906</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N34" t="n">
-        <v>74.45517414732592</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O34" t="n">
-        <v>102.113595649383</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P34" t="n">
-        <v>118.6644107301737</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q34" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="R34" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="S34" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="T34" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="U34" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="V34" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="W34" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="X34" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="Y34" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="C35" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="D35" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="E35" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="F35" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="G35" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="H35" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="I35" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="J35" t="n">
-        <v>129.7091307001162</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K35" t="n">
-        <v>111.1174419326663</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L35" t="n">
-        <v>77.27993863709253</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M35" t="n">
-        <v>34.00615951243282</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N35" t="n">
-        <v>26.98324440689782</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>47.36819892972255</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P35" t="n">
-        <v>97.0580925873345</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q35" t="n">
-        <v>151.9580129441776</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R35" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="S35" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="T35" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="U35" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="V35" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="W35" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="X35" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="Y35" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
     </row>
     <row r="36">
@@ -30062,34 +30064,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="C36" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="D36" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="E36" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="F36" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="G36" t="n">
-        <v>169.3142373206618</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="H36" t="n">
-        <v>146.5438714795426</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="I36" t="n">
-        <v>126.0217301993835</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J36" t="n">
-        <v>108.1417497546608</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K36" t="n">
-        <v>56.54704037195782</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -30104,34 +30106,34 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>19.69571729742788</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q36" t="n">
-        <v>95.10414034237826</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R36" t="n">
-        <v>172.3470976831577</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="S36" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="T36" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="U36" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="V36" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="W36" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="X36" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="Y36" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
     </row>
     <row r="37">
@@ -30141,10 +30143,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="C37" t="n">
-        <v>165.0035252842657</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="D37" t="n">
         <v>138.8631356105373</v>
@@ -30156,61 +30158,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G37" t="n">
-        <v>169.6563928375612</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="H37" t="n">
-        <v>169.3253977831214</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="I37" t="n">
-        <v>171.6050360306021</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="J37" t="n">
-        <v>144.9047107016879</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K37" t="n">
-        <v>108.6442027532886</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L37" t="n">
-        <v>89.93937537569462</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>89.48026908652446</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N37" t="n">
-        <v>74.45517414732592</v>
+        <v>38.3466777709591</v>
       </c>
       <c r="O37" t="n">
-        <v>102.113595649383</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P37" t="n">
-        <v>118.6644107301737</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q37" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="R37" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="S37" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="T37" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="U37" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="V37" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="W37" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="X37" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="Y37" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="C38" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="D38" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="E38" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="F38" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="G38" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="H38" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="I38" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="J38" t="n">
-        <v>129.7091307001173</v>
+        <v>116.87419793854</v>
       </c>
       <c r="K38" t="n">
-        <v>111.1174419326663</v>
+        <v>91.88120483615114</v>
       </c>
       <c r="L38" t="n">
-        <v>77.27993863709253</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M38" t="n">
-        <v>34.00615951243282</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N38" t="n">
-        <v>26.98324440689782</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>47.36819892972255</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P38" t="n">
-        <v>97.0580925873345</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q38" t="n">
-        <v>151.9580129441776</v>
+        <v>135.6275415645501</v>
       </c>
       <c r="R38" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="S38" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="T38" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="U38" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="V38" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="W38" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="X38" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="Y38" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
     </row>
     <row r="39">
@@ -30299,34 +30301,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="C39" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="D39" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="E39" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="F39" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="G39" t="n">
-        <v>169.3142373206618</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="H39" t="n">
-        <v>146.5438714795426</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="I39" t="n">
-        <v>126.0217301993835</v>
+        <v>123.2359484578712</v>
       </c>
       <c r="J39" t="n">
-        <v>108.1417497546608</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K39" t="n">
-        <v>56.54704037195782</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -30341,34 +30343,34 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>19.69571729742788</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q39" t="n">
-        <v>95.10414034237826</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R39" t="n">
-        <v>172.3470976831577</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="S39" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="T39" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="U39" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="V39" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="W39" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="X39" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="Y39" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
     </row>
     <row r="40">
@@ -30378,10 +30380,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="C40" t="n">
-        <v>165.0035252842657</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="D40" t="n">
         <v>138.8631356105373</v>
@@ -30393,61 +30395,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G40" t="n">
-        <v>169.6563928375612</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="H40" t="n">
-        <v>169.3253977831214</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="I40" t="n">
-        <v>171.6050360306021</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="J40" t="n">
-        <v>144.9047107016879</v>
+        <v>140.1088610452264</v>
       </c>
       <c r="K40" t="n">
-        <v>108.6442027532886</v>
+        <v>100.7631485409216</v>
       </c>
       <c r="L40" t="n">
-        <v>89.93937537569462</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M40" t="n">
-        <v>89.48026908651906</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N40" t="n">
-        <v>74.45517414732592</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O40" t="n">
-        <v>102.113595649383</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P40" t="n">
-        <v>118.6644107301737</v>
+        <v>110.4602209616816</v>
       </c>
       <c r="Q40" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="R40" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="S40" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="T40" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="U40" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="V40" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="W40" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
       <c r="X40" t="n">
-        <v>172.8007569115647</v>
+        <v>34.54465056645028</v>
       </c>
       <c r="Y40" t="n">
-        <v>172.8007569115647</v>
+        <v>140.1270648736114</v>
       </c>
     </row>
     <row r="41">
@@ -30457,76 +30459,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="C41" t="n">
-        <v>172.8007569115647</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="E41" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="F41" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="G41" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="H41" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="I41" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="J41" t="n">
-        <v>129.7091307001162</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K41" t="n">
-        <v>111.1174419326663</v>
+        <v>91.40580810360316</v>
       </c>
       <c r="L41" t="n">
-        <v>77.27993863709253</v>
+        <v>53.41568553442607</v>
       </c>
       <c r="M41" t="n">
-        <v>34.00615951243282</v>
+        <v>7.452579786414901</v>
       </c>
       <c r="N41" t="n">
-        <v>26.98324440689782</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>47.36819892972255</v>
+        <v>21.88868639101628</v>
       </c>
       <c r="P41" t="n">
-        <v>97.0580925873345</v>
+        <v>75.31191812490522</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.9580129441776</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="R41" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="S41" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="T41" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="U41" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="V41" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="W41" t="n">
-        <v>172.8007569115647</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="Y41" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
     </row>
     <row r="42">
@@ -30536,34 +30538,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="C42" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="D42" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="E42" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="F42" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="G42" t="n">
-        <v>169.3142373206618</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="H42" t="n">
-        <v>146.5438714795426</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="I42" t="n">
-        <v>126.0217301993835</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="J42" t="n">
-        <v>108.1417497546608</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K42" t="n">
-        <v>56.54704037195782</v>
+        <v>43.48154656593752</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -30578,34 +30580,34 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>19.69571729742788</v>
+        <v>4.245097493356042</v>
       </c>
       <c r="Q42" t="n">
-        <v>95.10414034237826</v>
+        <v>84.77581017613943</v>
       </c>
       <c r="R42" t="n">
-        <v>172.3470976831577</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="S42" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="T42" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="U42" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="V42" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="W42" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="X42" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="Y42" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
     </row>
     <row r="43">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="C43" t="n">
-        <v>165.0035252842657</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="D43" t="n">
-        <v>138.8631356105373</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="E43" t="n">
-        <v>132.9174244808186</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="F43" t="n">
-        <v>126.9717133511</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="G43" t="n">
-        <v>169.6563928375612</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="H43" t="n">
-        <v>169.3253977831214</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="I43" t="n">
-        <v>171.6050360306021</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="J43" t="n">
-        <v>144.9047107016879</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="K43" t="n">
-        <v>108.6442027532886</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="L43" t="n">
-        <v>89.93937537569462</v>
+        <v>79.85433933586287</v>
       </c>
       <c r="M43" t="n">
-        <v>89.48026908651906</v>
+        <v>78.84701260891001</v>
       </c>
       <c r="N43" t="n">
-        <v>74.45517414732592</v>
+        <v>64.0747527422576</v>
       </c>
       <c r="O43" t="n">
-        <v>102.1135956493871</v>
+        <v>92.52559636191177</v>
       </c>
       <c r="P43" t="n">
-        <v>118.6644107301737</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="Q43" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="R43" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="S43" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="T43" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="U43" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="V43" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="W43" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="X43" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
       <c r="Y43" t="n">
-        <v>172.8007569115647</v>
+        <v>100.4973517299579</v>
       </c>
     </row>
     <row r="44">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.938060521135792</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H11" t="n">
-        <v>19.84816231208193</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I11" t="n">
-        <v>74.71707824108768</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J11" t="n">
-        <v>164.4904641557491</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K11" t="n">
-        <v>246.5285660154272</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L11" t="n">
-        <v>305.8404856891367</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M11" t="n">
-        <v>340.3064694818854</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N11" t="n">
-        <v>345.8129839375624</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>326.5413946305184</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P11" t="n">
-        <v>278.6955255149785</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q11" t="n">
-        <v>209.2887331018029</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R11" t="n">
-        <v>121.7416942107963</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S11" t="n">
-        <v>44.1635541253819</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T11" t="n">
-        <v>8.483859931271933</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.03695379675676</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H12" t="n">
-        <v>10.01479061604555</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I12" t="n">
-        <v>35.70213730061651</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J12" t="n">
-        <v>97.96939357867264</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K12" t="n">
-        <v>167.4452979613755</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L12" t="n">
         <v>225.1508671422956</v>
@@ -31856,22 +31858,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>198.0126947508588</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q12" t="n">
-        <v>132.3662425474067</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R12" t="n">
-        <v>64.38209625828375</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S12" t="n">
-        <v>19.26096197045997</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T12" t="n">
-        <v>4.179651487804657</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H13" t="n">
-        <v>7.729287187387102</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I13" t="n">
-        <v>26.14364214302303</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J13" t="n">
-        <v>61.46284913733072</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K13" t="n">
-        <v>101.0023417738314</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L13" t="n">
-        <v>129.2482235813176</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M13" t="n">
-        <v>136.2741298283391</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N13" t="n">
-        <v>133.033835608678</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O13" t="n">
-        <v>122.8782793348616</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P13" t="n">
-        <v>105.1435958496911</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q13" t="n">
-        <v>72.79597574951181</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R13" t="n">
-        <v>39.0890127084014</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S13" t="n">
-        <v>15.1503512660747</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T13" t="n">
-        <v>3.714483617660465</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.938060521135792</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H14" t="n">
-        <v>19.84816231208193</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I14" t="n">
-        <v>74.71707824108768</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J14" t="n">
-        <v>164.4904641557491</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K14" t="n">
-        <v>246.5285660154272</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L14" t="n">
-        <v>305.8404856891368</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M14" t="n">
-        <v>340.3064694818854</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N14" t="n">
-        <v>345.8129839375625</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>326.5413946305184</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P14" t="n">
-        <v>278.6955255149785</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q14" t="n">
-        <v>209.2887331018029</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R14" t="n">
-        <v>121.7416942107963</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S14" t="n">
-        <v>44.1635541253819</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T14" t="n">
-        <v>8.483859931271933</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.036953796756759</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H15" t="n">
-        <v>10.01479061604555</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I15" t="n">
-        <v>35.70213730061651</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J15" t="n">
-        <v>97.96939357867264</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K15" t="n">
-        <v>167.4452979613755</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L15" t="n">
         <v>225.1508671422956</v>
@@ -32093,22 +32095,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>198.0126947508588</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q15" t="n">
-        <v>132.3662425474067</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R15" t="n">
-        <v>64.38209625828374</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S15" t="n">
-        <v>19.26096197045997</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T15" t="n">
-        <v>4.179651487804657</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H16" t="n">
-        <v>7.729287187387103</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I16" t="n">
-        <v>26.14364214302303</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J16" t="n">
-        <v>61.46284913733073</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K16" t="n">
-        <v>101.0023417738314</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L16" t="n">
-        <v>129.2482235813176</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M16" t="n">
-        <v>136.2741298283392</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N16" t="n">
-        <v>133.033835608678</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O16" t="n">
-        <v>122.8782793348616</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P16" t="n">
-        <v>105.1435958496911</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q16" t="n">
-        <v>72.79597574951181</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R16" t="n">
-        <v>39.08901270840141</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S16" t="n">
-        <v>15.1503512660747</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T16" t="n">
-        <v>3.714483617660465</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.938060521135792</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H17" t="n">
-        <v>19.84816231208193</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I17" t="n">
-        <v>74.71707824108768</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J17" t="n">
-        <v>164.4904641557491</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K17" t="n">
-        <v>246.5285660154272</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L17" t="n">
-        <v>305.8404856891367</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M17" t="n">
-        <v>340.3064694818854</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N17" t="n">
-        <v>345.8129839375624</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>326.5413946305184</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P17" t="n">
-        <v>278.6955255149785</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q17" t="n">
-        <v>209.2887331018029</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R17" t="n">
-        <v>121.7416942107963</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S17" t="n">
-        <v>44.1635541253819</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T17" t="n">
-        <v>8.483859931271933</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.03695379675676</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H18" t="n">
-        <v>10.01479061604555</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I18" t="n">
-        <v>35.70213730061651</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J18" t="n">
-        <v>97.96939357867264</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K18" t="n">
-        <v>167.4452979613755</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L18" t="n">
         <v>225.1508671422956</v>
@@ -32330,22 +32332,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>198.0126947508588</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q18" t="n">
-        <v>132.3662425474067</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R18" t="n">
-        <v>64.38209625828375</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S18" t="n">
-        <v>19.26096197045997</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T18" t="n">
-        <v>4.179651487804657</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H19" t="n">
-        <v>7.729287187387102</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I19" t="n">
-        <v>26.14364214302303</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J19" t="n">
-        <v>61.46284913733072</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K19" t="n">
-        <v>101.0023417738314</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L19" t="n">
-        <v>129.2482235813176</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M19" t="n">
-        <v>136.2741298283391</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N19" t="n">
-        <v>133.033835608678</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O19" t="n">
-        <v>122.8782793348616</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P19" t="n">
-        <v>105.1435958496911</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q19" t="n">
-        <v>72.79597574951181</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R19" t="n">
-        <v>39.0890127084014</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S19" t="n">
-        <v>15.1503512660747</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T19" t="n">
-        <v>3.714483617660465</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.938060521135792</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H20" t="n">
-        <v>19.84816231208193</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I20" t="n">
-        <v>74.71707824108768</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J20" t="n">
-        <v>164.4904641557491</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K20" t="n">
-        <v>246.5285660154272</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L20" t="n">
-        <v>305.8404856891367</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M20" t="n">
-        <v>340.3064694818854</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N20" t="n">
-        <v>345.8129839375624</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>326.5413946305184</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P20" t="n">
-        <v>278.6955255149785</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q20" t="n">
-        <v>209.2887331018029</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R20" t="n">
-        <v>121.7416942107963</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S20" t="n">
-        <v>44.1635541253819</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T20" t="n">
-        <v>8.483859931271933</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.03695379675676</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H21" t="n">
-        <v>10.01479061604555</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I21" t="n">
-        <v>35.70213730061651</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J21" t="n">
-        <v>97.96939357867264</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K21" t="n">
-        <v>167.4452979613755</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L21" t="n">
         <v>225.1508671422956</v>
@@ -32567,22 +32569,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>198.0126947508588</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q21" t="n">
-        <v>132.3662425474067</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R21" t="n">
-        <v>64.38209625828375</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S21" t="n">
-        <v>19.26096197045997</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T21" t="n">
-        <v>4.179651487804657</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H22" t="n">
-        <v>7.729287187387102</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I22" t="n">
-        <v>26.14364214302303</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J22" t="n">
-        <v>61.46284913733072</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K22" t="n">
-        <v>101.0023417738314</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L22" t="n">
-        <v>129.2482235813176</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M22" t="n">
-        <v>136.2741298283391</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N22" t="n">
-        <v>133.033835608678</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O22" t="n">
-        <v>122.8782793348616</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P22" t="n">
-        <v>105.1435958496911</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q22" t="n">
-        <v>72.79597574951181</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R22" t="n">
-        <v>39.0890127084014</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S22" t="n">
-        <v>15.1503512660747</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T22" t="n">
-        <v>3.714483617660465</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.938060521135792</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H23" t="n">
-        <v>19.84816231208193</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I23" t="n">
-        <v>74.71707824108768</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J23" t="n">
-        <v>164.4904641557491</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K23" t="n">
-        <v>246.5285660154272</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L23" t="n">
-        <v>305.8404856891367</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M23" t="n">
-        <v>340.3064694818854</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N23" t="n">
-        <v>345.8129839375624</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>326.5413946305184</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P23" t="n">
-        <v>278.6955255149785</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q23" t="n">
-        <v>209.2887331018029</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R23" t="n">
-        <v>121.7416942107963</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S23" t="n">
-        <v>44.1635541253819</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T23" t="n">
-        <v>8.483859931271933</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.03695379675676</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H24" t="n">
-        <v>10.01479061604555</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I24" t="n">
-        <v>35.70213730061651</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J24" t="n">
-        <v>97.96939357867264</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K24" t="n">
-        <v>167.4452979613755</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L24" t="n">
         <v>225.1508671422956</v>
@@ -32804,22 +32806,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>198.0126947508588</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q24" t="n">
-        <v>132.3662425474067</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R24" t="n">
-        <v>64.38209625828375</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S24" t="n">
-        <v>19.26096197045997</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T24" t="n">
-        <v>4.179651487804657</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H25" t="n">
-        <v>7.729287187387102</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I25" t="n">
-        <v>26.14364214302303</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J25" t="n">
-        <v>61.46284913733072</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K25" t="n">
-        <v>101.0023417738314</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L25" t="n">
-        <v>129.2482235813176</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M25" t="n">
-        <v>136.2741298283391</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N25" t="n">
-        <v>133.033835608678</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O25" t="n">
-        <v>122.8782793348616</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P25" t="n">
-        <v>105.1435958496911</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.79597574951181</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R25" t="n">
-        <v>39.0890127084014</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S25" t="n">
-        <v>15.1503512660747</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T25" t="n">
-        <v>3.714483617660465</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.938060521135792</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H26" t="n">
-        <v>19.84816231208193</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I26" t="n">
-        <v>74.71707824108768</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J26" t="n">
-        <v>164.4904641557491</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K26" t="n">
-        <v>246.5285660154272</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L26" t="n">
-        <v>305.8404856891367</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M26" t="n">
-        <v>340.3064694818854</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N26" t="n">
-        <v>345.8129839375624</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>326.5413946305184</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P26" t="n">
-        <v>278.6955255149785</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q26" t="n">
-        <v>209.2887331018029</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R26" t="n">
-        <v>121.7416942107963</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S26" t="n">
-        <v>44.1635541253819</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T26" t="n">
-        <v>8.483859931271933</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.03695379675676</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H27" t="n">
-        <v>10.01479061604555</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I27" t="n">
-        <v>35.70213730061651</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J27" t="n">
-        <v>97.96939357867264</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K27" t="n">
-        <v>167.4452979613755</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L27" t="n">
         <v>225.1508671422956</v>
@@ -33041,22 +33043,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>198.0126947508588</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q27" t="n">
-        <v>132.3662425474067</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R27" t="n">
-        <v>64.38209625828375</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S27" t="n">
-        <v>19.26096197045997</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T27" t="n">
-        <v>4.179651487804657</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H28" t="n">
-        <v>7.729287187387102</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I28" t="n">
-        <v>26.14364214302303</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J28" t="n">
-        <v>61.46284913733072</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K28" t="n">
-        <v>101.0023417738314</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L28" t="n">
-        <v>129.2482235813176</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M28" t="n">
-        <v>136.2741298283391</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N28" t="n">
-        <v>133.033835608678</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O28" t="n">
-        <v>122.8782793348616</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P28" t="n">
-        <v>105.1435958496911</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.79597574951181</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R28" t="n">
-        <v>39.0890127084014</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S28" t="n">
-        <v>15.1503512660747</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T28" t="n">
-        <v>3.714483617660465</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.938060521135792</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H29" t="n">
-        <v>19.84816231208193</v>
+        <v>21.39688326696482</v>
       </c>
       <c r="I29" t="n">
-        <v>74.71707824108768</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J29" t="n">
-        <v>164.4904641557491</v>
+        <v>177.3253969173252</v>
       </c>
       <c r="K29" t="n">
-        <v>246.5285660154272</v>
+        <v>265.7648031119422</v>
       </c>
       <c r="L29" t="n">
-        <v>305.8404856891367</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M29" t="n">
-        <v>340.3064694818854</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N29" t="n">
-        <v>345.8129839375624</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>326.5413946305184</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P29" t="n">
-        <v>278.6955255149785</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q29" t="n">
-        <v>209.2887331018029</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R29" t="n">
-        <v>121.7416942107963</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S29" t="n">
-        <v>44.1635541253819</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T29" t="n">
-        <v>8.483859931271933</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.03695379675676</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H30" t="n">
-        <v>10.01479061604555</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I30" t="n">
-        <v>35.70213730061651</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J30" t="n">
-        <v>97.96939357867264</v>
+        <v>105.6137916033754</v>
       </c>
       <c r="K30" t="n">
-        <v>167.4452979613755</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L30" t="n">
         <v>225.1508671422956</v>
@@ -33278,22 +33280,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>198.0126947508588</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q30" t="n">
-        <v>132.3662425474067</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R30" t="n">
-        <v>64.38209625828375</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S30" t="n">
-        <v>19.26096197045997</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T30" t="n">
-        <v>4.179651487804657</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.0735437943480169</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H31" t="n">
-        <v>7.729287187387102</v>
+        <v>8.332391336033027</v>
       </c>
       <c r="I31" t="n">
-        <v>26.14364214302303</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J31" t="n">
-        <v>61.46284913733072</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K31" t="n">
-        <v>101.0023417738314</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L31" t="n">
-        <v>129.2482235813176</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M31" t="n">
-        <v>136.2741298283391</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N31" t="n">
-        <v>133.033835608678</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O31" t="n">
-        <v>122.8782793348616</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P31" t="n">
-        <v>105.1435958496911</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.79597574951181</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R31" t="n">
-        <v>39.0890127084014</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S31" t="n">
-        <v>15.1503512660747</v>
+        <v>16.33250939792974</v>
       </c>
       <c r="T31" t="n">
-        <v>3.714483617660465</v>
+        <v>4.004318944719343</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.938060521135792</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H32" t="n">
-        <v>19.84816231208193</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I32" t="n">
-        <v>74.71707824108768</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J32" t="n">
-        <v>164.4904641557491</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K32" t="n">
-        <v>246.5285660154272</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L32" t="n">
-        <v>305.8404856891367</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M32" t="n">
-        <v>340.3064694818854</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N32" t="n">
-        <v>345.8129839375624</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>326.5413946305184</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P32" t="n">
-        <v>278.6955255149785</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q32" t="n">
-        <v>209.2887331018029</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R32" t="n">
-        <v>121.7416942107963</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S32" t="n">
-        <v>44.1635541253819</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T32" t="n">
-        <v>8.483859931271933</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.03695379675676</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H33" t="n">
-        <v>10.01479061604555</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I33" t="n">
-        <v>35.70213730061651</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J33" t="n">
-        <v>97.96939357867264</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K33" t="n">
-        <v>167.4452979613755</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L33" t="n">
         <v>225.1508671422956</v>
@@ -33515,22 +33517,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>198.0126947508588</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.3662425474067</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R33" t="n">
-        <v>64.38209625828375</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S33" t="n">
-        <v>19.26096197045997</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T33" t="n">
-        <v>4.179651487804657</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H34" t="n">
-        <v>7.729287187387102</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I34" t="n">
-        <v>26.14364214302303</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J34" t="n">
-        <v>61.46284913733072</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K34" t="n">
-        <v>101.0023417738314</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L34" t="n">
-        <v>129.2482235813176</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M34" t="n">
-        <v>136.2741298283391</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N34" t="n">
-        <v>133.033835608678</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O34" t="n">
-        <v>122.8782793348616</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P34" t="n">
-        <v>105.1435958496911</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.79597574951181</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R34" t="n">
-        <v>39.0890127084014</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S34" t="n">
-        <v>15.1503512660747</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T34" t="n">
-        <v>3.714483617660465</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.938060521135792</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H35" t="n">
-        <v>19.84816231208193</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I35" t="n">
-        <v>74.71707824108768</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J35" t="n">
-        <v>164.4904641557491</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K35" t="n">
-        <v>246.5285660154272</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L35" t="n">
-        <v>305.8404856891367</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M35" t="n">
-        <v>340.3064694818854</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N35" t="n">
-        <v>345.8129839375624</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>326.5413946305184</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P35" t="n">
-        <v>278.6955255149785</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q35" t="n">
-        <v>209.2887331018029</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R35" t="n">
-        <v>121.7416942107963</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S35" t="n">
-        <v>44.1635541253819</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T35" t="n">
-        <v>8.483859931271933</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.03695379675676</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H36" t="n">
-        <v>10.01479061604555</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I36" t="n">
-        <v>35.70213730061651</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J36" t="n">
-        <v>97.96939357867264</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K36" t="n">
-        <v>167.4452979613755</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L36" t="n">
         <v>225.1508671422956</v>
@@ -33752,22 +33754,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>198.0126947508588</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q36" t="n">
-        <v>132.3662425474067</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R36" t="n">
-        <v>64.38209625828375</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S36" t="n">
-        <v>19.26096197045997</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T36" t="n">
-        <v>4.179651487804657</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H37" t="n">
-        <v>7.729287187387102</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I37" t="n">
-        <v>26.14364214302303</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J37" t="n">
-        <v>61.46284913733072</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K37" t="n">
-        <v>101.0023417738314</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L37" t="n">
-        <v>129.2482235813176</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M37" t="n">
-        <v>136.2741298283391</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N37" t="n">
-        <v>133.033835608678</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O37" t="n">
-        <v>122.8782793348616</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P37" t="n">
-        <v>105.1435958496911</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.79597574951181</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R37" t="n">
-        <v>39.0890127084014</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S37" t="n">
-        <v>15.1503512660747</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T37" t="n">
-        <v>3.714483617660465</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.938060521135792</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H38" t="n">
-        <v>19.84816231208193</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I38" t="n">
-        <v>74.71707824108768</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J38" t="n">
-        <v>164.4904641557491</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K38" t="n">
-        <v>246.5285660154272</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L38" t="n">
-        <v>305.8404856891367</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M38" t="n">
-        <v>340.3064694818854</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N38" t="n">
-        <v>345.8129839375624</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>326.5413946305184</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P38" t="n">
-        <v>278.6955255149785</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q38" t="n">
-        <v>209.2887331018029</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R38" t="n">
-        <v>121.7416942107963</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S38" t="n">
-        <v>44.1635541253819</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T38" t="n">
-        <v>8.483859931271933</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.03695379675676</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H39" t="n">
-        <v>10.01479061604555</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I39" t="n">
-        <v>35.70213730061651</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J39" t="n">
-        <v>97.96939357867264</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K39" t="n">
-        <v>167.4452979613755</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L39" t="n">
         <v>225.1508671422956</v>
@@ -33989,22 +33991,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>198.0126947508588</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q39" t="n">
-        <v>132.3662425474067</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R39" t="n">
-        <v>64.38209625828375</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S39" t="n">
-        <v>19.26096197045997</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T39" t="n">
-        <v>4.179651487804657</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H40" t="n">
-        <v>7.729287187387102</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I40" t="n">
-        <v>26.14364214302303</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J40" t="n">
-        <v>61.46284913733072</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K40" t="n">
-        <v>101.0023417738314</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L40" t="n">
-        <v>129.2482235813176</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M40" t="n">
-        <v>136.2741298283391</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N40" t="n">
-        <v>133.033835608678</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O40" t="n">
-        <v>122.8782793348616</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P40" t="n">
-        <v>105.1435958496911</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.79597574951181</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R40" t="n">
-        <v>39.0890127084014</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S40" t="n">
-        <v>15.1503512660747</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T40" t="n">
-        <v>3.714483617660465</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.938060521135792</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H41" t="n">
-        <v>19.84816231208193</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I41" t="n">
-        <v>74.71707824108768</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J41" t="n">
-        <v>164.4904641557491</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K41" t="n">
-        <v>246.5285660154272</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L41" t="n">
-        <v>305.8404856891367</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M41" t="n">
-        <v>340.3064694818854</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N41" t="n">
-        <v>345.8129839375624</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>326.5413946305184</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P41" t="n">
-        <v>278.6955255149785</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q41" t="n">
-        <v>209.2887331018029</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R41" t="n">
-        <v>121.7416942107963</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S41" t="n">
-        <v>44.1635541253819</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T41" t="n">
-        <v>8.483859931271933</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.03695379675676</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H42" t="n">
-        <v>10.01479061604555</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I42" t="n">
-        <v>35.70213730061651</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J42" t="n">
-        <v>97.96939357867264</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K42" t="n">
-        <v>167.4452979613755</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L42" t="n">
         <v>225.1508671422956</v>
@@ -34226,22 +34228,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>198.0126947508588</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.3662425474067</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R42" t="n">
-        <v>64.38209625828375</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S42" t="n">
-        <v>19.26096197045997</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T42" t="n">
-        <v>4.179651487804657</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H43" t="n">
-        <v>7.729287187387102</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I43" t="n">
-        <v>26.14364214302303</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J43" t="n">
-        <v>61.46284913733072</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K43" t="n">
-        <v>101.0023417738314</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L43" t="n">
-        <v>129.2482235813176</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M43" t="n">
-        <v>136.2741298283391</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N43" t="n">
-        <v>133.033835608678</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O43" t="n">
-        <v>122.8782793348616</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P43" t="n">
-        <v>105.1435958496911</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.79597574951181</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R43" t="n">
-        <v>39.0890127084014</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S43" t="n">
-        <v>15.1503512660747</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T43" t="n">
-        <v>3.714483617660465</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.938060521135792</v>
+        <v>2.08928434194701</v>
       </c>
       <c r="H44" t="n">
-        <v>19.84816231208193</v>
+        <v>21.39688326696483</v>
       </c>
       <c r="I44" t="n">
-        <v>74.71707824108768</v>
+        <v>80.5471345929122</v>
       </c>
       <c r="J44" t="n">
-        <v>164.4904641557491</v>
+        <v>177.3253969173253</v>
       </c>
       <c r="K44" t="n">
-        <v>246.5285660154272</v>
+        <v>265.7648031119423</v>
       </c>
       <c r="L44" t="n">
-        <v>305.8404856891367</v>
+        <v>329.7047387918032</v>
       </c>
       <c r="M44" t="n">
-        <v>340.3064694818854</v>
+        <v>366.8600492079033</v>
       </c>
       <c r="N44" t="n">
-        <v>345.8129839375624</v>
+        <v>372.7962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>326.5413946305184</v>
+        <v>352.0209071692246</v>
       </c>
       <c r="P44" t="n">
-        <v>278.6955255149785</v>
+        <v>300.4416999774078</v>
       </c>
       <c r="Q44" t="n">
-        <v>209.2887331018029</v>
+        <v>225.6192044814304</v>
       </c>
       <c r="R44" t="n">
-        <v>121.7416942107963</v>
+        <v>131.241007544829</v>
       </c>
       <c r="S44" t="n">
-        <v>44.1635541253819</v>
+        <v>47.60956694211755</v>
       </c>
       <c r="T44" t="n">
-        <v>8.483859931271933</v>
+        <v>9.145842206873043</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1550448416908633</v>
+        <v>0.1671427473557608</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.03695379675676</v>
+        <v>1.117865674089856</v>
       </c>
       <c r="H45" t="n">
-        <v>10.01479061604555</v>
+        <v>10.79622901028888</v>
       </c>
       <c r="I45" t="n">
-        <v>35.70213730061651</v>
+        <v>38.48791904212884</v>
       </c>
       <c r="J45" t="n">
-        <v>97.96939357867264</v>
+        <v>105.6137916033755</v>
       </c>
       <c r="K45" t="n">
-        <v>167.4452979613755</v>
+        <v>180.5107917673958</v>
       </c>
       <c r="L45" t="n">
         <v>225.1508671422956</v>
@@ -34463,22 +34465,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>198.0126947508588</v>
+        <v>213.4633145549306</v>
       </c>
       <c r="Q45" t="n">
-        <v>132.3662425474067</v>
+        <v>142.6945727136456</v>
       </c>
       <c r="R45" t="n">
-        <v>64.38209625828375</v>
+        <v>69.40573018603516</v>
       </c>
       <c r="S45" t="n">
-        <v>19.26096197045997</v>
+        <v>20.76386460425675</v>
       </c>
       <c r="T45" t="n">
-        <v>4.179651487804657</v>
+        <v>4.505783133721833</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06822064452347106</v>
+        <v>0.07354379434801692</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8693472296652154</v>
+        <v>0.9371810296151658</v>
       </c>
       <c r="H46" t="n">
-        <v>7.729287187387102</v>
+        <v>8.332391336033025</v>
       </c>
       <c r="I46" t="n">
-        <v>26.14364214302303</v>
+        <v>28.18358950879063</v>
       </c>
       <c r="J46" t="n">
-        <v>61.46284913733072</v>
+        <v>66.25869879379222</v>
       </c>
       <c r="K46" t="n">
-        <v>101.0023417738314</v>
+        <v>108.8833959861983</v>
       </c>
       <c r="L46" t="n">
-        <v>129.2482235813176</v>
+        <v>139.3332596211493</v>
       </c>
       <c r="M46" t="n">
-        <v>136.2741298283391</v>
+        <v>146.9073863059482</v>
       </c>
       <c r="N46" t="n">
-        <v>133.033835608678</v>
+        <v>143.4142570137463</v>
       </c>
       <c r="O46" t="n">
-        <v>122.8782793348616</v>
+        <v>132.4662786223328</v>
       </c>
       <c r="P46" t="n">
-        <v>105.1435958496911</v>
+        <v>113.3477856181833</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.79597574951181</v>
+        <v>78.47613148895721</v>
       </c>
       <c r="R46" t="n">
-        <v>39.0890127084014</v>
+        <v>42.13906702251462</v>
       </c>
       <c r="S46" t="n">
-        <v>15.1503512660747</v>
+        <v>16.33250939792975</v>
       </c>
       <c r="T46" t="n">
-        <v>3.714483617660465</v>
+        <v>4.004318944719344</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04741893979992089</v>
+        <v>0.05111896525173638</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_11_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_11_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2338464.567503148</v>
+        <v>2291266.730400565</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10714188.49777989</v>
+        <v>10046357.92457078</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7461424.992723374</v>
+        <v>7687844.002866697</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>213.4981318212546</v>
+        <v>185.3688765540545</v>
       </c>
       <c r="C11" t="n">
-        <v>177.7962924282659</v>
+        <v>149.6670371610657</v>
       </c>
       <c r="D11" t="n">
-        <v>161.9692616284329</v>
+        <v>133.8400063612327</v>
       </c>
       <c r="E11" t="n">
-        <v>207.5672263522561</v>
+        <v>179.4379710850559</v>
       </c>
       <c r="F11" t="n">
-        <v>251.7591006266139</v>
+        <v>223.6298453594137</v>
       </c>
       <c r="G11" t="n">
-        <v>279.7412543114275</v>
+        <v>251.7632228650385</v>
       </c>
       <c r="H11" t="n">
-        <v>206.6788853947823</v>
+        <v>180.0983510824651</v>
       </c>
       <c r="I11" t="n">
-        <v>116.5467958901757</v>
+        <v>94.24759697480005</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>74.41398975877112</v>
+        <v>55.78404782560366</v>
       </c>
       <c r="S11" t="n">
-        <v>95.61694756741792</v>
+        <v>70.93370511695116</v>
       </c>
       <c r="T11" t="n">
-        <v>72.5468149056685</v>
+        <v>45.07954191406944</v>
       </c>
       <c r="U11" t="n">
-        <v>103.2042417984182</v>
+        <v>75.08708443688292</v>
       </c>
       <c r="V11" t="n">
-        <v>163.5566805161598</v>
+        <v>135.4274252489597</v>
       </c>
       <c r="W11" t="n">
-        <v>172.3407599945084</v>
+        <v>144.2115047273082</v>
       </c>
       <c r="X11" t="n">
-        <v>196.7971377165962</v>
+        <v>168.667882449396</v>
       </c>
       <c r="Y11" t="n">
-        <v>230.338109632133</v>
+        <v>202.2088543649328</v>
       </c>
     </row>
     <row r="12">
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50.88813299356644</v>
+        <v>22.75887772636625</v>
       </c>
       <c r="C12" t="n">
-        <v>70.109873866821</v>
+        <v>41.98061859962081</v>
       </c>
       <c r="D12" t="n">
-        <v>36.08961367010323</v>
+        <v>7.96035840290304</v>
       </c>
       <c r="E12" t="n">
-        <v>53.26474751671461</v>
+        <v>25.13549224951441</v>
       </c>
       <c r="F12" t="n">
-        <v>39.47221849488423</v>
+        <v>11.34296322768404</v>
       </c>
       <c r="G12" t="n">
-        <v>24.56182379896416</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.090931440934781</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.65196211104174</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>74.28673481005217</v>
+        <v>47.66038217664874</v>
       </c>
       <c r="T12" t="n">
-        <v>95.54236358055851</v>
+        <v>67.73923995927549</v>
       </c>
       <c r="U12" t="n">
-        <v>113.3014619866019</v>
+        <v>85.17752986922625</v>
       </c>
       <c r="V12" t="n">
-        <v>110.4254882493136</v>
+        <v>82.29623298211337</v>
       </c>
       <c r="W12" t="n">
-        <v>149.6643917895436</v>
+        <v>121.5351365223434</v>
       </c>
       <c r="X12" t="n">
-        <v>93.88537343409334</v>
+        <v>65.75611816689315</v>
       </c>
       <c r="Y12" t="n">
-        <v>111.2998031008979</v>
+        <v>83.1705478336977</v>
       </c>
     </row>
     <row r="13">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28.86769581891025</v>
+        <v>0.7384405517100561</v>
       </c>
       <c r="C13" t="n">
-        <v>20.33202363990111</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>24.91705739324664</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>24.05079199011098</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>24.89358702046994</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.04799451452774</v>
+        <v>0.5988949867729616</v>
       </c>
       <c r="R13" t="n">
-        <v>88.03891539497013</v>
+        <v>62.95971444188314</v>
       </c>
       <c r="S13" t="n">
-        <v>104.492363883421</v>
+        <v>77.54526674807587</v>
       </c>
       <c r="T13" t="n">
-        <v>69.5978547585427</v>
+        <v>41.75843481840138</v>
       </c>
       <c r="U13" t="n">
-        <v>148.2653828825403</v>
+        <v>120.1398276407919</v>
       </c>
       <c r="V13" t="n">
-        <v>87.4984481016848</v>
+        <v>59.36919283448461</v>
       </c>
       <c r="W13" t="n">
-        <v>152.6120329216137</v>
+        <v>124.4827776544136</v>
       </c>
       <c r="X13" t="n">
-        <v>70.27054016286976</v>
+        <v>42.14128489566957</v>
       </c>
       <c r="Y13" t="n">
-        <v>69.81263881589396</v>
+        <v>41.68338354869377</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>213.4981318212546</v>
+        <v>185.3688765540545</v>
       </c>
       <c r="C14" t="n">
-        <v>177.7962924282659</v>
+        <v>149.6670371610657</v>
       </c>
       <c r="D14" t="n">
-        <v>161.9692616284329</v>
+        <v>133.8400063612327</v>
       </c>
       <c r="E14" t="n">
-        <v>207.5672263522561</v>
+        <v>179.4379710850559</v>
       </c>
       <c r="F14" t="n">
-        <v>251.7591006266139</v>
+        <v>223.6298453594137</v>
       </c>
       <c r="G14" t="n">
-        <v>279.7412543114275</v>
+        <v>251.7632228650385</v>
       </c>
       <c r="H14" t="n">
-        <v>206.6788853947823</v>
+        <v>180.0983510824651</v>
       </c>
       <c r="I14" t="n">
-        <v>116.5467958901757</v>
+        <v>94.24759697480005</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>74.41398975877112</v>
+        <v>55.78404782560366</v>
       </c>
       <c r="S14" t="n">
-        <v>95.61694756741792</v>
+        <v>70.93370511695116</v>
       </c>
       <c r="T14" t="n">
-        <v>72.5468149056685</v>
+        <v>45.07954191406944</v>
       </c>
       <c r="U14" t="n">
-        <v>103.2042417984182</v>
+        <v>75.08708443688292</v>
       </c>
       <c r="V14" t="n">
-        <v>163.5566805161598</v>
+        <v>135.4274252489597</v>
       </c>
       <c r="W14" t="n">
-        <v>172.3407599945084</v>
+        <v>144.2115047273082</v>
       </c>
       <c r="X14" t="n">
-        <v>196.7971377165962</v>
+        <v>168.667882449396</v>
       </c>
       <c r="Y14" t="n">
-        <v>230.338109632133</v>
+        <v>202.2088543649328</v>
       </c>
     </row>
     <row r="15">
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>50.88813299356644</v>
+        <v>22.75887772636625</v>
       </c>
       <c r="C15" t="n">
-        <v>70.109873866821</v>
+        <v>41.98061859962081</v>
       </c>
       <c r="D15" t="n">
-        <v>36.08961367010323</v>
+        <v>7.96035840290304</v>
       </c>
       <c r="E15" t="n">
-        <v>53.26474751671461</v>
+        <v>25.13549224951441</v>
       </c>
       <c r="F15" t="n">
-        <v>39.47221849488423</v>
+        <v>11.34296322768404</v>
       </c>
       <c r="G15" t="n">
-        <v>24.56182379896416</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.090931440934781</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.65196211104174</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>74.28673481005217</v>
+        <v>47.66038217664874</v>
       </c>
       <c r="T15" t="n">
-        <v>95.54236358055851</v>
+        <v>67.73923995927549</v>
       </c>
       <c r="U15" t="n">
-        <v>113.3014619866019</v>
+        <v>85.17752986922625</v>
       </c>
       <c r="V15" t="n">
-        <v>110.4254882493136</v>
+        <v>82.29623298211337</v>
       </c>
       <c r="W15" t="n">
-        <v>149.6643917895436</v>
+        <v>121.5351365223434</v>
       </c>
       <c r="X15" t="n">
-        <v>93.88537343409334</v>
+        <v>65.75611816689315</v>
       </c>
       <c r="Y15" t="n">
-        <v>111.2998031008979</v>
+        <v>83.1705478336977</v>
       </c>
     </row>
     <row r="16">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.86769581891025</v>
+        <v>0.7384405517100561</v>
       </c>
       <c r="C16" t="n">
-        <v>20.33202363990111</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>24.91705739324664</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>24.05079199011098</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>24.89358702046994</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.04799451452774</v>
+        <v>0.5988949867729616</v>
       </c>
       <c r="R16" t="n">
-        <v>88.03891539497013</v>
+        <v>62.95971444188314</v>
       </c>
       <c r="S16" t="n">
-        <v>104.492363883421</v>
+        <v>77.54526674807587</v>
       </c>
       <c r="T16" t="n">
-        <v>69.5978547585427</v>
+        <v>41.75843481840138</v>
       </c>
       <c r="U16" t="n">
-        <v>148.2653828825403</v>
+        <v>120.1398276407919</v>
       </c>
       <c r="V16" t="n">
-        <v>87.4984481016848</v>
+        <v>59.36919283448461</v>
       </c>
       <c r="W16" t="n">
-        <v>152.6120329216137</v>
+        <v>124.4827776544136</v>
       </c>
       <c r="X16" t="n">
-        <v>70.27054016286976</v>
+        <v>42.14128489566957</v>
       </c>
       <c r="Y16" t="n">
-        <v>69.81263881589396</v>
+        <v>41.68338354869377</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>213.4981318212546</v>
+        <v>185.3688765540545</v>
       </c>
       <c r="C17" t="n">
-        <v>177.7962924282659</v>
+        <v>149.6670371610657</v>
       </c>
       <c r="D17" t="n">
-        <v>161.9692616284329</v>
+        <v>133.8400063612327</v>
       </c>
       <c r="E17" t="n">
-        <v>207.5672263522561</v>
+        <v>179.4379710850559</v>
       </c>
       <c r="F17" t="n">
-        <v>251.7591006266139</v>
+        <v>223.6298453594137</v>
       </c>
       <c r="G17" t="n">
-        <v>279.7412543114275</v>
+        <v>251.7632228650385</v>
       </c>
       <c r="H17" t="n">
-        <v>206.6788853947823</v>
+        <v>180.0983510824651</v>
       </c>
       <c r="I17" t="n">
-        <v>116.5467958901757</v>
+        <v>94.24759697480005</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>74.41398975877112</v>
+        <v>55.78404782560366</v>
       </c>
       <c r="S17" t="n">
-        <v>95.61694756741568</v>
+        <v>70.93370511695116</v>
       </c>
       <c r="T17" t="n">
-        <v>72.5468149056685</v>
+        <v>45.07954191406944</v>
       </c>
       <c r="U17" t="n">
-        <v>103.2042417984182</v>
+        <v>75.08708443688292</v>
       </c>
       <c r="V17" t="n">
-        <v>163.5566805161598</v>
+        <v>135.4274252489597</v>
       </c>
       <c r="W17" t="n">
-        <v>172.3407599945084</v>
+        <v>144.2115047273082</v>
       </c>
       <c r="X17" t="n">
-        <v>196.7971377165962</v>
+        <v>168.667882449396</v>
       </c>
       <c r="Y17" t="n">
-        <v>230.338109632133</v>
+        <v>202.2088543649328</v>
       </c>
     </row>
     <row r="18">
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>50.88813299356644</v>
+        <v>22.75887772636625</v>
       </c>
       <c r="C18" t="n">
-        <v>70.109873866821</v>
+        <v>41.98061859962081</v>
       </c>
       <c r="D18" t="n">
-        <v>36.08961367010323</v>
+        <v>7.96035840290304</v>
       </c>
       <c r="E18" t="n">
-        <v>53.26474751671461</v>
+        <v>25.13549224951441</v>
       </c>
       <c r="F18" t="n">
-        <v>39.47221849488423</v>
+        <v>11.34296322768404</v>
       </c>
       <c r="G18" t="n">
-        <v>24.56182379896416</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.090931440934781</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.65196211104174</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>74.28673481005217</v>
+        <v>47.66038217664874</v>
       </c>
       <c r="T18" t="n">
-        <v>95.54236358055851</v>
+        <v>67.73923995927549</v>
       </c>
       <c r="U18" t="n">
-        <v>113.3014619866019</v>
+        <v>85.17752986922625</v>
       </c>
       <c r="V18" t="n">
-        <v>110.4254882493136</v>
+        <v>82.29623298211337</v>
       </c>
       <c r="W18" t="n">
-        <v>149.6643917895436</v>
+        <v>121.5351365223434</v>
       </c>
       <c r="X18" t="n">
-        <v>93.88537343409334</v>
+        <v>65.75611816689315</v>
       </c>
       <c r="Y18" t="n">
-        <v>111.2998031008979</v>
+        <v>83.1705478336977</v>
       </c>
     </row>
     <row r="19">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.86769581891025</v>
+        <v>0.7384405517100561</v>
       </c>
       <c r="C19" t="n">
-        <v>20.33202363990111</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>24.91705739324664</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>24.05079199011098</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>24.89358702046994</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23934,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>23.04799451452774</v>
+        <v>0.5988949867729616</v>
       </c>
       <c r="R19" t="n">
-        <v>88.03891539497013</v>
+        <v>62.95971444188314</v>
       </c>
       <c r="S19" t="n">
-        <v>104.492363883421</v>
+        <v>77.54526674807587</v>
       </c>
       <c r="T19" t="n">
-        <v>69.5978547585427</v>
+        <v>41.75843481840138</v>
       </c>
       <c r="U19" t="n">
-        <v>148.2653828825403</v>
+        <v>120.1398276407919</v>
       </c>
       <c r="V19" t="n">
-        <v>87.4984481016848</v>
+        <v>59.36919283448461</v>
       </c>
       <c r="W19" t="n">
-        <v>152.6120329216137</v>
+        <v>124.4827776544136</v>
       </c>
       <c r="X19" t="n">
-        <v>70.27054016286976</v>
+        <v>42.14128489566957</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.81263881589396</v>
+        <v>41.68338354869377</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>213.4981318212546</v>
+        <v>185.3688765540545</v>
       </c>
       <c r="C20" t="n">
-        <v>177.7962924282659</v>
+        <v>149.6670371610657</v>
       </c>
       <c r="D20" t="n">
-        <v>161.9692616284329</v>
+        <v>133.8400063612327</v>
       </c>
       <c r="E20" t="n">
-        <v>207.5672263522561</v>
+        <v>179.4379710850559</v>
       </c>
       <c r="F20" t="n">
-        <v>251.7591006266139</v>
+        <v>223.6298453594137</v>
       </c>
       <c r="G20" t="n">
-        <v>279.7412543114275</v>
+        <v>251.7632228650385</v>
       </c>
       <c r="H20" t="n">
-        <v>206.6788853947823</v>
+        <v>180.0983510824651</v>
       </c>
       <c r="I20" t="n">
-        <v>116.5467958901757</v>
+        <v>94.24759697480005</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>74.41398975877112</v>
+        <v>55.78404782560366</v>
       </c>
       <c r="S20" t="n">
-        <v>95.61694756741568</v>
+        <v>70.93370511695116</v>
       </c>
       <c r="T20" t="n">
-        <v>72.5468149056685</v>
+        <v>45.07954191406944</v>
       </c>
       <c r="U20" t="n">
-        <v>103.2042417984182</v>
+        <v>75.08708443688292</v>
       </c>
       <c r="V20" t="n">
-        <v>163.5566805161598</v>
+        <v>135.4274252489597</v>
       </c>
       <c r="W20" t="n">
-        <v>172.3407599945084</v>
+        <v>144.2115047273082</v>
       </c>
       <c r="X20" t="n">
-        <v>196.7971377165962</v>
+        <v>168.667882449396</v>
       </c>
       <c r="Y20" t="n">
-        <v>230.338109632133</v>
+        <v>202.2088543649328</v>
       </c>
     </row>
     <row r="21">
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>50.88813299356644</v>
+        <v>22.75887772636625</v>
       </c>
       <c r="C21" t="n">
-        <v>70.109873866821</v>
+        <v>41.98061859962081</v>
       </c>
       <c r="D21" t="n">
-        <v>36.08961367010323</v>
+        <v>7.96035840290304</v>
       </c>
       <c r="E21" t="n">
-        <v>53.26474751671461</v>
+        <v>25.13549224951441</v>
       </c>
       <c r="F21" t="n">
-        <v>39.47221849488423</v>
+        <v>11.34296322768404</v>
       </c>
       <c r="G21" t="n">
-        <v>24.56182379896416</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.090931440934781</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.65196211104174</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>74.28673481005217</v>
+        <v>47.66038217664874</v>
       </c>
       <c r="T21" t="n">
-        <v>95.54236358055851</v>
+        <v>67.73923995927549</v>
       </c>
       <c r="U21" t="n">
-        <v>113.3014619866019</v>
+        <v>85.17752986922625</v>
       </c>
       <c r="V21" t="n">
-        <v>110.4254882493136</v>
+        <v>82.29623298211337</v>
       </c>
       <c r="W21" t="n">
-        <v>149.6643917895436</v>
+        <v>121.5351365223434</v>
       </c>
       <c r="X21" t="n">
-        <v>93.88537343409334</v>
+        <v>65.75611816689315</v>
       </c>
       <c r="Y21" t="n">
-        <v>111.2998031008979</v>
+        <v>83.1705478336977</v>
       </c>
     </row>
     <row r="22">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28.86769581891025</v>
+        <v>0.7384405517100561</v>
       </c>
       <c r="C22" t="n">
-        <v>20.33202363990111</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>24.91705739324664</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>24.05079199011098</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>24.89358702046994</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.04799451452774</v>
+        <v>0.5988949867729616</v>
       </c>
       <c r="R22" t="n">
-        <v>88.03891539497013</v>
+        <v>62.95971444188314</v>
       </c>
       <c r="S22" t="n">
-        <v>104.492363883421</v>
+        <v>77.54526674807587</v>
       </c>
       <c r="T22" t="n">
-        <v>69.5978547585427</v>
+        <v>41.75843481840138</v>
       </c>
       <c r="U22" t="n">
-        <v>148.2653828825403</v>
+        <v>120.1398276407919</v>
       </c>
       <c r="V22" t="n">
-        <v>87.4984481016848</v>
+        <v>59.36919283448461</v>
       </c>
       <c r="W22" t="n">
-        <v>152.6120329216137</v>
+        <v>124.4827776544136</v>
       </c>
       <c r="X22" t="n">
-        <v>70.27054016286976</v>
+        <v>42.14128489566957</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.81263881589396</v>
+        <v>41.68338354869377</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>213.4981318212547</v>
+        <v>185.3688765540545</v>
       </c>
       <c r="C23" t="n">
-        <v>177.7962924282659</v>
+        <v>149.6670371610657</v>
       </c>
       <c r="D23" t="n">
-        <v>161.9692616284329</v>
+        <v>133.8400063612327</v>
       </c>
       <c r="E23" t="n">
-        <v>207.5672263522561</v>
+        <v>179.4379710850559</v>
       </c>
       <c r="F23" t="n">
-        <v>251.7591006266139</v>
+        <v>223.6298453594137</v>
       </c>
       <c r="G23" t="n">
-        <v>279.7412543114275</v>
+        <v>251.7632228650385</v>
       </c>
       <c r="H23" t="n">
-        <v>206.6788853947824</v>
+        <v>180.0983510824651</v>
       </c>
       <c r="I23" t="n">
-        <v>116.5467958901758</v>
+        <v>94.24759697480005</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>74.41398975877115</v>
+        <v>55.78404782560366</v>
       </c>
       <c r="S23" t="n">
-        <v>95.61694756741571</v>
+        <v>70.93370511695116</v>
       </c>
       <c r="T23" t="n">
-        <v>72.54681490566853</v>
+        <v>45.07954191406944</v>
       </c>
       <c r="U23" t="n">
-        <v>103.2042417984182</v>
+        <v>75.08708443688292</v>
       </c>
       <c r="V23" t="n">
-        <v>163.5566805161599</v>
+        <v>135.4274252489597</v>
       </c>
       <c r="W23" t="n">
-        <v>172.3407599945084</v>
+        <v>144.2115047273082</v>
       </c>
       <c r="X23" t="n">
-        <v>196.7971377165962</v>
+        <v>168.667882449396</v>
       </c>
       <c r="Y23" t="n">
-        <v>230.3381096321331</v>
+        <v>202.2088543649328</v>
       </c>
     </row>
     <row r="24">
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>50.88813299356647</v>
+        <v>22.75887772636625</v>
       </c>
       <c r="C24" t="n">
-        <v>70.10987386682103</v>
+        <v>41.98061859962081</v>
       </c>
       <c r="D24" t="n">
-        <v>36.08961367010326</v>
+        <v>7.96035840290304</v>
       </c>
       <c r="E24" t="n">
-        <v>53.26474751671464</v>
+        <v>25.13549224951441</v>
       </c>
       <c r="F24" t="n">
-        <v>39.47221849488426</v>
+        <v>11.34296322768404</v>
       </c>
       <c r="G24" t="n">
-        <v>24.56182379896418</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.09093144093481</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.65196211104177</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>74.2867348100522</v>
+        <v>47.66038217664874</v>
       </c>
       <c r="T24" t="n">
-        <v>95.54236358055854</v>
+        <v>67.73923995927549</v>
       </c>
       <c r="U24" t="n">
-        <v>113.3014619866019</v>
+        <v>85.17752986922625</v>
       </c>
       <c r="V24" t="n">
-        <v>110.4254882493136</v>
+        <v>82.29623298211337</v>
       </c>
       <c r="W24" t="n">
-        <v>149.6643917895436</v>
+        <v>121.5351365223434</v>
       </c>
       <c r="X24" t="n">
-        <v>93.88537343409337</v>
+        <v>65.75611816689315</v>
       </c>
       <c r="Y24" t="n">
-        <v>111.2998031008979</v>
+        <v>83.1705478336977</v>
       </c>
     </row>
     <row r="25">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.86769581891028</v>
+        <v>0.7384405517100561</v>
       </c>
       <c r="C25" t="n">
-        <v>20.33202363990114</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>24.91705739324667</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>24.05079199011101</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>24.89358702046997</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24408,31 +24408,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>23.04799451452777</v>
+        <v>0.5988949867729616</v>
       </c>
       <c r="R25" t="n">
-        <v>88.03891539497016</v>
+        <v>62.95971444188314</v>
       </c>
       <c r="S25" t="n">
-        <v>104.492363883421</v>
+        <v>77.54526674807587</v>
       </c>
       <c r="T25" t="n">
-        <v>69.59785475854272</v>
+        <v>41.75843481840138</v>
       </c>
       <c r="U25" t="n">
-        <v>148.2653828825403</v>
+        <v>120.1398276407919</v>
       </c>
       <c r="V25" t="n">
-        <v>87.49844810168483</v>
+        <v>59.36919283448461</v>
       </c>
       <c r="W25" t="n">
-        <v>152.6120329216138</v>
+        <v>124.4827776544136</v>
       </c>
       <c r="X25" t="n">
-        <v>70.27054016286979</v>
+        <v>42.14128489566957</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.81263881589399</v>
+        <v>41.68338354869377</v>
       </c>
     </row>
     <row r="26">
@@ -24442,37 +24442,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>318.5399203219657</v>
+        <v>225.2522089848006</v>
       </c>
       <c r="C26" t="n">
-        <v>282.838080928977</v>
+        <v>189.5503695918119</v>
       </c>
       <c r="D26" t="n">
-        <v>267.0110501291439</v>
+        <v>173.7233387919788</v>
       </c>
       <c r="E26" t="n">
-        <v>312.6090148529672</v>
+        <v>219.321303515802</v>
       </c>
       <c r="F26" t="n">
-        <v>379.7695381158277</v>
+        <v>263.5131777901598</v>
       </c>
       <c r="G26" t="n">
-        <v>384.7830428121385</v>
+        <v>291.6465552957847</v>
       </c>
       <c r="H26" t="n">
-        <v>311.7206738954934</v>
+        <v>219.9816835132112</v>
       </c>
       <c r="I26" t="n">
-        <v>261.2182975345403</v>
+        <v>134.1309294055462</v>
       </c>
       <c r="J26" t="n">
-        <v>77.24448479488653</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>52.25149169249768</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>13.78597239077261</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24484,34 +24484,34 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>35.68220498125176</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>135.6275415645501</v>
+        <v>19.04058846335897</v>
       </c>
       <c r="R26" t="n">
-        <v>179.4557782594822</v>
+        <v>95.66738025634982</v>
       </c>
       <c r="S26" t="n">
-        <v>200.6587360681268</v>
+        <v>110.8170375476973</v>
       </c>
       <c r="T26" t="n">
-        <v>177.5886034063796</v>
+        <v>84.96287434481559</v>
       </c>
       <c r="U26" t="n">
-        <v>208.2460302991293</v>
+        <v>114.9704168676291</v>
       </c>
       <c r="V26" t="n">
-        <v>268.5984690168709</v>
+        <v>175.3107576797058</v>
       </c>
       <c r="W26" t="n">
-        <v>277.3825484952195</v>
+        <v>184.0948371580543</v>
       </c>
       <c r="X26" t="n">
-        <v>301.8389262173072</v>
+        <v>208.5512148801421</v>
       </c>
       <c r="Y26" t="n">
-        <v>375.0096112764976</v>
+        <v>242.092186795679</v>
       </c>
     </row>
     <row r="27">
@@ -24521,34 +24521,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>155.9299214942776</v>
+        <v>62.6422101571124</v>
       </c>
       <c r="C27" t="n">
-        <v>175.1516623675321</v>
+        <v>81.86395103036696</v>
       </c>
       <c r="D27" t="n">
-        <v>141.1314021708143</v>
+        <v>47.84369083364919</v>
       </c>
       <c r="E27" t="n">
-        <v>158.3065360174257</v>
+        <v>65.01882468026056</v>
       </c>
       <c r="F27" t="n">
-        <v>144.5140069955953</v>
+        <v>51.22629565843019</v>
       </c>
       <c r="G27" t="n">
-        <v>129.6036122996753</v>
+        <v>36.39681283984322</v>
       </c>
       <c r="H27" t="n">
-        <v>106.1327199416459</v>
+        <v>13.62644699872405</v>
       </c>
       <c r="I27" t="n">
-        <v>83.60623531421771</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.86763858630447</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>3.851833422284059</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24563,34 +24563,34 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>4.245097493356042</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>45.14609703248597</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>127.6937506117528</v>
+        <v>39.4296732023391</v>
       </c>
       <c r="S27" t="n">
-        <v>179.3285233107633</v>
+        <v>87.54371460739489</v>
       </c>
       <c r="T27" t="n">
-        <v>200.5841520812696</v>
+        <v>107.6225723900216</v>
       </c>
       <c r="U27" t="n">
-        <v>218.343250487313</v>
+        <v>125.0608622999724</v>
       </c>
       <c r="V27" t="n">
-        <v>215.4672767500247</v>
+        <v>122.1795654128595</v>
       </c>
       <c r="W27" t="n">
-        <v>254.7061802902547</v>
+        <v>161.4184689530896</v>
       </c>
       <c r="X27" t="n">
-        <v>198.9271619348044</v>
+        <v>105.6394505976393</v>
       </c>
       <c r="Y27" t="n">
-        <v>216.341591601609</v>
+        <v>123.0538802644438</v>
       </c>
     </row>
     <row r="28">
@@ -24600,76 +24600,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>133.9094843196214</v>
+        <v>40.62177298245621</v>
       </c>
       <c r="C28" t="n">
-        <v>125.3738121406122</v>
+        <v>32.08610080344707</v>
       </c>
       <c r="D28" t="n">
-        <v>99.23342246688379</v>
+        <v>5.94571112971866</v>
       </c>
       <c r="E28" t="n">
-        <v>93.28771133716513</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>87.3420002074465</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>129.9588458939577</v>
+        <v>36.73896835674256</v>
       </c>
       <c r="H28" t="n">
-        <v>129.0925804908221</v>
+        <v>169.3253977831214</v>
       </c>
       <c r="I28" t="n">
-        <v>129.935375521181</v>
+        <v>38.6876115497835</v>
       </c>
       <c r="J28" t="n">
-        <v>100.479147901573</v>
+        <v>11.98728622086935</v>
       </c>
       <c r="K28" t="n">
-        <v>61.13343539726817</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>40.22462619220941</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>39.21729946525654</v>
+        <v>89.48026908651906</v>
       </c>
       <c r="N28" t="n">
-        <v>24.44503959860414</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>52.89588321825831</v>
+        <v>102.113595649383</v>
       </c>
       <c r="P28" t="n">
-        <v>110.4602209616816</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.0897830152388</v>
+        <v>98.80053721919394</v>
       </c>
       <c r="R28" t="n">
-        <v>193.0807038956812</v>
+        <v>235.7604713534479</v>
       </c>
       <c r="S28" t="n">
-        <v>209.5341523841321</v>
+        <v>250.3460236596406</v>
       </c>
       <c r="T28" t="n">
-        <v>174.6396432592538</v>
+        <v>81.64176724914753</v>
       </c>
       <c r="U28" t="n">
-        <v>253.3071713832513</v>
+        <v>160.0231600715381</v>
       </c>
       <c r="V28" t="n">
-        <v>192.5402366023959</v>
+        <v>99.25252526523076</v>
       </c>
       <c r="W28" t="n">
-        <v>257.6538214223248</v>
+        <v>297.2835345659783</v>
       </c>
       <c r="X28" t="n">
-        <v>175.3123286635808</v>
+        <v>82.02461732641572</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.854427316605</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>218.0425685920078</v>
+        <v>210.2798805059767</v>
       </c>
       <c r="C29" t="n">
-        <v>214.1746229599721</v>
+        <v>174.578041112988</v>
       </c>
       <c r="D29" t="n">
-        <v>166.513698399186</v>
+        <v>158.7510103131549</v>
       </c>
       <c r="E29" t="n">
-        <v>212.1116631230092</v>
+        <v>204.3489750369781</v>
       </c>
       <c r="F29" t="n">
-        <v>256.3035373973671</v>
+        <v>248.540849311336</v>
       </c>
       <c r="G29" t="n">
-        <v>284.2856910821806</v>
+        <v>276.6742268169608</v>
       </c>
       <c r="H29" t="n">
-        <v>211.2233221655355</v>
+        <v>205.0093550343873</v>
       </c>
       <c r="I29" t="n">
-        <v>121.0912326609289</v>
+        <v>119.1586009267223</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24724,31 +24724,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>4.068259984535075</v>
       </c>
       <c r="R29" t="n">
-        <v>78.95842652952427</v>
+        <v>80.69505177752589</v>
       </c>
       <c r="S29" t="n">
-        <v>100.1613843381689</v>
+        <v>95.84470906887341</v>
       </c>
       <c r="T29" t="n">
-        <v>77.09125167642165</v>
+        <v>69.99054586599169</v>
       </c>
       <c r="U29" t="n">
-        <v>107.7486785691713</v>
+        <v>99.99808838880517</v>
       </c>
       <c r="V29" t="n">
-        <v>168.101117286913</v>
+        <v>160.3384292008819</v>
       </c>
       <c r="W29" t="n">
-        <v>176.8851967652615</v>
+        <v>169.1225086792304</v>
       </c>
       <c r="X29" t="n">
-        <v>201.3415744873493</v>
+        <v>193.5788864013182</v>
       </c>
       <c r="Y29" t="n">
-        <v>234.8825464028862</v>
+        <v>227.1198583168551</v>
       </c>
     </row>
     <row r="30">
@@ -24758,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55.4325697643196</v>
+        <v>47.6698816782885</v>
       </c>
       <c r="C30" t="n">
-        <v>74.65431063757416</v>
+        <v>66.89162255154307</v>
       </c>
       <c r="D30" t="n">
-        <v>40.63405044085638</v>
+        <v>32.87136235482529</v>
       </c>
       <c r="E30" t="n">
-        <v>57.80918428746776</v>
+        <v>50.04649620143667</v>
       </c>
       <c r="F30" t="n">
-        <v>44.01665526563738</v>
+        <v>36.25396717960629</v>
       </c>
       <c r="G30" t="n">
-        <v>29.10626056971731</v>
+        <v>21.42448436101932</v>
       </c>
       <c r="H30" t="n">
-        <v>5.635368211687933</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>27.19639888179489</v>
+        <v>24.45734472351521</v>
       </c>
       <c r="S30" t="n">
-        <v>78.83117158080532</v>
+        <v>72.57138612857099</v>
       </c>
       <c r="T30" t="n">
-        <v>100.0868003513117</v>
+        <v>92.65024391119775</v>
       </c>
       <c r="U30" t="n">
-        <v>117.845898757355</v>
+        <v>110.0885338211485</v>
       </c>
       <c r="V30" t="n">
-        <v>114.9699250200667</v>
+        <v>107.2072369340356</v>
       </c>
       <c r="W30" t="n">
-        <v>154.2088285602968</v>
+        <v>146.4461404742657</v>
       </c>
       <c r="X30" t="n">
-        <v>98.42981020484649</v>
+        <v>90.6671221188154</v>
       </c>
       <c r="Y30" t="n">
-        <v>115.844239871651</v>
+        <v>108.08155178562</v>
       </c>
     </row>
     <row r="31">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33.4121325896634</v>
+        <v>25.64944450363231</v>
       </c>
       <c r="C31" t="n">
-        <v>24.87646041065426</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>29.46149416399979</v>
+        <v>21.76663987791866</v>
       </c>
       <c r="H31" t="n">
-        <v>28.59522876086413</v>
+        <v>21.43564482347895</v>
       </c>
       <c r="I31" t="n">
-        <v>29.43802379122309</v>
+        <v>171.6050360306021</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24867,7 +24867,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>61.21472257747394</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -24882,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>27.5924312852809</v>
+        <v>25.50989893869522</v>
       </c>
       <c r="R31" t="n">
-        <v>92.58335216572328</v>
+        <v>87.87071839380539</v>
       </c>
       <c r="S31" t="n">
-        <v>109.0368006541742</v>
+        <v>250.3460236596406</v>
       </c>
       <c r="T31" t="n">
-        <v>74.14229152929587</v>
+        <v>66.66943877032364</v>
       </c>
       <c r="U31" t="n">
-        <v>152.8098196532934</v>
+        <v>145.0508315927142</v>
       </c>
       <c r="V31" t="n">
-        <v>92.04288487243795</v>
+        <v>84.28019678640686</v>
       </c>
       <c r="W31" t="n">
-        <v>157.1564696923669</v>
+        <v>149.3937816063358</v>
       </c>
       <c r="X31" t="n">
-        <v>74.81497693362292</v>
+        <v>67.05228884759183</v>
       </c>
       <c r="Y31" t="n">
-        <v>74.35707558664711</v>
+        <v>66.59438750061602</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>218.0425685920078</v>
+        <v>210.2798805059767</v>
       </c>
       <c r="C32" t="n">
-        <v>182.3407291990191</v>
+        <v>174.578041112988</v>
       </c>
       <c r="D32" t="n">
-        <v>166.513698399186</v>
+        <v>158.7510103131549</v>
       </c>
       <c r="E32" t="n">
-        <v>212.1116631230092</v>
+        <v>204.3489750369781</v>
       </c>
       <c r="F32" t="n">
-        <v>256.3035373973671</v>
+        <v>248.540849311336</v>
       </c>
       <c r="G32" t="n">
-        <v>284.2856910821806</v>
+        <v>276.6742268169608</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2233221655355</v>
+        <v>205.0093550343873</v>
       </c>
       <c r="I32" t="n">
-        <v>121.0912326609289</v>
+        <v>119.1586009267223</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24946,7 +24946,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>31.83389376095349</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24961,31 +24961,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>4.068259984535075</v>
       </c>
       <c r="R32" t="n">
-        <v>78.95842652952427</v>
+        <v>80.69505177752592</v>
       </c>
       <c r="S32" t="n">
-        <v>100.1613843381688</v>
+        <v>95.84470906887341</v>
       </c>
       <c r="T32" t="n">
-        <v>77.09125167642165</v>
+        <v>69.99054586599169</v>
       </c>
       <c r="U32" t="n">
-        <v>107.7486785691713</v>
+        <v>99.99808838880517</v>
       </c>
       <c r="V32" t="n">
-        <v>168.101117286913</v>
+        <v>160.3384292008819</v>
       </c>
       <c r="W32" t="n">
-        <v>176.8851967652615</v>
+        <v>169.1225086792304</v>
       </c>
       <c r="X32" t="n">
-        <v>201.3415744873493</v>
+        <v>193.5788864013182</v>
       </c>
       <c r="Y32" t="n">
-        <v>234.8825464028862</v>
+        <v>227.1198583168551</v>
       </c>
     </row>
     <row r="33">
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>55.4325697643196</v>
+        <v>47.6698816782885</v>
       </c>
       <c r="C33" t="n">
-        <v>74.65431063757416</v>
+        <v>66.89162255154307</v>
       </c>
       <c r="D33" t="n">
-        <v>40.63405044085638</v>
+        <v>32.87136235482529</v>
       </c>
       <c r="E33" t="n">
-        <v>57.80918428746776</v>
+        <v>50.04649620143667</v>
       </c>
       <c r="F33" t="n">
-        <v>44.01665526563738</v>
+        <v>36.25396717960629</v>
       </c>
       <c r="G33" t="n">
-        <v>29.10626056971731</v>
+        <v>21.42448436101932</v>
       </c>
       <c r="H33" t="n">
-        <v>5.635368211687933</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>27.19639888179489</v>
+        <v>24.45734472351521</v>
       </c>
       <c r="S33" t="n">
-        <v>78.83117158080532</v>
+        <v>72.57138612857099</v>
       </c>
       <c r="T33" t="n">
-        <v>100.0868003513117</v>
+        <v>92.65024391119775</v>
       </c>
       <c r="U33" t="n">
-        <v>117.845898757355</v>
+        <v>110.0885338211485</v>
       </c>
       <c r="V33" t="n">
-        <v>114.9699250200667</v>
+        <v>107.2072369340356</v>
       </c>
       <c r="W33" t="n">
-        <v>154.2088285602968</v>
+        <v>146.4461404742657</v>
       </c>
       <c r="X33" t="n">
-        <v>98.42981020484649</v>
+        <v>90.6671221188154</v>
       </c>
       <c r="Y33" t="n">
-        <v>115.844239871651</v>
+        <v>108.08155178562</v>
       </c>
     </row>
     <row r="34">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33.4121325896634</v>
+        <v>25.64944450363231</v>
       </c>
       <c r="C34" t="n">
-        <v>24.87646041065426</v>
+        <v>17.11377232462317</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>29.46149416399979</v>
+        <v>21.76663987791866</v>
       </c>
       <c r="H34" t="n">
-        <v>28.59522876086413</v>
+        <v>169.3253977831214</v>
       </c>
       <c r="I34" t="n">
-        <v>29.43802379122309</v>
+        <v>23.7152830709596</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25104,7 +25104,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>40.29668296893283</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -25119,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>27.5924312852809</v>
+        <v>173.3996518983377</v>
       </c>
       <c r="R34" t="n">
-        <v>92.58335216572328</v>
+        <v>87.87071839380539</v>
       </c>
       <c r="S34" t="n">
-        <v>109.0368006541742</v>
+        <v>102.4562706999981</v>
       </c>
       <c r="T34" t="n">
-        <v>74.14229152929585</v>
+        <v>214.5591917299661</v>
       </c>
       <c r="U34" t="n">
-        <v>152.8098196532934</v>
+        <v>145.0508315927142</v>
       </c>
       <c r="V34" t="n">
-        <v>92.04288487243795</v>
+        <v>84.28019678640686</v>
       </c>
       <c r="W34" t="n">
-        <v>157.1564696923669</v>
+        <v>149.3937816063358</v>
       </c>
       <c r="X34" t="n">
-        <v>74.81497693362292</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y34" t="n">
-        <v>74.35707558664711</v>
+        <v>66.59438750061602</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>218.0425685920078</v>
+        <v>210.2798805059767</v>
       </c>
       <c r="C35" t="n">
-        <v>182.3407291990191</v>
+        <v>174.578041112988</v>
       </c>
       <c r="D35" t="n">
-        <v>166.513698399186</v>
+        <v>158.7510103131549</v>
       </c>
       <c r="E35" t="n">
-        <v>212.1116631230092</v>
+        <v>204.3489750369781</v>
       </c>
       <c r="F35" t="n">
-        <v>256.3035373973671</v>
+        <v>248.540849311336</v>
       </c>
       <c r="G35" t="n">
-        <v>284.2856910821806</v>
+        <v>276.6742268169608</v>
       </c>
       <c r="H35" t="n">
-        <v>211.2233221655355</v>
+        <v>205.0093550343873</v>
       </c>
       <c r="I35" t="n">
-        <v>121.0912326609289</v>
+        <v>119.1586009267223</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25198,31 +25198,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>4.068259984535075</v>
       </c>
       <c r="R35" t="n">
-        <v>78.95842652952427</v>
+        <v>80.69505177752592</v>
       </c>
       <c r="S35" t="n">
-        <v>100.1613843381688</v>
+        <v>95.84470906887341</v>
       </c>
       <c r="T35" t="n">
-        <v>77.09125167642165</v>
+        <v>69.99054586599169</v>
       </c>
       <c r="U35" t="n">
-        <v>107.7486785691713</v>
+        <v>99.99808838880517</v>
       </c>
       <c r="V35" t="n">
-        <v>168.101117286913</v>
+        <v>160.3384292008819</v>
       </c>
       <c r="W35" t="n">
-        <v>176.8851967652615</v>
+        <v>169.1225086792304</v>
       </c>
       <c r="X35" t="n">
-        <v>201.3415744873493</v>
+        <v>193.5788864013182</v>
       </c>
       <c r="Y35" t="n">
-        <v>234.8825464028862</v>
+        <v>227.1198583168551</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>55.4325697643196</v>
+        <v>47.6698816782885</v>
       </c>
       <c r="C36" t="n">
-        <v>74.65431063757416</v>
+        <v>66.89162255154307</v>
       </c>
       <c r="D36" t="n">
-        <v>40.63405044085638</v>
+        <v>32.87136235482529</v>
       </c>
       <c r="E36" t="n">
-        <v>57.80918428746776</v>
+        <v>50.04649620143667</v>
       </c>
       <c r="F36" t="n">
-        <v>44.01665526563738</v>
+        <v>36.25396717960629</v>
       </c>
       <c r="G36" t="n">
-        <v>29.10626056971731</v>
+        <v>21.42448436101932</v>
       </c>
       <c r="H36" t="n">
-        <v>5.635368211687933</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>27.19639888179489</v>
+        <v>24.45734472351521</v>
       </c>
       <c r="S36" t="n">
-        <v>78.83117158080532</v>
+        <v>72.57138612857099</v>
       </c>
       <c r="T36" t="n">
-        <v>100.0868003513117</v>
+        <v>92.65024391119775</v>
       </c>
       <c r="U36" t="n">
-        <v>117.845898757355</v>
+        <v>110.0885338211485</v>
       </c>
       <c r="V36" t="n">
-        <v>114.9699250200667</v>
+        <v>107.2072369340356</v>
       </c>
       <c r="W36" t="n">
-        <v>154.2088285602968</v>
+        <v>146.4461404742657</v>
       </c>
       <c r="X36" t="n">
-        <v>98.42981020484649</v>
+        <v>90.6671221188154</v>
       </c>
       <c r="Y36" t="n">
-        <v>115.844239871651</v>
+        <v>108.08155178562</v>
       </c>
     </row>
     <row r="37">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>33.4121325896634</v>
+        <v>25.64944450363231</v>
       </c>
       <c r="C37" t="n">
-        <v>24.87646041065426</v>
+        <v>17.11377232462317</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>29.46149416399979</v>
+        <v>21.76663987791866</v>
       </c>
       <c r="H37" t="n">
-        <v>28.59522876086413</v>
+        <v>21.43564482347895</v>
       </c>
       <c r="I37" t="n">
-        <v>29.43802379122309</v>
+        <v>151.6928106598963</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25341,46 +25341,46 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>79.85433933586287</v>
+        <v>89.93937537569462</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>89.48026908651906</v>
       </c>
       <c r="N37" t="n">
-        <v>25.7280749712985</v>
+        <v>74.45517414732592</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>102.113595649383</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>27.5924312852809</v>
+        <v>173.3996518983377</v>
       </c>
       <c r="R37" t="n">
-        <v>92.58335216572328</v>
+        <v>87.87071839380539</v>
       </c>
       <c r="S37" t="n">
-        <v>109.0368006541742</v>
+        <v>102.4562706999981</v>
       </c>
       <c r="T37" t="n">
-        <v>74.14229152929585</v>
+        <v>66.66943877032364</v>
       </c>
       <c r="U37" t="n">
-        <v>152.8098196532934</v>
+        <v>145.0508315927142</v>
       </c>
       <c r="V37" t="n">
-        <v>92.04288487243795</v>
+        <v>84.28019678640686</v>
       </c>
       <c r="W37" t="n">
-        <v>157.1564696923669</v>
+        <v>149.3937816063358</v>
       </c>
       <c r="X37" t="n">
-        <v>74.81497693362292</v>
+        <v>67.05228884759183</v>
       </c>
       <c r="Y37" t="n">
-        <v>74.35707558664711</v>
+        <v>66.59438750061602</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>218.0425685920078</v>
+        <v>210.2798805059767</v>
       </c>
       <c r="C38" t="n">
-        <v>182.3407291990191</v>
+        <v>174.578041112988</v>
       </c>
       <c r="D38" t="n">
-        <v>166.513698399186</v>
+        <v>158.7510103131549</v>
       </c>
       <c r="E38" t="n">
-        <v>212.1116631230092</v>
+        <v>204.3489750369781</v>
       </c>
       <c r="F38" t="n">
-        <v>256.3035373973671</v>
+        <v>248.540849311336</v>
       </c>
       <c r="G38" t="n">
-        <v>284.2856910821806</v>
+        <v>276.6742268169608</v>
       </c>
       <c r="H38" t="n">
-        <v>211.2233221655355</v>
+        <v>205.0093550343873</v>
       </c>
       <c r="I38" t="n">
-        <v>121.0912326609289</v>
+        <v>119.1586009267223</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25435,31 +25435,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>4.068259984535075</v>
       </c>
       <c r="R38" t="n">
-        <v>78.95842652952427</v>
+        <v>80.69505177752592</v>
       </c>
       <c r="S38" t="n">
-        <v>100.1613843381688</v>
+        <v>95.84470906887341</v>
       </c>
       <c r="T38" t="n">
-        <v>77.09125167642165</v>
+        <v>69.99054586599169</v>
       </c>
       <c r="U38" t="n">
-        <v>107.7486785691713</v>
+        <v>99.99808838880517</v>
       </c>
       <c r="V38" t="n">
-        <v>168.101117286913</v>
+        <v>160.3384292008819</v>
       </c>
       <c r="W38" t="n">
-        <v>176.8851967652615</v>
+        <v>169.1225086792304</v>
       </c>
       <c r="X38" t="n">
-        <v>201.3415744873493</v>
+        <v>193.5788864013182</v>
       </c>
       <c r="Y38" t="n">
-        <v>234.8825464028862</v>
+        <v>227.1198583168551</v>
       </c>
     </row>
     <row r="39">
@@ -25469,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>55.4325697643196</v>
+        <v>47.6698816782885</v>
       </c>
       <c r="C39" t="n">
-        <v>74.65431063757416</v>
+        <v>66.89162255154307</v>
       </c>
       <c r="D39" t="n">
-        <v>40.63405044085638</v>
+        <v>32.87136235482529</v>
       </c>
       <c r="E39" t="n">
-        <v>57.80918428746776</v>
+        <v>50.04649620143667</v>
       </c>
       <c r="F39" t="n">
-        <v>44.01665526563738</v>
+        <v>36.25396717960629</v>
       </c>
       <c r="G39" t="n">
-        <v>29.10626056971731</v>
+        <v>21.42448436101932</v>
       </c>
       <c r="H39" t="n">
-        <v>5.635368211687933</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>27.19639888179489</v>
+        <v>24.45734472351521</v>
       </c>
       <c r="S39" t="n">
-        <v>78.83117158080532</v>
+        <v>72.57138612857099</v>
       </c>
       <c r="T39" t="n">
-        <v>100.0868003513117</v>
+        <v>92.65024391119775</v>
       </c>
       <c r="U39" t="n">
-        <v>117.845898757355</v>
+        <v>110.0885338211485</v>
       </c>
       <c r="V39" t="n">
-        <v>114.9699250200667</v>
+        <v>107.2072369340356</v>
       </c>
       <c r="W39" t="n">
-        <v>154.2088285602968</v>
+        <v>146.4461404742657</v>
       </c>
       <c r="X39" t="n">
-        <v>98.42981020484649</v>
+        <v>90.6671221188154</v>
       </c>
       <c r="Y39" t="n">
-        <v>115.844239871651</v>
+        <v>108.08155178562</v>
       </c>
     </row>
     <row r="40">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>33.4121325896634</v>
+        <v>25.64944450363231</v>
       </c>
       <c r="C40" t="n">
-        <v>24.87646041065426</v>
+        <v>17.11377232462317</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,61 +25563,61 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>29.46149416399979</v>
+        <v>21.76663987791866</v>
       </c>
       <c r="H40" t="n">
-        <v>28.59522876086413</v>
+        <v>21.43564482347895</v>
       </c>
       <c r="I40" t="n">
-        <v>29.43802379122309</v>
+        <v>23.7152830709596</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>93.78849898297415</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>108.6442027532886</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>89.93937537569462</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>89.48026908651906</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>102.113595649383</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>27.5924312852809</v>
+        <v>25.50989893869522</v>
       </c>
       <c r="R40" t="n">
-        <v>92.58335216572328</v>
+        <v>87.87071839380539</v>
       </c>
       <c r="S40" t="n">
-        <v>109.0368006541742</v>
+        <v>250.3460236596406</v>
       </c>
       <c r="T40" t="n">
-        <v>74.14229152929585</v>
+        <v>66.66943877032364</v>
       </c>
       <c r="U40" t="n">
-        <v>152.8098196532934</v>
+        <v>145.0508315927142</v>
       </c>
       <c r="V40" t="n">
-        <v>92.04288487243795</v>
+        <v>84.28019678640686</v>
       </c>
       <c r="W40" t="n">
-        <v>157.1564696923669</v>
+        <v>149.3937816063358</v>
       </c>
       <c r="X40" t="n">
-        <v>180.397391240784</v>
+        <v>67.05228884759183</v>
       </c>
       <c r="Y40" t="n">
-        <v>74.35707558664711</v>
+        <v>66.59438750061602</v>
       </c>
     </row>
     <row r="41">
@@ -25627,76 +25627,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.6722817356613</v>
+        <v>343.1973049867953</v>
       </c>
       <c r="C41" t="n">
-        <v>322.4677940726305</v>
+        <v>307.4954655938066</v>
       </c>
       <c r="D41" t="n">
-        <v>206.1434115428395</v>
+        <v>291.6684347939735</v>
       </c>
       <c r="E41" t="n">
-        <v>251.7413762666627</v>
+        <v>337.2663995177967</v>
       </c>
       <c r="F41" t="n">
-        <v>295.9332505410205</v>
+        <v>396.4306022709785</v>
       </c>
       <c r="G41" t="n">
-        <v>323.9154042258341</v>
+        <v>409.5916512977793</v>
       </c>
       <c r="H41" t="n">
-        <v>250.853035309189</v>
+        <v>337.9267795152059</v>
       </c>
       <c r="I41" t="n">
-        <v>160.7209458045824</v>
+        <v>252.0760254075409</v>
       </c>
       <c r="J41" t="n">
-        <v>16.37684620858207</v>
+        <v>114.7368022212923</v>
       </c>
       <c r="K41" t="n">
-        <v>0.4753967325479778</v>
+        <v>96.14511345384234</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>62.30761015826862</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>12.01091592807392</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>82.08576410851059</v>
       </c>
       <c r="Q41" t="n">
-        <v>35.13018983459213</v>
+        <v>136.9856844653537</v>
       </c>
       <c r="R41" t="n">
-        <v>118.5881396731777</v>
+        <v>213.6124762583445</v>
       </c>
       <c r="S41" t="n">
-        <v>139.7910974818223</v>
+        <v>228.762133549692</v>
       </c>
       <c r="T41" t="n">
-        <v>116.7209648200751</v>
+        <v>202.9079703468103</v>
       </c>
       <c r="U41" t="n">
-        <v>147.3783917128248</v>
+        <v>232.9155128696238</v>
       </c>
       <c r="V41" t="n">
-        <v>207.7308304305665</v>
+        <v>293.2558536817005</v>
       </c>
       <c r="W41" t="n">
-        <v>317.0122616388729</v>
+        <v>302.039933160049</v>
       </c>
       <c r="X41" t="n">
-        <v>240.9712876310028</v>
+        <v>326.4963108821368</v>
       </c>
       <c r="Y41" t="n">
-        <v>274.5122595465397</v>
+        <v>360.0372827976737</v>
       </c>
     </row>
     <row r="42">
@@ -25706,34 +25706,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>95.06228290797307</v>
+        <v>180.5873061591071</v>
       </c>
       <c r="C42" t="n">
-        <v>114.2840237812276</v>
+        <v>199.8090470323617</v>
       </c>
       <c r="D42" t="n">
-        <v>80.26376358450986</v>
+        <v>165.7887868356439</v>
       </c>
       <c r="E42" t="n">
-        <v>97.43889743112123</v>
+        <v>182.9639206822553</v>
       </c>
       <c r="F42" t="n">
-        <v>83.64636840929086</v>
+        <v>184.1437201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>68.7359737133708</v>
+        <v>154.3419088418379</v>
       </c>
       <c r="H42" t="n">
-        <v>45.26508135534139</v>
+        <v>131.5715430007187</v>
       </c>
       <c r="I42" t="n">
-        <v>22.73859672791325</v>
+        <v>111.0494017205596</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.16942127583684</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>41.57471189313391</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25748,34 +25748,34 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>4.723388818603967</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>80.13181186355435</v>
       </c>
       <c r="R42" t="n">
-        <v>66.82611202544837</v>
+        <v>157.3747692043338</v>
       </c>
       <c r="S42" t="n">
-        <v>118.4608847244588</v>
+        <v>205.4888106093896</v>
       </c>
       <c r="T42" t="n">
-        <v>139.7165134949651</v>
+        <v>225.5676683920163</v>
       </c>
       <c r="U42" t="n">
-        <v>157.4756119010085</v>
+        <v>243.0059583019671</v>
       </c>
       <c r="V42" t="n">
-        <v>154.5996381637202</v>
+        <v>240.1246614148542</v>
       </c>
       <c r="W42" t="n">
-        <v>193.8385417039502</v>
+        <v>294.3358934339082</v>
       </c>
       <c r="X42" t="n">
-        <v>138.0595233485</v>
+        <v>223.584546599634</v>
       </c>
       <c r="Y42" t="n">
-        <v>155.4739530153045</v>
+        <v>240.9989762664385</v>
       </c>
     </row>
     <row r="43">
@@ -25785,76 +25785,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>73.04184573331688</v>
+        <v>158.5668689844509</v>
       </c>
       <c r="C43" t="n">
-        <v>64.50617355430774</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D43" t="n">
-        <v>38.36578388057933</v>
+        <v>138.8631356105373</v>
       </c>
       <c r="E43" t="n">
-        <v>32.42007275086067</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F43" t="n">
-        <v>26.47436162114204</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G43" t="n">
-        <v>69.09120730765328</v>
+        <v>169.6563928375612</v>
       </c>
       <c r="H43" t="n">
-        <v>68.22494190451761</v>
+        <v>154.3530693042975</v>
       </c>
       <c r="I43" t="n">
-        <v>69.06773693487655</v>
+        <v>156.6327075517782</v>
       </c>
       <c r="J43" t="n">
-        <v>39.61150931526851</v>
+        <v>129.932382222864</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2657968109637068</v>
+        <v>93.6718742744647</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>74.96704689687071</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>84.2399541189309</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>59.48284566850201</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>87.14126717055905</v>
       </c>
       <c r="P43" t="n">
-        <v>9.96286923172363</v>
+        <v>103.6920822513498</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.22214442893437</v>
+        <v>173.3996518983377</v>
       </c>
       <c r="R43" t="n">
-        <v>132.2130653093768</v>
+        <v>220.788142874624</v>
       </c>
       <c r="S43" t="n">
-        <v>148.6665137978276</v>
+        <v>235.3736951808167</v>
       </c>
       <c r="T43" t="n">
-        <v>113.7720046729493</v>
+        <v>214.5591917299661</v>
       </c>
       <c r="U43" t="n">
-        <v>192.4395327969469</v>
+        <v>277.9682560735328</v>
       </c>
       <c r="V43" t="n">
-        <v>131.6725980160914</v>
+        <v>217.1976212672255</v>
       </c>
       <c r="W43" t="n">
-        <v>196.7861828360204</v>
+        <v>282.3112060871544</v>
       </c>
       <c r="X43" t="n">
-        <v>114.4446900772764</v>
+        <v>199.9697133284104</v>
       </c>
       <c r="Y43" t="n">
-        <v>113.9867887303006</v>
+        <v>214.4841404602585</v>
       </c>
     </row>
     <row r="44">
@@ -25879,49 +25879,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G44" t="n">
-        <v>424.412755955792</v>
+        <v>424.5639797766032</v>
       </c>
       <c r="H44" t="n">
-        <v>351.3503870391469</v>
+        <v>352.8991079940298</v>
       </c>
       <c r="I44" t="n">
-        <v>261.2182975345403</v>
+        <v>267.0483538863648</v>
       </c>
       <c r="J44" t="n">
-        <v>116.87419793854</v>
+        <v>129.7091307001162</v>
       </c>
       <c r="K44" t="n">
-        <v>91.88120483615114</v>
+        <v>111.1174419326663</v>
       </c>
       <c r="L44" t="n">
-        <v>53.41568553442607</v>
+        <v>77.27993863709253</v>
       </c>
       <c r="M44" t="n">
-        <v>7.452579786414901</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>26.98324440689782</v>
       </c>
       <c r="O44" t="n">
-        <v>21.88868639101628</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P44" t="n">
-        <v>75.31191812490522</v>
+        <v>97.0580925873345</v>
       </c>
       <c r="Q44" t="n">
-        <v>135.6275415645501</v>
+        <v>151.9580129441776</v>
       </c>
       <c r="R44" t="n">
-        <v>219.0854914031357</v>
+        <v>228.5848047371684</v>
       </c>
       <c r="S44" t="n">
-        <v>240.2884492117802</v>
+        <v>243.7344620285159</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2183165500331</v>
+        <v>217.8802988256342</v>
       </c>
       <c r="U44" t="n">
-        <v>247.8757434427827</v>
+        <v>247.8878413484477</v>
       </c>
       <c r="V44" t="n">
         <v>308.2281821605244</v>
@@ -25958,19 +25958,19 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>169.2333254433287</v>
+        <v>169.3142373206618</v>
       </c>
       <c r="H45" t="n">
-        <v>145.7624330852993</v>
+        <v>146.5438714795426</v>
       </c>
       <c r="I45" t="n">
-        <v>123.2359484578712</v>
+        <v>126.0217301993835</v>
       </c>
       <c r="J45" t="n">
-        <v>100.4973517299579</v>
+        <v>108.1417497546608</v>
       </c>
       <c r="K45" t="n">
-        <v>43.48154656593752</v>
+        <v>56.54704037195782</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25985,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>4.245097493356042</v>
+        <v>19.69571729742788</v>
       </c>
       <c r="Q45" t="n">
-        <v>84.77581017613943</v>
+        <v>95.10414034237826</v>
       </c>
       <c r="R45" t="n">
-        <v>167.3234637554063</v>
+        <v>172.3470976831577</v>
       </c>
       <c r="S45" t="n">
-        <v>218.9582364544167</v>
+        <v>220.4611390882135</v>
       </c>
       <c r="T45" t="n">
-        <v>240.2138652249231</v>
+        <v>240.5399968708402</v>
       </c>
       <c r="U45" t="n">
-        <v>257.9729636309664</v>
+        <v>257.978286780791</v>
       </c>
       <c r="V45" t="n">
         <v>255.0969898936781</v>
@@ -26037,49 +26037,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G46" t="n">
-        <v>169.5885590376112</v>
+        <v>169.6563928375612</v>
       </c>
       <c r="H46" t="n">
-        <v>168.7222936344755</v>
+        <v>169.3253977831214</v>
       </c>
       <c r="I46" t="n">
-        <v>169.5650886648345</v>
+        <v>171.6050360306021</v>
       </c>
       <c r="J46" t="n">
-        <v>140.1088610452264</v>
+        <v>144.9047107016879</v>
       </c>
       <c r="K46" t="n">
-        <v>100.7631485409216</v>
+        <v>108.6442027532886</v>
       </c>
       <c r="L46" t="n">
-        <v>79.85433933586287</v>
+        <v>89.93937537569462</v>
       </c>
       <c r="M46" t="n">
-        <v>78.84701260891001</v>
+        <v>89.48026908651906</v>
       </c>
       <c r="N46" t="n">
-        <v>64.0747527422576</v>
+        <v>74.45517414732592</v>
       </c>
       <c r="O46" t="n">
-        <v>92.52559636191177</v>
+        <v>102.113595649383</v>
       </c>
       <c r="P46" t="n">
-        <v>110.4602209616816</v>
+        <v>118.6644107301737</v>
       </c>
       <c r="Q46" t="n">
-        <v>167.7194961588923</v>
+        <v>173.3996518983377</v>
       </c>
       <c r="R46" t="n">
-        <v>232.7104170393347</v>
+        <v>235.7604713534479</v>
       </c>
       <c r="S46" t="n">
-        <v>249.1638655277856</v>
+        <v>250.3460236596406</v>
       </c>
       <c r="T46" t="n">
-        <v>214.2693564029072</v>
+        <v>214.5591917299661</v>
       </c>
       <c r="U46" t="n">
-        <v>292.9368845269048</v>
+        <v>292.9405845523567</v>
       </c>
       <c r="V46" t="n">
         <v>232.1699497460494</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>625963.6274707405</v>
+        <v>677755.8904017262</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>625963.6274707405</v>
+        <v>677755.8904017262</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>625963.6274707407</v>
+        <v>677755.8904017262</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>625963.6274707407</v>
+        <v>677755.8904017262</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>625963.6274707407</v>
+        <v>677755.8904017262</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>368317.1286361966</v>
+        <v>579930.0526155917</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>614817.0329594376</v>
+        <v>616654.1799084509</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>614817.0329594376</v>
+        <v>616654.1799084509</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>614817.0329594377</v>
+        <v>616654.1799084509</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>614817.0329594377</v>
+        <v>616654.1799084509</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>517613.2725606838</v>
+        <v>290634.3211418994</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>271113.3682374432</v>
+        <v>253910.1938490401</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>872367.3338539733</v>
+        <v>872367.3338539732</v>
       </c>
       <c r="C2" t="n">
-        <v>872367.3338539733</v>
+        <v>872367.3338539732</v>
       </c>
       <c r="D2" t="n">
-        <v>872367.3338539733</v>
+        <v>872367.333853973</v>
       </c>
       <c r="E2" t="n">
-        <v>625963.6274707413</v>
+        <v>677755.8904017268</v>
       </c>
       <c r="F2" t="n">
-        <v>625963.6274707413</v>
+        <v>677755.8904017265</v>
       </c>
       <c r="G2" t="n">
-        <v>625963.6274707413</v>
+        <v>677755.8904017266</v>
       </c>
       <c r="H2" t="n">
-        <v>625963.6274707412</v>
+        <v>677755.8904017265</v>
       </c>
       <c r="I2" t="n">
-        <v>625963.6274707414</v>
+        <v>677755.8904017264</v>
       </c>
       <c r="J2" t="n">
-        <v>368317.1286361967</v>
+        <v>579930.0526155921</v>
       </c>
       <c r="K2" t="n">
-        <v>614817.0329594387</v>
+        <v>616654.1799084519</v>
       </c>
       <c r="L2" t="n">
-        <v>614817.0329594387</v>
+        <v>616654.1799084519</v>
       </c>
       <c r="M2" t="n">
-        <v>614817.0329594387</v>
+        <v>616654.1799084519</v>
       </c>
       <c r="N2" t="n">
-        <v>614817.0329594386</v>
+        <v>616654.1799084516</v>
       </c>
       <c r="O2" t="n">
-        <v>517613.2725606834</v>
+        <v>290634.3211418996</v>
       </c>
       <c r="P2" t="n">
-        <v>271113.3682374433</v>
+        <v>253910.1938490401</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>533273.356723589</v>
+        <v>525555.2101986891</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>31703.77051492277</v>
+        <v>106333.9395846549</v>
       </c>
       <c r="K3" t="n">
-        <v>80397.88138396633</v>
+        <v>11977.86278305913</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="C4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="D4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="E4" t="n">
-        <v>231470.6796882289</v>
+        <v>276476.7642440408</v>
       </c>
       <c r="F4" t="n">
-        <v>231470.6796882289</v>
+        <v>276476.7642440408</v>
       </c>
       <c r="G4" t="n">
-        <v>231470.679688229</v>
+        <v>276476.7642440408</v>
       </c>
       <c r="H4" t="n">
-        <v>231470.6796882289</v>
+        <v>276476.7642440408</v>
       </c>
       <c r="I4" t="n">
-        <v>231470.679688229</v>
+        <v>276476.7642440407</v>
       </c>
       <c r="J4" t="n">
-        <v>63406.52120803041</v>
+        <v>212664.4587032417</v>
       </c>
       <c r="K4" t="n">
-        <v>224199.6978005023</v>
+        <v>236619.7989749434</v>
       </c>
       <c r="L4" t="n">
-        <v>224199.6978005023</v>
+        <v>236619.7989749434</v>
       </c>
       <c r="M4" t="n">
-        <v>224199.6978005023</v>
+        <v>236619.7989749434</v>
       </c>
       <c r="N4" t="n">
-        <v>224199.6978005023</v>
+        <v>236619.7989749434</v>
       </c>
       <c r="O4" t="n">
-        <v>160793.1765924717</v>
+        <v>23955.34027170165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>23492.05513703324</v>
+        <v>25036.80452378746</v>
       </c>
       <c r="F5" t="n">
-        <v>23492.05513703324</v>
+        <v>25036.80452378746</v>
       </c>
       <c r="G5" t="n">
-        <v>23492.05513703324</v>
+        <v>25036.80452378746</v>
       </c>
       <c r="H5" t="n">
-        <v>23492.05513703324</v>
+        <v>25036.80452378746</v>
       </c>
       <c r="I5" t="n">
-        <v>23492.05513703324</v>
+        <v>25036.80452378746</v>
       </c>
       <c r="J5" t="n">
-        <v>14661.29701956696</v>
+        <v>21683.85264966706</v>
       </c>
       <c r="K5" t="n">
-        <v>23110.0088821528</v>
+        <v>22942.56133255331</v>
       </c>
       <c r="L5" t="n">
-        <v>23110.0088821528</v>
+        <v>22942.56133255331</v>
       </c>
       <c r="M5" t="n">
-        <v>23110.0088821528</v>
+        <v>22942.56133255331</v>
       </c>
       <c r="N5" t="n">
-        <v>23110.0088821528</v>
+        <v>22942.56133255331</v>
       </c>
       <c r="O5" t="n">
-        <v>19778.37852787899</v>
+        <v>11768.32637387537</v>
       </c>
       <c r="P5" t="n">
-        <v>11329.66666529316</v>
+        <v>10509.61769098912</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>269689.9601796371</v>
+        <v>269637.2211194446</v>
       </c>
       <c r="C6" t="n">
-        <v>269689.9601796371</v>
+        <v>269637.2211194446</v>
       </c>
       <c r="D6" t="n">
-        <v>269689.9601796371</v>
+        <v>269637.2211194444</v>
       </c>
       <c r="E6" t="n">
-        <v>-162272.4640781099</v>
+        <v>-154925.9545807616</v>
       </c>
       <c r="F6" t="n">
-        <v>371000.8926454791</v>
+        <v>370629.2556179272</v>
       </c>
       <c r="G6" t="n">
-        <v>371000.8926454791</v>
+        <v>370629.2556179274</v>
       </c>
       <c r="H6" t="n">
-        <v>371000.892645479</v>
+        <v>370629.2556179272</v>
       </c>
       <c r="I6" t="n">
-        <v>371000.8926454792</v>
+        <v>370629.2556179272</v>
       </c>
       <c r="J6" t="n">
-        <v>258545.5398936766</v>
+        <v>230839.7117253108</v>
       </c>
       <c r="K6" t="n">
-        <v>287109.4448928174</v>
+        <v>337755.1276449743</v>
       </c>
       <c r="L6" t="n">
-        <v>367507.3262767837</v>
+        <v>349732.9904280334</v>
       </c>
       <c r="M6" t="n">
-        <v>367507.3262767837</v>
+        <v>349732.9904280334</v>
       </c>
       <c r="N6" t="n">
-        <v>367507.3262767835</v>
+        <v>349732.9904280332</v>
       </c>
       <c r="O6" t="n">
-        <v>337041.7174403328</v>
+        <v>238236.9722157852</v>
       </c>
       <c r="P6" t="n">
-        <v>259783.7015721502</v>
+        <v>225677.6330977175</v>
       </c>
     </row>
   </sheetData>
@@ -26694,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="F2" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="G2" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="H2" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="I2" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="J2" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="K2" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="L2" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="M2" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="N2" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="O2" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>519.7094800593193</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="F3" t="n">
-        <v>519.7094800593193</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="G3" t="n">
-        <v>519.7094800593193</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="H3" t="n">
-        <v>519.7094800593193</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="I3" t="n">
-        <v>519.7094800593193</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="J3" t="n">
-        <v>519.7094800593193</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="K3" t="n">
-        <v>519.7094800593193</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="L3" t="n">
-        <v>519.7094800593193</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="M3" t="n">
-        <v>519.7094800593193</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="N3" t="n">
-        <v>519.7094800593193</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="O3" t="n">
-        <v>519.7094800593193</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="P3" t="n">
-        <v>519.7094800593193</v>
+        <v>482.0925546325286</v>
       </c>
     </row>
     <row r="4">
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="K2" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>519.7094800593193</v>
+        <v>482.0925546325286</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="P2" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
     </row>
     <row r="3">
@@ -28089,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="C11" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="D11" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="E11" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="F11" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="G11" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="H11" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="I11" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="J11" t="n">
-        <v>116.87419793854</v>
+        <v>129.7091307001162</v>
       </c>
       <c r="K11" t="n">
-        <v>91.88120483615114</v>
+        <v>111.1174419326663</v>
       </c>
       <c r="L11" t="n">
-        <v>53.41568553442607</v>
+        <v>77.27993863709253</v>
       </c>
       <c r="M11" t="n">
-        <v>7.452579786414901</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>26.98324440689782</v>
       </c>
       <c r="O11" t="n">
-        <v>21.88868639101628</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P11" t="n">
-        <v>75.31191812490522</v>
+        <v>97.0580925873345</v>
       </c>
       <c r="Q11" t="n">
-        <v>135.6275415645501</v>
+        <v>151.9580129441795</v>
       </c>
       <c r="R11" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="S11" t="n">
-        <v>144.6715016443623</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="T11" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="U11" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="V11" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="W11" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="X11" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="Y11" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
     </row>
     <row r="12">
@@ -28168,34 +28168,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="C12" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="D12" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="E12" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="F12" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="G12" t="n">
-        <v>144.6715016443646</v>
+        <v>169.3142373206618</v>
       </c>
       <c r="H12" t="n">
-        <v>144.6715016443646</v>
+        <v>146.5438714795426</v>
       </c>
       <c r="I12" t="n">
-        <v>123.2359484578712</v>
+        <v>126.0217301993835</v>
       </c>
       <c r="J12" t="n">
-        <v>100.4973517299579</v>
+        <v>108.1417497546608</v>
       </c>
       <c r="K12" t="n">
-        <v>43.48154656593752</v>
+        <v>56.54704037195782</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -28210,34 +28210,34 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>4.245097493356042</v>
+        <v>19.69571729742788</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.77581017613943</v>
+        <v>95.10414034237826</v>
       </c>
       <c r="R12" t="n">
-        <v>144.6715016443646</v>
+        <v>172.3470976831577</v>
       </c>
       <c r="S12" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="T12" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="U12" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="V12" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="W12" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="X12" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="Y12" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
     </row>
     <row r="13">
@@ -28247,10 +28247,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="C13" t="n">
-        <v>144.6715016443646</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D13" t="n">
         <v>138.8631356105373</v>
@@ -28262,61 +28262,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>144.6715016443646</v>
+        <v>169.6563928375612</v>
       </c>
       <c r="H13" t="n">
-        <v>144.6715016443646</v>
+        <v>169.3253977831214</v>
       </c>
       <c r="I13" t="n">
-        <v>144.6715016443646</v>
+        <v>171.6050360306021</v>
       </c>
       <c r="J13" t="n">
-        <v>140.1088610452264</v>
+        <v>144.9047107016879</v>
       </c>
       <c r="K13" t="n">
-        <v>100.7631485409216</v>
+        <v>108.6442027532886</v>
       </c>
       <c r="L13" t="n">
-        <v>79.85433933586287</v>
+        <v>89.93937537569462</v>
       </c>
       <c r="M13" t="n">
-        <v>78.84701260891001</v>
+        <v>89.48026908651906</v>
       </c>
       <c r="N13" t="n">
-        <v>64.0747527422576</v>
+        <v>74.45517414732592</v>
       </c>
       <c r="O13" t="n">
-        <v>92.52559636191177</v>
+        <v>102.113595649383</v>
       </c>
       <c r="P13" t="n">
-        <v>110.4602209616816</v>
+        <v>118.6644107301737</v>
       </c>
       <c r="Q13" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="R13" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="S13" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="T13" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="U13" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="V13" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="W13" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="X13" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="Y13" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
     </row>
     <row r="14">
@@ -28326,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="C14" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="D14" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="E14" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="F14" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="G14" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="H14" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="I14" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="J14" t="n">
-        <v>116.87419793854</v>
+        <v>129.7091307001173</v>
       </c>
       <c r="K14" t="n">
-        <v>91.88120483615114</v>
+        <v>111.1174419326663</v>
       </c>
       <c r="L14" t="n">
-        <v>53.41568553442607</v>
+        <v>77.27993863709253</v>
       </c>
       <c r="M14" t="n">
-        <v>7.452579786414901</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>26.98324440689782</v>
       </c>
       <c r="O14" t="n">
-        <v>21.88868639101628</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P14" t="n">
-        <v>75.31191812490522</v>
+        <v>97.0580925873345</v>
       </c>
       <c r="Q14" t="n">
-        <v>135.6275415645501</v>
+        <v>151.9580129441776</v>
       </c>
       <c r="R14" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="S14" t="n">
-        <v>144.6715016443623</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="T14" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="U14" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="V14" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="W14" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="X14" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="Y14" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
     </row>
     <row r="15">
@@ -28405,34 +28405,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="C15" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="D15" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="E15" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="F15" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="G15" t="n">
-        <v>144.6715016443646</v>
+        <v>169.3142373206618</v>
       </c>
       <c r="H15" t="n">
-        <v>144.6715016443646</v>
+        <v>146.5438714795426</v>
       </c>
       <c r="I15" t="n">
-        <v>123.2359484578712</v>
+        <v>126.0217301993835</v>
       </c>
       <c r="J15" t="n">
-        <v>100.4973517299579</v>
+        <v>108.1417497546608</v>
       </c>
       <c r="K15" t="n">
-        <v>43.48154656593752</v>
+        <v>56.54704037195782</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -28447,34 +28447,34 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>4.245097493356042</v>
+        <v>19.69571729742788</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.77581017613943</v>
+        <v>95.10414034237826</v>
       </c>
       <c r="R15" t="n">
-        <v>144.6715016443646</v>
+        <v>172.3470976831577</v>
       </c>
       <c r="S15" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="T15" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="U15" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="V15" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="W15" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="X15" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="Y15" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
     </row>
     <row r="16">
@@ -28484,10 +28484,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="C16" t="n">
-        <v>144.6715016443646</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D16" t="n">
         <v>138.8631356105373</v>
@@ -28499,61 +28499,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>144.6715016443646</v>
+        <v>169.6563928375612</v>
       </c>
       <c r="H16" t="n">
-        <v>144.6715016443646</v>
+        <v>169.3253977831214</v>
       </c>
       <c r="I16" t="n">
-        <v>144.6715016443646</v>
+        <v>171.6050360306021</v>
       </c>
       <c r="J16" t="n">
-        <v>140.1088610452264</v>
+        <v>144.9047107016879</v>
       </c>
       <c r="K16" t="n">
-        <v>100.7631485409216</v>
+        <v>108.6442027532886</v>
       </c>
       <c r="L16" t="n">
-        <v>79.85433933586287</v>
+        <v>89.93937537569462</v>
       </c>
       <c r="M16" t="n">
-        <v>78.84701260891001</v>
+        <v>89.48026908651906</v>
       </c>
       <c r="N16" t="n">
-        <v>64.0747527422576</v>
+        <v>74.45517414732592</v>
       </c>
       <c r="O16" t="n">
-        <v>92.52559636191177</v>
+        <v>102.113595649383</v>
       </c>
       <c r="P16" t="n">
-        <v>110.4602209616816</v>
+        <v>118.6644107301737</v>
       </c>
       <c r="Q16" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="R16" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="S16" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="T16" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="U16" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="V16" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="W16" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="X16" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="Y16" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
     </row>
     <row r="17">
@@ -28563,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="C17" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="D17" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="E17" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="F17" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="G17" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="H17" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="I17" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="J17" t="n">
-        <v>116.87419793854</v>
+        <v>129.7091307001162</v>
       </c>
       <c r="K17" t="n">
-        <v>91.88120483615114</v>
+        <v>111.1174419326663</v>
       </c>
       <c r="L17" t="n">
-        <v>53.41568553442607</v>
+        <v>77.27993863709253</v>
       </c>
       <c r="M17" t="n">
-        <v>7.452579786414901</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>26.98324440689782</v>
       </c>
       <c r="O17" t="n">
-        <v>21.88868639101628</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P17" t="n">
-        <v>75.31191812490522</v>
+        <v>97.0580925873345</v>
       </c>
       <c r="Q17" t="n">
-        <v>135.6275415645501</v>
+        <v>151.9580129441776</v>
       </c>
       <c r="R17" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="S17" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="T17" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="U17" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="V17" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="W17" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="X17" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="Y17" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
     </row>
     <row r="18">
@@ -28642,34 +28642,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="C18" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="D18" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="E18" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="F18" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="G18" t="n">
-        <v>144.6715016443646</v>
+        <v>169.3142373206618</v>
       </c>
       <c r="H18" t="n">
-        <v>144.6715016443646</v>
+        <v>146.5438714795426</v>
       </c>
       <c r="I18" t="n">
-        <v>123.2359484578712</v>
+        <v>126.0217301993835</v>
       </c>
       <c r="J18" t="n">
-        <v>100.4973517299579</v>
+        <v>108.1417497546608</v>
       </c>
       <c r="K18" t="n">
-        <v>43.48154656593752</v>
+        <v>56.54704037195782</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -28684,34 +28684,34 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>4.245097493356042</v>
+        <v>19.69571729742788</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.77581017613943</v>
+        <v>95.10414034237826</v>
       </c>
       <c r="R18" t="n">
-        <v>144.6715016443646</v>
+        <v>172.3470976831577</v>
       </c>
       <c r="S18" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="T18" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="U18" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="V18" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="W18" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="X18" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="Y18" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
     </row>
     <row r="19">
@@ -28721,10 +28721,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="C19" t="n">
-        <v>144.6715016443646</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D19" t="n">
         <v>138.8631356105373</v>
@@ -28736,61 +28736,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>144.6715016443646</v>
+        <v>169.6563928375612</v>
       </c>
       <c r="H19" t="n">
-        <v>144.6715016443646</v>
+        <v>169.3253977831214</v>
       </c>
       <c r="I19" t="n">
-        <v>144.6715016443646</v>
+        <v>171.6050360306052</v>
       </c>
       <c r="J19" t="n">
-        <v>140.1088610452264</v>
+        <v>144.9047107016879</v>
       </c>
       <c r="K19" t="n">
-        <v>100.7631485409216</v>
+        <v>108.6442027532886</v>
       </c>
       <c r="L19" t="n">
-        <v>79.85433933586287</v>
+        <v>89.93937537569462</v>
       </c>
       <c r="M19" t="n">
-        <v>78.84701260891001</v>
+        <v>89.48026908651906</v>
       </c>
       <c r="N19" t="n">
-        <v>64.0747527422576</v>
+        <v>74.45517414732592</v>
       </c>
       <c r="O19" t="n">
-        <v>92.52559636190684</v>
+        <v>102.113595649383</v>
       </c>
       <c r="P19" t="n">
-        <v>110.4602209616816</v>
+        <v>118.6644107301737</v>
       </c>
       <c r="Q19" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="R19" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="S19" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="T19" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="U19" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="V19" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="W19" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="X19" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
     </row>
     <row r="20">
@@ -28800,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="C20" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="D20" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="E20" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="F20" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="G20" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="H20" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="I20" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="J20" t="n">
-        <v>116.87419793854</v>
+        <v>129.7091307001162</v>
       </c>
       <c r="K20" t="n">
-        <v>91.88120483615114</v>
+        <v>111.1174419326663</v>
       </c>
       <c r="L20" t="n">
-        <v>53.4156855344242</v>
+        <v>77.27993863709253</v>
       </c>
       <c r="M20" t="n">
-        <v>7.452579786414901</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>26.98324440689782</v>
       </c>
       <c r="O20" t="n">
-        <v>21.88868639101628</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P20" t="n">
-        <v>75.31191812490522</v>
+        <v>97.0580925873345</v>
       </c>
       <c r="Q20" t="n">
-        <v>135.6275415645501</v>
+        <v>151.9580129441776</v>
       </c>
       <c r="R20" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="S20" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="T20" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="U20" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="V20" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="W20" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="X20" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="Y20" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
     </row>
     <row r="21">
@@ -28879,34 +28879,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="C21" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="D21" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="E21" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="F21" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="G21" t="n">
-        <v>144.6715016443646</v>
+        <v>169.3142373206618</v>
       </c>
       <c r="H21" t="n">
-        <v>144.6715016443646</v>
+        <v>146.5438714795426</v>
       </c>
       <c r="I21" t="n">
-        <v>123.2359484578712</v>
+        <v>126.0217301993835</v>
       </c>
       <c r="J21" t="n">
-        <v>100.4973517299579</v>
+        <v>108.1417497546608</v>
       </c>
       <c r="K21" t="n">
-        <v>43.48154656593752</v>
+        <v>56.54704037195782</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -28921,34 +28921,34 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>4.245097493356042</v>
+        <v>19.69571729742788</v>
       </c>
       <c r="Q21" t="n">
-        <v>84.77581017613943</v>
+        <v>95.10414034237826</v>
       </c>
       <c r="R21" t="n">
-        <v>144.6715016443646</v>
+        <v>172.3470976831577</v>
       </c>
       <c r="S21" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="T21" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="U21" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="V21" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="W21" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="X21" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="Y21" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
     </row>
     <row r="22">
@@ -28958,10 +28958,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="C22" t="n">
-        <v>144.6715016443646</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D22" t="n">
         <v>138.8631356105373</v>
@@ -28973,61 +28973,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>144.6715016443646</v>
+        <v>169.6563928375612</v>
       </c>
       <c r="H22" t="n">
-        <v>144.6715016443646</v>
+        <v>169.3253977831214</v>
       </c>
       <c r="I22" t="n">
-        <v>144.6715016443646</v>
+        <v>171.6050360306021</v>
       </c>
       <c r="J22" t="n">
-        <v>140.1088610452264</v>
+        <v>144.9047107016879</v>
       </c>
       <c r="K22" t="n">
-        <v>100.7631485409216</v>
+        <v>108.6442027532918</v>
       </c>
       <c r="L22" t="n">
-        <v>79.85433933586287</v>
+        <v>89.93937537569462</v>
       </c>
       <c r="M22" t="n">
-        <v>78.84701260891001</v>
+        <v>89.48026908651906</v>
       </c>
       <c r="N22" t="n">
-        <v>64.0747527422576</v>
+        <v>74.45517414732592</v>
       </c>
       <c r="O22" t="n">
-        <v>92.52559636191177</v>
+        <v>102.113595649383</v>
       </c>
       <c r="P22" t="n">
-        <v>110.4602209616816</v>
+        <v>118.6644107301737</v>
       </c>
       <c r="Q22" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="R22" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="S22" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="T22" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="U22" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="V22" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="W22" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="X22" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6715016443646</v>
+        <v>172.8007569115647</v>
       </c>
     </row>
     <row r="23">
@@ -29037,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="C23" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="D23" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="E23" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="F23" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="G23" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="H23" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="I23" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="J23" t="n">
-        <v>116.87419793854</v>
+        <v>129.7091307001162</v>
       </c>
       <c r="K23" t="n">
-        <v>91.88120483615114</v>
+        <v>111.1174419326663</v>
       </c>
       <c r="L23" t="n">
-        <v>53.41568553442607</v>
+        <v>77.27993863709253</v>
       </c>
       <c r="M23" t="n">
-        <v>7.452579786414901</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>26.98324440689782</v>
       </c>
       <c r="O23" t="n">
-        <v>21.88868639101628</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P23" t="n">
-        <v>75.31191812490522</v>
+        <v>97.0580925873345</v>
       </c>
       <c r="Q23" t="n">
-        <v>135.6275415645501</v>
+        <v>151.9580129441776</v>
       </c>
       <c r="R23" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="S23" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="T23" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="U23" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="V23" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="W23" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="X23" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="Y23" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
     </row>
     <row r="24">
@@ -29116,34 +29116,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="C24" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="D24" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="E24" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="F24" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="G24" t="n">
-        <v>144.6715016443645</v>
+        <v>169.3142373206618</v>
       </c>
       <c r="H24" t="n">
-        <v>144.6715016443645</v>
+        <v>146.5438714795426</v>
       </c>
       <c r="I24" t="n">
-        <v>123.2359484578712</v>
+        <v>126.0217301993835</v>
       </c>
       <c r="J24" t="n">
-        <v>100.4973517299579</v>
+        <v>108.1417497546608</v>
       </c>
       <c r="K24" t="n">
-        <v>43.48154656593752</v>
+        <v>56.54704037195782</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -29158,34 +29158,34 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>4.245097493356042</v>
+        <v>19.69571729742788</v>
       </c>
       <c r="Q24" t="n">
-        <v>84.77581017613943</v>
+        <v>95.10414034237826</v>
       </c>
       <c r="R24" t="n">
-        <v>144.6715016443645</v>
+        <v>172.3470976831577</v>
       </c>
       <c r="S24" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="T24" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="U24" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="V24" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="W24" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="X24" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="Y24" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
     </row>
     <row r="25">
@@ -29195,10 +29195,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="C25" t="n">
-        <v>144.6715016443645</v>
+        <v>165.0035252842657</v>
       </c>
       <c r="D25" t="n">
         <v>138.8631356105373</v>
@@ -29210,61 +29210,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>144.6715016443645</v>
+        <v>169.6563928375612</v>
       </c>
       <c r="H25" t="n">
-        <v>144.6715016443645</v>
+        <v>169.3253977831214</v>
       </c>
       <c r="I25" t="n">
-        <v>144.6715016443645</v>
+        <v>171.6050360306021</v>
       </c>
       <c r="J25" t="n">
-        <v>140.1088610452264</v>
+        <v>144.9047107016879</v>
       </c>
       <c r="K25" t="n">
-        <v>100.7631485409216</v>
+        <v>108.6442027532886</v>
       </c>
       <c r="L25" t="n">
-        <v>79.85433933586287</v>
+        <v>89.93937537569462</v>
       </c>
       <c r="M25" t="n">
-        <v>78.84701260891001</v>
+        <v>89.48026908651906</v>
       </c>
       <c r="N25" t="n">
-        <v>64.0747527422576</v>
+        <v>74.45517414732592</v>
       </c>
       <c r="O25" t="n">
-        <v>92.52559636191177</v>
+        <v>102.113595649383</v>
       </c>
       <c r="P25" t="n">
-        <v>110.4602209616816</v>
+        <v>118.6644107301737</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="R25" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="S25" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="T25" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="U25" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="V25" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="W25" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="X25" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6715016443645</v>
+        <v>172.8007569115647</v>
       </c>
     </row>
     <row r="26">
@@ -29274,76 +29274,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="C26" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="D26" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="E26" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F26" t="n">
-        <v>16.66106415515078</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="G26" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="H26" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="J26" t="n">
-        <v>39.62971314365346</v>
+        <v>129.7091307001162</v>
       </c>
       <c r="K26" t="n">
-        <v>39.62971314365346</v>
+        <v>111.1174419326663</v>
       </c>
       <c r="L26" t="n">
-        <v>39.62971314365346</v>
+        <v>77.27993863709253</v>
       </c>
       <c r="M26" t="n">
-        <v>7.452579786414901</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>26.98324440689782</v>
       </c>
       <c r="O26" t="n">
-        <v>21.88868639101628</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P26" t="n">
-        <v>39.62971314365346</v>
+        <v>97.0580925873345</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="R26" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="S26" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="T26" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="U26" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="V26" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="W26" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="X26" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>132.9174244808186</v>
       </c>
     </row>
     <row r="27">
@@ -29353,34 +29353,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="C27" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="D27" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="E27" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F27" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="G27" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="H27" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="I27" t="n">
-        <v>39.62971314365346</v>
+        <v>126.0217301993835</v>
       </c>
       <c r="J27" t="n">
-        <v>39.62971314365346</v>
+        <v>108.1417497546608</v>
       </c>
       <c r="K27" t="n">
-        <v>39.62971314365346</v>
+        <v>56.54704037195782</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -29395,34 +29395,34 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>19.69571729742788</v>
       </c>
       <c r="Q27" t="n">
-        <v>39.62971314365346</v>
+        <v>95.10414034237826</v>
       </c>
       <c r="R27" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="S27" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="T27" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="U27" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="V27" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="W27" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="X27" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="Y27" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="C28" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="D28" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="E28" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="F28" t="n">
-        <v>39.62971314365346</v>
+        <v>126.9717133511</v>
       </c>
       <c r="G28" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="H28" t="n">
-        <v>39.62971314365346</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="J28" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="K28" t="n">
-        <v>39.62971314365346</v>
+        <v>108.6442027532886</v>
       </c>
       <c r="L28" t="n">
-        <v>39.62971314365346</v>
+        <v>89.93937537569462</v>
       </c>
       <c r="M28" t="n">
-        <v>39.62971314365346</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>39.62971314365346</v>
+        <v>74.45517414732592</v>
       </c>
       <c r="O28" t="n">
-        <v>39.62971314365346</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>118.6644107301737</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.62971314365346</v>
+        <v>74.59911467914377</v>
       </c>
       <c r="R28" t="n">
-        <v>39.62971314365346</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>39.62971314365346</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="U28" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="V28" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="W28" t="n">
-        <v>39.62971314365346</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>39.62971314365346</v>
+        <v>132.9174244808186</v>
       </c>
       <c r="Y28" t="n">
-        <v>39.62971314365346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29511,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="C29" t="n">
-        <v>108.2931711126583</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="D29" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="E29" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="F29" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="G29" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="H29" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="I29" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="J29" t="n">
-        <v>116.87419793854</v>
+        <v>129.7091307001162</v>
       </c>
       <c r="K29" t="n">
-        <v>91.8812048361512</v>
+        <v>111.1174419326662</v>
       </c>
       <c r="L29" t="n">
-        <v>53.41568553442607</v>
+        <v>77.27993863709247</v>
       </c>
       <c r="M29" t="n">
-        <v>7.452579786414901</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>26.98324440689777</v>
       </c>
       <c r="O29" t="n">
-        <v>21.88868639101628</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P29" t="n">
-        <v>75.31191812490522</v>
+        <v>97.0580925873345</v>
       </c>
       <c r="Q29" t="n">
-        <v>135.6275415645501</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="R29" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="S29" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="T29" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="U29" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="V29" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="W29" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="X29" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="Y29" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
     </row>
     <row r="30">
@@ -29590,34 +29590,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="C30" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="D30" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="E30" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="F30" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="G30" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="H30" t="n">
-        <v>140.1270648736114</v>
+        <v>146.5438714795426</v>
       </c>
       <c r="I30" t="n">
-        <v>123.2359484578712</v>
+        <v>126.0217301993835</v>
       </c>
       <c r="J30" t="n">
-        <v>100.4973517299579</v>
+        <v>108.1417497546608</v>
       </c>
       <c r="K30" t="n">
-        <v>43.48154656593752</v>
+        <v>56.54704037195782</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -29632,34 +29632,34 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>4.245097493356042</v>
+        <v>19.69571729742785</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.77581017613943</v>
+        <v>95.10414034237826</v>
       </c>
       <c r="R30" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="S30" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="T30" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="U30" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="V30" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="W30" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="X30" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="Y30" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
     </row>
     <row r="31">
@@ -29669,10 +29669,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="C31" t="n">
-        <v>140.1270648736114</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>138.8631356105373</v>
@@ -29681,64 +29681,64 @@
         <v>132.9174244808186</v>
       </c>
       <c r="F31" t="n">
-        <v>126.9717133511</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="H31" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="I31" t="n">
-        <v>140.1270648736114</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>140.1088610452264</v>
+        <v>144.9047107016879</v>
       </c>
       <c r="K31" t="n">
-        <v>100.7631485409216</v>
+        <v>108.6442027532886</v>
       </c>
       <c r="L31" t="n">
-        <v>79.8543393358629</v>
+        <v>28.72465279822069</v>
       </c>
       <c r="M31" t="n">
-        <v>78.84701260891001</v>
+        <v>89.48026908651903</v>
       </c>
       <c r="N31" t="n">
-        <v>64.0747527422576</v>
+        <v>74.45517414732592</v>
       </c>
       <c r="O31" t="n">
-        <v>92.52559636191177</v>
+        <v>102.1135956493829</v>
       </c>
       <c r="P31" t="n">
-        <v>110.4602209616816</v>
+        <v>118.6644107301737</v>
       </c>
       <c r="Q31" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="R31" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="S31" t="n">
-        <v>140.1270648736114</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="U31" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="V31" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="W31" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="X31" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="Y31" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
     </row>
     <row r="32">
@@ -29748,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="C32" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="D32" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="E32" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="F32" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="G32" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="H32" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="I32" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="J32" t="n">
-        <v>116.87419793854</v>
+        <v>129.7091307001162</v>
       </c>
       <c r="K32" t="n">
-        <v>91.88120483615114</v>
+        <v>111.1174419326663</v>
       </c>
       <c r="L32" t="n">
-        <v>21.58179177347258</v>
+        <v>77.27993863709253</v>
       </c>
       <c r="M32" t="n">
-        <v>7.452579786414901</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>26.98324440689782</v>
       </c>
       <c r="O32" t="n">
-        <v>21.88868639101628</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P32" t="n">
-        <v>75.31191812490522</v>
+        <v>97.0580925873345</v>
       </c>
       <c r="Q32" t="n">
-        <v>135.6275415645501</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="R32" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="S32" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="T32" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="U32" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="V32" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="W32" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="X32" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="Y32" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
     </row>
     <row r="33">
@@ -29827,34 +29827,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="C33" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="D33" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="E33" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="F33" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="G33" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="H33" t="n">
-        <v>140.1270648736114</v>
+        <v>146.5438714795426</v>
       </c>
       <c r="I33" t="n">
-        <v>123.2359484578712</v>
+        <v>126.0217301993835</v>
       </c>
       <c r="J33" t="n">
-        <v>100.4973517299579</v>
+        <v>108.1417497546608</v>
       </c>
       <c r="K33" t="n">
-        <v>43.48154656593752</v>
+        <v>56.54704037195782</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -29869,34 +29869,34 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>4.245097493356042</v>
+        <v>19.69571729742788</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.77581017613943</v>
+        <v>95.10414034237826</v>
       </c>
       <c r="R33" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="S33" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="T33" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="U33" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="V33" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="W33" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="X33" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="Y33" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
     </row>
     <row r="34">
@@ -29906,10 +29906,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="C34" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="D34" t="n">
         <v>138.8631356105373</v>
@@ -29921,61 +29921,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G34" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="H34" t="n">
-        <v>140.1270648736114</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="J34" t="n">
-        <v>140.1088610452264</v>
+        <v>144.9047107016879</v>
       </c>
       <c r="K34" t="n">
-        <v>100.7631485409216</v>
+        <v>108.6442027532886</v>
       </c>
       <c r="L34" t="n">
-        <v>79.85433933586287</v>
+        <v>49.64269240676179</v>
       </c>
       <c r="M34" t="n">
-        <v>78.84701260891001</v>
+        <v>89.48026908651906</v>
       </c>
       <c r="N34" t="n">
-        <v>64.0747527422576</v>
+        <v>74.45517414732592</v>
       </c>
       <c r="O34" t="n">
-        <v>92.52559636191177</v>
+        <v>102.113595649383</v>
       </c>
       <c r="P34" t="n">
-        <v>110.4602209616816</v>
+        <v>118.6644107301737</v>
       </c>
       <c r="Q34" t="n">
-        <v>140.1270648736114</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="S34" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="T34" t="n">
-        <v>140.1270648736114</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="V34" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="W34" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="X34" t="n">
-        <v>140.1270648736114</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
     </row>
     <row r="35">
@@ -29985,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="C35" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="D35" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="E35" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="F35" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="G35" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="H35" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="I35" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="J35" t="n">
-        <v>116.87419793854</v>
+        <v>129.7091307001162</v>
       </c>
       <c r="K35" t="n">
-        <v>91.88120483615114</v>
+        <v>111.1174419326663</v>
       </c>
       <c r="L35" t="n">
-        <v>53.41568553442607</v>
+        <v>77.27993863709253</v>
       </c>
       <c r="M35" t="n">
-        <v>7.452579786414901</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>26.98324440689782</v>
       </c>
       <c r="O35" t="n">
-        <v>21.88868639101628</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P35" t="n">
-        <v>75.31191812490522</v>
+        <v>97.0580925873345</v>
       </c>
       <c r="Q35" t="n">
-        <v>135.6275415645501</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="R35" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="S35" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="T35" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="U35" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="V35" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="W35" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="X35" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="Y35" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
     </row>
     <row r="36">
@@ -30064,34 +30064,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="C36" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="D36" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="E36" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="F36" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="G36" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="H36" t="n">
-        <v>140.1270648736114</v>
+        <v>146.5438714795426</v>
       </c>
       <c r="I36" t="n">
-        <v>123.2359484578712</v>
+        <v>126.0217301993835</v>
       </c>
       <c r="J36" t="n">
-        <v>100.4973517299579</v>
+        <v>108.1417497546608</v>
       </c>
       <c r="K36" t="n">
-        <v>43.48154656593752</v>
+        <v>56.54704037195782</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -30106,34 +30106,34 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>4.245097493356042</v>
+        <v>19.69571729742788</v>
       </c>
       <c r="Q36" t="n">
-        <v>84.77581017613943</v>
+        <v>95.10414034237826</v>
       </c>
       <c r="R36" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="S36" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="T36" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="U36" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="V36" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="W36" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="X36" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="Y36" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
     </row>
     <row r="37">
@@ -30143,10 +30143,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="C37" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="D37" t="n">
         <v>138.8631356105373</v>
@@ -30158,61 +30158,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G37" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="H37" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="I37" t="n">
-        <v>140.1270648736114</v>
+        <v>19.91222537070577</v>
       </c>
       <c r="J37" t="n">
-        <v>140.1088610452264</v>
+        <v>144.9047107016879</v>
       </c>
       <c r="K37" t="n">
-        <v>100.7631485409216</v>
+        <v>108.6442027532886</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>78.84701260891001</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>38.3466777709591</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>92.52559636191177</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>110.4602209616816</v>
+        <v>118.6644107301737</v>
       </c>
       <c r="Q37" t="n">
-        <v>140.1270648736114</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="S37" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="T37" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="U37" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="V37" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="W37" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="X37" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
     </row>
     <row r="38">
@@ -30222,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="C38" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="D38" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="E38" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="F38" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="G38" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="H38" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="I38" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="J38" t="n">
-        <v>116.87419793854</v>
+        <v>129.7091307001162</v>
       </c>
       <c r="K38" t="n">
-        <v>91.88120483615114</v>
+        <v>111.1174419326663</v>
       </c>
       <c r="L38" t="n">
-        <v>53.41568553442607</v>
+        <v>77.27993863709253</v>
       </c>
       <c r="M38" t="n">
-        <v>7.452579786414901</v>
+        <v>34.00615951243282</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>26.98324440689782</v>
       </c>
       <c r="O38" t="n">
-        <v>21.88868639101628</v>
+        <v>47.36819892972255</v>
       </c>
       <c r="P38" t="n">
-        <v>75.31191812490522</v>
+        <v>97.0580925873345</v>
       </c>
       <c r="Q38" t="n">
-        <v>135.6275415645501</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="R38" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="S38" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="T38" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="U38" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="V38" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="W38" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="X38" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="Y38" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
     </row>
     <row r="39">
@@ -30301,34 +30301,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="C39" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="D39" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="E39" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="F39" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="G39" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="H39" t="n">
-        <v>140.1270648736114</v>
+        <v>146.5438714795426</v>
       </c>
       <c r="I39" t="n">
-        <v>123.2359484578712</v>
+        <v>126.0217301993835</v>
       </c>
       <c r="J39" t="n">
-        <v>100.4973517299579</v>
+        <v>108.1417497546608</v>
       </c>
       <c r="K39" t="n">
-        <v>43.48154656593752</v>
+        <v>56.54704037195782</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -30343,34 +30343,34 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>4.245097493356042</v>
+        <v>19.69571729742788</v>
       </c>
       <c r="Q39" t="n">
-        <v>84.77581017613943</v>
+        <v>95.10414034237826</v>
       </c>
       <c r="R39" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="S39" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="T39" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="U39" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="V39" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="W39" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="X39" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="Y39" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
     </row>
     <row r="40">
@@ -30380,10 +30380,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="C40" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="D40" t="n">
         <v>138.8631356105373</v>
@@ -30395,61 +30395,61 @@
         <v>126.9717133511</v>
       </c>
       <c r="G40" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="H40" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="I40" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="J40" t="n">
-        <v>140.1088610452264</v>
+        <v>51.11621171871381</v>
       </c>
       <c r="K40" t="n">
-        <v>100.7631485409216</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>79.85433933586287</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>78.84701260891001</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>64.0747527422576</v>
+        <v>74.45517414732592</v>
       </c>
       <c r="O40" t="n">
-        <v>92.52559636191177</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>110.4602209616816</v>
+        <v>118.6644107301737</v>
       </c>
       <c r="Q40" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="R40" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="S40" t="n">
-        <v>140.1270648736114</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="U40" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="V40" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="W40" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="X40" t="n">
-        <v>34.54465056645028</v>
+        <v>147.8897529596425</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.1270648736114</v>
+        <v>147.8897529596425</v>
       </c>
     </row>
     <row r="41">
@@ -30459,76 +30459,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="D41" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="E41" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="F41" t="n">
-        <v>100.4973517299579</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="J41" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="K41" t="n">
-        <v>91.40580810360316</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="L41" t="n">
-        <v>53.41568553442607</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="M41" t="n">
-        <v>7.452579786414901</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="O41" t="n">
-        <v>21.88868639101628</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>75.31191812490522</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="Q41" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="R41" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="S41" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="T41" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="U41" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="V41" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="X41" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="Y41" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
     </row>
     <row r="42">
@@ -30538,34 +30538,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="C42" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="D42" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="E42" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="F42" t="n">
-        <v>100.4973517299579</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="I42" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="J42" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="K42" t="n">
-        <v>43.48154656593752</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -30580,34 +30580,34 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>4.245097493356042</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="Q42" t="n">
-        <v>84.77581017613943</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="R42" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="S42" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="T42" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="U42" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="V42" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="W42" t="n">
-        <v>100.4973517299579</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="Y42" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="C43" t="n">
-        <v>100.4973517299579</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>100.4973517299579</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>100.4973517299579</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>100.4973517299579</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>100.4973517299579</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="J43" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="K43" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="L43" t="n">
-        <v>79.85433933586287</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="M43" t="n">
-        <v>78.84701260891001</v>
+        <v>5.24031496758816</v>
       </c>
       <c r="N43" t="n">
-        <v>64.0747527422576</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="O43" t="n">
-        <v>92.52559636191177</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="P43" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="Q43" t="n">
-        <v>100.4973517299579</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="S43" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="T43" t="n">
-        <v>100.4973517299579</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="V43" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="W43" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="X43" t="n">
-        <v>100.4973517299579</v>
+        <v>14.97232847882391</v>
       </c>
       <c r="Y43" t="n">
-        <v>100.4973517299579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.08928434194701</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H11" t="n">
-        <v>21.39688326696483</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I11" t="n">
-        <v>80.5471345929122</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J11" t="n">
-        <v>177.3253969173253</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K11" t="n">
-        <v>265.7648031119423</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L11" t="n">
-        <v>329.7047387918032</v>
+        <v>305.8404856891367</v>
       </c>
       <c r="M11" t="n">
-        <v>366.8600492079033</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N11" t="n">
-        <v>372.7962283444602</v>
+        <v>345.8129839375624</v>
       </c>
       <c r="O11" t="n">
-        <v>352.0209071692246</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P11" t="n">
-        <v>300.4416999774078</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q11" t="n">
-        <v>225.6192044814304</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R11" t="n">
-        <v>131.241007544829</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S11" t="n">
-        <v>47.60956694211755</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T11" t="n">
-        <v>9.145842206873043</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.117865674089856</v>
+        <v>1.03695379675676</v>
       </c>
       <c r="H12" t="n">
-        <v>10.79622901028888</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I12" t="n">
-        <v>38.48791904212884</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J12" t="n">
-        <v>105.6137916033755</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K12" t="n">
-        <v>180.5107917673958</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L12" t="n">
         <v>225.1508671422956</v>
@@ -31858,22 +31858,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>213.4633145549306</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q12" t="n">
-        <v>142.6945727136456</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R12" t="n">
-        <v>69.40573018603516</v>
+        <v>64.38209625828375</v>
       </c>
       <c r="S12" t="n">
-        <v>20.76386460425675</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T12" t="n">
-        <v>4.505783133721833</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H13" t="n">
-        <v>8.332391336033025</v>
+        <v>7.729287187387102</v>
       </c>
       <c r="I13" t="n">
-        <v>28.18358950879063</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J13" t="n">
-        <v>66.25869879379222</v>
+        <v>61.46284913733072</v>
       </c>
       <c r="K13" t="n">
-        <v>108.8833959861983</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L13" t="n">
-        <v>139.3332596211493</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M13" t="n">
-        <v>146.9073863059482</v>
+        <v>136.2741298283391</v>
       </c>
       <c r="N13" t="n">
-        <v>143.4142570137463</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O13" t="n">
-        <v>132.4662786223328</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P13" t="n">
-        <v>113.3477856181833</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.47613148895721</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R13" t="n">
-        <v>42.13906702251462</v>
+        <v>39.0890127084014</v>
       </c>
       <c r="S13" t="n">
-        <v>16.33250939792975</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T13" t="n">
-        <v>4.004318944719344</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.08928434194701</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H14" t="n">
-        <v>21.39688326696483</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I14" t="n">
-        <v>80.5471345929122</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J14" t="n">
-        <v>177.3253969173253</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K14" t="n">
-        <v>265.7648031119423</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L14" t="n">
-        <v>329.7047387918032</v>
+        <v>305.8404856891367</v>
       </c>
       <c r="M14" t="n">
-        <v>366.8600492079033</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N14" t="n">
-        <v>372.7962283444602</v>
+        <v>345.8129839375624</v>
       </c>
       <c r="O14" t="n">
-        <v>352.0209071692246</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P14" t="n">
-        <v>300.4416999774078</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q14" t="n">
-        <v>225.6192044814304</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R14" t="n">
-        <v>131.241007544829</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S14" t="n">
-        <v>47.60956694211755</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T14" t="n">
-        <v>9.145842206873043</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.117865674089856</v>
+        <v>1.03695379675676</v>
       </c>
       <c r="H15" t="n">
-        <v>10.79622901028888</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I15" t="n">
-        <v>38.48791904212884</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J15" t="n">
-        <v>105.6137916033755</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K15" t="n">
-        <v>180.5107917673958</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L15" t="n">
         <v>225.1508671422956</v>
@@ -32095,22 +32095,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>213.4633145549306</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q15" t="n">
-        <v>142.6945727136456</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R15" t="n">
-        <v>69.40573018603516</v>
+        <v>64.38209625828375</v>
       </c>
       <c r="S15" t="n">
-        <v>20.76386460425675</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T15" t="n">
-        <v>4.505783133721833</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H16" t="n">
-        <v>8.332391336033025</v>
+        <v>7.729287187387102</v>
       </c>
       <c r="I16" t="n">
-        <v>28.18358950879063</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J16" t="n">
-        <v>66.25869879379222</v>
+        <v>61.46284913733072</v>
       </c>
       <c r="K16" t="n">
-        <v>108.8833959861983</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L16" t="n">
-        <v>139.3332596211493</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M16" t="n">
-        <v>146.9073863059482</v>
+        <v>136.2741298283391</v>
       </c>
       <c r="N16" t="n">
-        <v>143.4142570137463</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O16" t="n">
-        <v>132.4662786223328</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P16" t="n">
-        <v>113.3477856181833</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.47613148895721</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R16" t="n">
-        <v>42.13906702251462</v>
+        <v>39.0890127084014</v>
       </c>
       <c r="S16" t="n">
-        <v>16.33250939792975</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T16" t="n">
-        <v>4.004318944719344</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.08928434194701</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H17" t="n">
-        <v>21.39688326696483</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I17" t="n">
-        <v>80.5471345929122</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J17" t="n">
-        <v>177.3253969173253</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K17" t="n">
-        <v>265.7648031119423</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L17" t="n">
-        <v>329.7047387918032</v>
+        <v>305.8404856891367</v>
       </c>
       <c r="M17" t="n">
-        <v>366.8600492079033</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N17" t="n">
-        <v>372.7962283444602</v>
+        <v>345.8129839375624</v>
       </c>
       <c r="O17" t="n">
-        <v>352.0209071692246</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P17" t="n">
-        <v>300.4416999774078</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q17" t="n">
-        <v>225.6192044814304</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R17" t="n">
-        <v>131.241007544829</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S17" t="n">
-        <v>47.60956694211755</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T17" t="n">
-        <v>9.145842206873043</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.117865674089856</v>
+        <v>1.03695379675676</v>
       </c>
       <c r="H18" t="n">
-        <v>10.79622901028888</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I18" t="n">
-        <v>38.48791904212884</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J18" t="n">
-        <v>105.6137916033755</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K18" t="n">
-        <v>180.5107917673958</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L18" t="n">
         <v>225.1508671422956</v>
@@ -32332,22 +32332,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>213.4633145549306</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q18" t="n">
-        <v>142.6945727136456</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R18" t="n">
-        <v>69.40573018603516</v>
+        <v>64.38209625828375</v>
       </c>
       <c r="S18" t="n">
-        <v>20.76386460425675</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T18" t="n">
-        <v>4.505783133721833</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H19" t="n">
-        <v>8.332391336033025</v>
+        <v>7.729287187387102</v>
       </c>
       <c r="I19" t="n">
-        <v>28.18358950879063</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J19" t="n">
-        <v>66.25869879379222</v>
+        <v>61.46284913733072</v>
       </c>
       <c r="K19" t="n">
-        <v>108.8833959861983</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L19" t="n">
-        <v>139.3332596211493</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M19" t="n">
-        <v>146.9073863059482</v>
+        <v>136.2741298283391</v>
       </c>
       <c r="N19" t="n">
-        <v>143.4142570137463</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O19" t="n">
-        <v>132.4662786223328</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P19" t="n">
-        <v>113.3477856181833</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.47613148895721</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R19" t="n">
-        <v>42.13906702251462</v>
+        <v>39.0890127084014</v>
       </c>
       <c r="S19" t="n">
-        <v>16.33250939792975</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T19" t="n">
-        <v>4.004318944719344</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.08928434194701</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H20" t="n">
-        <v>21.39688326696483</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I20" t="n">
-        <v>80.5471345929122</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J20" t="n">
-        <v>177.3253969173253</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K20" t="n">
-        <v>265.7648031119423</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L20" t="n">
-        <v>329.7047387918032</v>
+        <v>305.8404856891367</v>
       </c>
       <c r="M20" t="n">
-        <v>366.8600492079033</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N20" t="n">
-        <v>372.7962283444602</v>
+        <v>345.8129839375624</v>
       </c>
       <c r="O20" t="n">
-        <v>352.0209071692246</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P20" t="n">
-        <v>300.4416999774078</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q20" t="n">
-        <v>225.6192044814304</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R20" t="n">
-        <v>131.241007544829</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S20" t="n">
-        <v>47.60956694211755</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T20" t="n">
-        <v>9.145842206873043</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.117865674089856</v>
+        <v>1.03695379675676</v>
       </c>
       <c r="H21" t="n">
-        <v>10.79622901028888</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I21" t="n">
-        <v>38.48791904212884</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J21" t="n">
-        <v>105.6137916033755</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K21" t="n">
-        <v>180.5107917673958</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L21" t="n">
         <v>225.1508671422956</v>
@@ -32569,22 +32569,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>213.4633145549306</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q21" t="n">
-        <v>142.6945727136456</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R21" t="n">
-        <v>69.40573018603516</v>
+        <v>64.38209625828375</v>
       </c>
       <c r="S21" t="n">
-        <v>20.76386460425675</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T21" t="n">
-        <v>4.505783133721833</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H22" t="n">
-        <v>8.332391336033025</v>
+        <v>7.729287187387102</v>
       </c>
       <c r="I22" t="n">
-        <v>28.18358950879063</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J22" t="n">
-        <v>66.25869879379222</v>
+        <v>61.46284913733072</v>
       </c>
       <c r="K22" t="n">
-        <v>108.8833959861983</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L22" t="n">
-        <v>139.3332596211493</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M22" t="n">
-        <v>146.9073863059482</v>
+        <v>136.2741298283391</v>
       </c>
       <c r="N22" t="n">
-        <v>143.4142570137463</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O22" t="n">
-        <v>132.4662786223328</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P22" t="n">
-        <v>113.3477856181833</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.47613148895721</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R22" t="n">
-        <v>42.13906702251462</v>
+        <v>39.0890127084014</v>
       </c>
       <c r="S22" t="n">
-        <v>16.33250939792975</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T22" t="n">
-        <v>4.004318944719344</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.08928434194701</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H23" t="n">
-        <v>21.39688326696483</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I23" t="n">
-        <v>80.5471345929122</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J23" t="n">
-        <v>177.3253969173253</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K23" t="n">
-        <v>265.7648031119423</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L23" t="n">
-        <v>329.7047387918032</v>
+        <v>305.8404856891367</v>
       </c>
       <c r="M23" t="n">
-        <v>366.8600492079033</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N23" t="n">
-        <v>372.7962283444602</v>
+        <v>345.8129839375624</v>
       </c>
       <c r="O23" t="n">
-        <v>352.0209071692246</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P23" t="n">
-        <v>300.4416999774078</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q23" t="n">
-        <v>225.6192044814304</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R23" t="n">
-        <v>131.241007544829</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S23" t="n">
-        <v>47.60956694211755</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T23" t="n">
-        <v>9.145842206873043</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.117865674089856</v>
+        <v>1.03695379675676</v>
       </c>
       <c r="H24" t="n">
-        <v>10.79622901028888</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I24" t="n">
-        <v>38.48791904212884</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J24" t="n">
-        <v>105.6137916033755</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K24" t="n">
-        <v>180.5107917673958</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L24" t="n">
         <v>225.1508671422956</v>
@@ -32806,22 +32806,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>213.4633145549306</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q24" t="n">
-        <v>142.6945727136456</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R24" t="n">
-        <v>69.40573018603516</v>
+        <v>64.38209625828375</v>
       </c>
       <c r="S24" t="n">
-        <v>20.76386460425675</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T24" t="n">
-        <v>4.505783133721833</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H25" t="n">
-        <v>8.332391336033025</v>
+        <v>7.729287187387102</v>
       </c>
       <c r="I25" t="n">
-        <v>28.18358950879063</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J25" t="n">
-        <v>66.25869879379222</v>
+        <v>61.46284913733072</v>
       </c>
       <c r="K25" t="n">
-        <v>108.8833959861983</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L25" t="n">
-        <v>139.3332596211493</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M25" t="n">
-        <v>146.9073863059482</v>
+        <v>136.2741298283391</v>
       </c>
       <c r="N25" t="n">
-        <v>143.4142570137463</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O25" t="n">
-        <v>132.4662786223328</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P25" t="n">
-        <v>113.3477856181833</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.47613148895721</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R25" t="n">
-        <v>42.13906702251462</v>
+        <v>39.0890127084014</v>
       </c>
       <c r="S25" t="n">
-        <v>16.33250939792975</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T25" t="n">
-        <v>4.004318944719344</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.08928434194701</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H26" t="n">
-        <v>21.39688326696483</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I26" t="n">
-        <v>80.5471345929122</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J26" t="n">
-        <v>177.3253969173253</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K26" t="n">
-        <v>265.7648031119423</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L26" t="n">
-        <v>329.7047387918032</v>
+        <v>305.8404856891367</v>
       </c>
       <c r="M26" t="n">
-        <v>366.8600492079033</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N26" t="n">
-        <v>372.7962283444602</v>
+        <v>345.8129839375624</v>
       </c>
       <c r="O26" t="n">
-        <v>352.0209071692246</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P26" t="n">
-        <v>300.4416999774078</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q26" t="n">
-        <v>225.6192044814304</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R26" t="n">
-        <v>131.241007544829</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S26" t="n">
-        <v>47.60956694211755</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T26" t="n">
-        <v>9.145842206873043</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.117865674089856</v>
+        <v>1.03695379675676</v>
       </c>
       <c r="H27" t="n">
-        <v>10.79622901028888</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I27" t="n">
-        <v>38.48791904212884</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J27" t="n">
-        <v>105.6137916033755</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K27" t="n">
-        <v>180.5107917673958</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L27" t="n">
         <v>225.1508671422956</v>
@@ -33043,22 +33043,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>213.4633145549306</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q27" t="n">
-        <v>142.6945727136456</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R27" t="n">
-        <v>69.40573018603516</v>
+        <v>64.38209625828375</v>
       </c>
       <c r="S27" t="n">
-        <v>20.76386460425675</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T27" t="n">
-        <v>4.505783133721833</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H28" t="n">
-        <v>8.332391336033025</v>
+        <v>7.729287187387102</v>
       </c>
       <c r="I28" t="n">
-        <v>28.18358950879063</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J28" t="n">
-        <v>66.25869879379222</v>
+        <v>61.46284913733072</v>
       </c>
       <c r="K28" t="n">
-        <v>108.8833959861983</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L28" t="n">
-        <v>139.3332596211493</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M28" t="n">
-        <v>146.9073863059482</v>
+        <v>136.2741298283391</v>
       </c>
       <c r="N28" t="n">
-        <v>143.4142570137463</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O28" t="n">
-        <v>132.4662786223328</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P28" t="n">
-        <v>113.3477856181833</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.47613148895721</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R28" t="n">
-        <v>42.13906702251462</v>
+        <v>39.0890127084014</v>
       </c>
       <c r="S28" t="n">
-        <v>16.33250939792975</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T28" t="n">
-        <v>4.004318944719344</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.08928434194701</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H29" t="n">
-        <v>21.39688326696482</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I29" t="n">
-        <v>80.5471345929122</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J29" t="n">
-        <v>177.3253969173252</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K29" t="n">
-        <v>265.7648031119422</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L29" t="n">
-        <v>329.7047387918032</v>
+        <v>305.8404856891368</v>
       </c>
       <c r="M29" t="n">
-        <v>366.8600492079033</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N29" t="n">
-        <v>372.7962283444602</v>
+        <v>345.8129839375625</v>
       </c>
       <c r="O29" t="n">
-        <v>352.0209071692246</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P29" t="n">
-        <v>300.4416999774078</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q29" t="n">
-        <v>225.6192044814304</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R29" t="n">
-        <v>131.241007544829</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S29" t="n">
-        <v>47.60956694211755</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T29" t="n">
-        <v>9.145842206873043</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.117865674089856</v>
+        <v>1.036953796756759</v>
       </c>
       <c r="H30" t="n">
-        <v>10.79622901028888</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I30" t="n">
-        <v>38.48791904212884</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J30" t="n">
-        <v>105.6137916033754</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K30" t="n">
-        <v>180.5107917673958</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L30" t="n">
         <v>225.1508671422956</v>
@@ -33280,22 +33280,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>213.4633145549306</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q30" t="n">
-        <v>142.6945727136456</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R30" t="n">
-        <v>69.40573018603516</v>
+        <v>64.38209625828374</v>
       </c>
       <c r="S30" t="n">
-        <v>20.76386460425675</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T30" t="n">
-        <v>4.505783133721833</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0735437943480169</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H31" t="n">
-        <v>8.332391336033027</v>
+        <v>7.729287187387103</v>
       </c>
       <c r="I31" t="n">
-        <v>28.18358950879063</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J31" t="n">
-        <v>66.25869879379222</v>
+        <v>61.46284913733073</v>
       </c>
       <c r="K31" t="n">
-        <v>108.8833959861983</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L31" t="n">
-        <v>139.3332596211493</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M31" t="n">
-        <v>146.9073863059482</v>
+        <v>136.2741298283392</v>
       </c>
       <c r="N31" t="n">
-        <v>143.4142570137463</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O31" t="n">
-        <v>132.4662786223328</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P31" t="n">
-        <v>113.3477856181833</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.47613148895721</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R31" t="n">
-        <v>42.13906702251462</v>
+        <v>39.08901270840141</v>
       </c>
       <c r="S31" t="n">
-        <v>16.33250939792974</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T31" t="n">
-        <v>4.004318944719343</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.08928434194701</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H32" t="n">
-        <v>21.39688326696483</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I32" t="n">
-        <v>80.5471345929122</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J32" t="n">
-        <v>177.3253969173253</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K32" t="n">
-        <v>265.7648031119423</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L32" t="n">
-        <v>329.7047387918032</v>
+        <v>305.8404856891367</v>
       </c>
       <c r="M32" t="n">
-        <v>366.8600492079033</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N32" t="n">
-        <v>372.7962283444602</v>
+        <v>345.8129839375624</v>
       </c>
       <c r="O32" t="n">
-        <v>352.0209071692246</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P32" t="n">
-        <v>300.4416999774078</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q32" t="n">
-        <v>225.6192044814304</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R32" t="n">
-        <v>131.241007544829</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S32" t="n">
-        <v>47.60956694211755</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T32" t="n">
-        <v>9.145842206873043</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.117865674089856</v>
+        <v>1.03695379675676</v>
       </c>
       <c r="H33" t="n">
-        <v>10.79622901028888</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I33" t="n">
-        <v>38.48791904212884</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J33" t="n">
-        <v>105.6137916033755</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K33" t="n">
-        <v>180.5107917673958</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L33" t="n">
         <v>225.1508671422956</v>
@@ -33517,22 +33517,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>213.4633145549306</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q33" t="n">
-        <v>142.6945727136456</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R33" t="n">
-        <v>69.40573018603516</v>
+        <v>64.38209625828375</v>
       </c>
       <c r="S33" t="n">
-        <v>20.76386460425675</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T33" t="n">
-        <v>4.505783133721833</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H34" t="n">
-        <v>8.332391336033025</v>
+        <v>7.729287187387102</v>
       </c>
       <c r="I34" t="n">
-        <v>28.18358950879063</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J34" t="n">
-        <v>66.25869879379222</v>
+        <v>61.46284913733072</v>
       </c>
       <c r="K34" t="n">
-        <v>108.8833959861983</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L34" t="n">
-        <v>139.3332596211493</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M34" t="n">
-        <v>146.9073863059482</v>
+        <v>136.2741298283391</v>
       </c>
       <c r="N34" t="n">
-        <v>143.4142570137463</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O34" t="n">
-        <v>132.4662786223328</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P34" t="n">
-        <v>113.3477856181833</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.47613148895721</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R34" t="n">
-        <v>42.13906702251462</v>
+        <v>39.0890127084014</v>
       </c>
       <c r="S34" t="n">
-        <v>16.33250939792975</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T34" t="n">
-        <v>4.004318944719344</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.08928434194701</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H35" t="n">
-        <v>21.39688326696483</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I35" t="n">
-        <v>80.5471345929122</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J35" t="n">
-        <v>177.3253969173253</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K35" t="n">
-        <v>265.7648031119423</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L35" t="n">
-        <v>329.7047387918032</v>
+        <v>305.8404856891367</v>
       </c>
       <c r="M35" t="n">
-        <v>366.8600492079033</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N35" t="n">
-        <v>372.7962283444602</v>
+        <v>345.8129839375624</v>
       </c>
       <c r="O35" t="n">
-        <v>352.0209071692246</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P35" t="n">
-        <v>300.4416999774078</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q35" t="n">
-        <v>225.6192044814304</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R35" t="n">
-        <v>131.241007544829</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S35" t="n">
-        <v>47.60956694211755</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T35" t="n">
-        <v>9.145842206873043</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.117865674089856</v>
+        <v>1.03695379675676</v>
       </c>
       <c r="H36" t="n">
-        <v>10.79622901028888</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I36" t="n">
-        <v>38.48791904212884</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J36" t="n">
-        <v>105.6137916033755</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K36" t="n">
-        <v>180.5107917673958</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L36" t="n">
         <v>225.1508671422956</v>
@@ -33754,22 +33754,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>213.4633145549306</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q36" t="n">
-        <v>142.6945727136456</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R36" t="n">
-        <v>69.40573018603516</v>
+        <v>64.38209625828375</v>
       </c>
       <c r="S36" t="n">
-        <v>20.76386460425675</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T36" t="n">
-        <v>4.505783133721833</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H37" t="n">
-        <v>8.332391336033025</v>
+        <v>7.729287187387102</v>
       </c>
       <c r="I37" t="n">
-        <v>28.18358950879063</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J37" t="n">
-        <v>66.25869879379222</v>
+        <v>61.46284913733072</v>
       </c>
       <c r="K37" t="n">
-        <v>108.8833959861983</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L37" t="n">
-        <v>139.3332596211493</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M37" t="n">
-        <v>146.9073863059482</v>
+        <v>136.2741298283391</v>
       </c>
       <c r="N37" t="n">
-        <v>143.4142570137463</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O37" t="n">
-        <v>132.4662786223328</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P37" t="n">
-        <v>113.3477856181833</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.47613148895721</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R37" t="n">
-        <v>42.13906702251462</v>
+        <v>39.0890127084014</v>
       </c>
       <c r="S37" t="n">
-        <v>16.33250939792975</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T37" t="n">
-        <v>4.004318944719344</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.08928434194701</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H38" t="n">
-        <v>21.39688326696483</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I38" t="n">
-        <v>80.5471345929122</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J38" t="n">
-        <v>177.3253969173253</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K38" t="n">
-        <v>265.7648031119423</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L38" t="n">
-        <v>329.7047387918032</v>
+        <v>305.8404856891367</v>
       </c>
       <c r="M38" t="n">
-        <v>366.8600492079033</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N38" t="n">
-        <v>372.7962283444602</v>
+        <v>345.8129839375624</v>
       </c>
       <c r="O38" t="n">
-        <v>352.0209071692246</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P38" t="n">
-        <v>300.4416999774078</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q38" t="n">
-        <v>225.6192044814304</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R38" t="n">
-        <v>131.241007544829</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S38" t="n">
-        <v>47.60956694211755</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T38" t="n">
-        <v>9.145842206873043</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.117865674089856</v>
+        <v>1.03695379675676</v>
       </c>
       <c r="H39" t="n">
-        <v>10.79622901028888</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I39" t="n">
-        <v>38.48791904212884</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J39" t="n">
-        <v>105.6137916033755</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K39" t="n">
-        <v>180.5107917673958</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L39" t="n">
         <v>225.1508671422956</v>
@@ -33991,22 +33991,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>213.4633145549306</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q39" t="n">
-        <v>142.6945727136456</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R39" t="n">
-        <v>69.40573018603516</v>
+        <v>64.38209625828375</v>
       </c>
       <c r="S39" t="n">
-        <v>20.76386460425675</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T39" t="n">
-        <v>4.505783133721833</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H40" t="n">
-        <v>8.332391336033025</v>
+        <v>7.729287187387102</v>
       </c>
       <c r="I40" t="n">
-        <v>28.18358950879063</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J40" t="n">
-        <v>66.25869879379222</v>
+        <v>61.46284913733072</v>
       </c>
       <c r="K40" t="n">
-        <v>108.8833959861983</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L40" t="n">
-        <v>139.3332596211493</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M40" t="n">
-        <v>146.9073863059482</v>
+        <v>136.2741298283391</v>
       </c>
       <c r="N40" t="n">
-        <v>143.4142570137463</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O40" t="n">
-        <v>132.4662786223328</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P40" t="n">
-        <v>113.3477856181833</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.47613148895721</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R40" t="n">
-        <v>42.13906702251462</v>
+        <v>39.0890127084014</v>
       </c>
       <c r="S40" t="n">
-        <v>16.33250939792975</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T40" t="n">
-        <v>4.004318944719344</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.08928434194701</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H41" t="n">
-        <v>21.39688326696483</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I41" t="n">
-        <v>80.5471345929122</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J41" t="n">
-        <v>177.3253969173253</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K41" t="n">
-        <v>265.7648031119423</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L41" t="n">
-        <v>329.7047387918032</v>
+        <v>305.8404856891367</v>
       </c>
       <c r="M41" t="n">
-        <v>366.8600492079033</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N41" t="n">
-        <v>372.7962283444602</v>
+        <v>345.8129839375624</v>
       </c>
       <c r="O41" t="n">
-        <v>352.0209071692246</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P41" t="n">
-        <v>300.4416999774078</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q41" t="n">
-        <v>225.6192044814304</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R41" t="n">
-        <v>131.241007544829</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S41" t="n">
-        <v>47.60956694211755</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T41" t="n">
-        <v>9.145842206873043</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.117865674089856</v>
+        <v>1.03695379675676</v>
       </c>
       <c r="H42" t="n">
-        <v>10.79622901028888</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I42" t="n">
-        <v>38.48791904212884</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J42" t="n">
-        <v>105.6137916033755</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K42" t="n">
-        <v>180.5107917673958</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L42" t="n">
         <v>225.1508671422956</v>
@@ -34228,22 +34228,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>213.4633145549306</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q42" t="n">
-        <v>142.6945727136456</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R42" t="n">
-        <v>69.40573018603516</v>
+        <v>64.38209625828375</v>
       </c>
       <c r="S42" t="n">
-        <v>20.76386460425675</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T42" t="n">
-        <v>4.505783133721833</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H43" t="n">
-        <v>8.332391336033025</v>
+        <v>7.729287187387102</v>
       </c>
       <c r="I43" t="n">
-        <v>28.18358950879063</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J43" t="n">
-        <v>66.25869879379222</v>
+        <v>61.46284913733072</v>
       </c>
       <c r="K43" t="n">
-        <v>108.8833959861983</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L43" t="n">
-        <v>139.3332596211493</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M43" t="n">
-        <v>146.9073863059482</v>
+        <v>136.2741298283391</v>
       </c>
       <c r="N43" t="n">
-        <v>143.4142570137463</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O43" t="n">
-        <v>132.4662786223328</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P43" t="n">
-        <v>113.3477856181833</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.47613148895721</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R43" t="n">
-        <v>42.13906702251462</v>
+        <v>39.0890127084014</v>
       </c>
       <c r="S43" t="n">
-        <v>16.33250939792975</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T43" t="n">
-        <v>4.004318944719344</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.08928434194701</v>
+        <v>1.938060521135792</v>
       </c>
       <c r="H44" t="n">
-        <v>21.39688326696483</v>
+        <v>19.84816231208193</v>
       </c>
       <c r="I44" t="n">
-        <v>80.5471345929122</v>
+        <v>74.71707824108768</v>
       </c>
       <c r="J44" t="n">
-        <v>177.3253969173253</v>
+        <v>164.4904641557491</v>
       </c>
       <c r="K44" t="n">
-        <v>265.7648031119423</v>
+        <v>246.5285660154272</v>
       </c>
       <c r="L44" t="n">
-        <v>329.7047387918032</v>
+        <v>305.8404856891367</v>
       </c>
       <c r="M44" t="n">
-        <v>366.8600492079033</v>
+        <v>340.3064694818854</v>
       </c>
       <c r="N44" t="n">
-        <v>372.7962283444602</v>
+        <v>345.8129839375624</v>
       </c>
       <c r="O44" t="n">
-        <v>352.0209071692246</v>
+        <v>326.5413946305184</v>
       </c>
       <c r="P44" t="n">
-        <v>300.4416999774078</v>
+        <v>278.6955255149785</v>
       </c>
       <c r="Q44" t="n">
-        <v>225.6192044814304</v>
+        <v>209.2887331018029</v>
       </c>
       <c r="R44" t="n">
-        <v>131.241007544829</v>
+        <v>121.7416942107963</v>
       </c>
       <c r="S44" t="n">
-        <v>47.60956694211755</v>
+        <v>44.1635541253819</v>
       </c>
       <c r="T44" t="n">
-        <v>9.145842206873043</v>
+        <v>8.483859931271933</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1671427473557608</v>
+        <v>0.1550448416908633</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.117865674089856</v>
+        <v>1.03695379675676</v>
       </c>
       <c r="H45" t="n">
-        <v>10.79622901028888</v>
+        <v>10.01479061604555</v>
       </c>
       <c r="I45" t="n">
-        <v>38.48791904212884</v>
+        <v>35.70213730061651</v>
       </c>
       <c r="J45" t="n">
-        <v>105.6137916033755</v>
+        <v>97.96939357867264</v>
       </c>
       <c r="K45" t="n">
-        <v>180.5107917673958</v>
+        <v>167.4452979613755</v>
       </c>
       <c r="L45" t="n">
         <v>225.1508671422956</v>
@@ -34465,22 +34465,22 @@
         <v>231.7188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>213.4633145549306</v>
+        <v>198.0126947508588</v>
       </c>
       <c r="Q45" t="n">
-        <v>142.6945727136456</v>
+        <v>132.3662425474067</v>
       </c>
       <c r="R45" t="n">
-        <v>69.40573018603516</v>
+        <v>64.38209625828375</v>
       </c>
       <c r="S45" t="n">
-        <v>20.76386460425675</v>
+        <v>19.26096197045997</v>
       </c>
       <c r="T45" t="n">
-        <v>4.505783133721833</v>
+        <v>4.179651487804657</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07354379434801692</v>
+        <v>0.06822064452347106</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9371810296151658</v>
+        <v>0.8693472296652154</v>
       </c>
       <c r="H46" t="n">
-        <v>8.332391336033025</v>
+        <v>7.729287187387102</v>
       </c>
       <c r="I46" t="n">
-        <v>28.18358950879063</v>
+        <v>26.14364214302303</v>
       </c>
       <c r="J46" t="n">
-        <v>66.25869879379222</v>
+        <v>61.46284913733072</v>
       </c>
       <c r="K46" t="n">
-        <v>108.8833959861983</v>
+        <v>101.0023417738314</v>
       </c>
       <c r="L46" t="n">
-        <v>139.3332596211493</v>
+        <v>129.2482235813176</v>
       </c>
       <c r="M46" t="n">
-        <v>146.9073863059482</v>
+        <v>136.2741298283391</v>
       </c>
       <c r="N46" t="n">
-        <v>143.4142570137463</v>
+        <v>133.033835608678</v>
       </c>
       <c r="O46" t="n">
-        <v>132.4662786223328</v>
+        <v>122.8782793348616</v>
       </c>
       <c r="P46" t="n">
-        <v>113.3477856181833</v>
+        <v>105.1435958496911</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.47613148895721</v>
+        <v>72.79597574951181</v>
       </c>
       <c r="R46" t="n">
-        <v>42.13906702251462</v>
+        <v>39.0890127084014</v>
       </c>
       <c r="S46" t="n">
-        <v>16.33250939792975</v>
+        <v>15.1503512660747</v>
       </c>
       <c r="T46" t="n">
-        <v>4.004318944719344</v>
+        <v>3.714483617660465</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05111896525173638</v>
+        <v>0.04741893979992089</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
